--- a/outstanding.xlsx
+++ b/outstanding.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,144 +433,144 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Advaitha Technogies</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B2" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-03</v>
       </c>
       <c r="C2" t="str">
-        <v>Adv/ 1838</v>
+        <v>BM2406I000074736</v>
       </c>
       <c r="D2" t="str">
-        <v>9676</v>
+        <v>10467</v>
       </c>
       <c r="E2" t="str">
-        <v>ILOGADV001</v>
+        <v>1307035590</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>dec 22</v>
+        <v>02-Mar-2023 to 01-Apr-2023</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6a2f7d00-d786-11ed-8c3d-8127e1b69a51-Bill_BM2406I000074736.pdf</v>
       </c>
       <c r="I2" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Hirezone Systems Private Limited</v>
+        <v>Y Net Communication</v>
       </c>
       <c r="B3" t="str">
-        <v>2022-12-02</v>
+        <v>2023-03-06</v>
       </c>
       <c r="C3" t="str">
-        <v>HSPL/RT396/22-23</v>
+        <v>YNet2022/0634</v>
       </c>
       <c r="D3" t="str">
-        <v>2124</v>
+        <v>5900</v>
       </c>
       <c r="E3" t="str">
-        <v>ILOGHIREZONE-001</v>
+        <v>ILOGYNET001</v>
       </c>
       <c r="F3" t="str">
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>dec 22</v>
+        <v>Period: 01.03.2023 to 31.03.2023</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/034df1b0-d787-11ed-8c3d-8127e1b69a51-Ilog Solutions March.pdf</v>
       </c>
       <c r="I3" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>NSS System Services</v>
+        <v>Y Net Communication</v>
       </c>
       <c r="B4" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-05</v>
       </c>
       <c r="C4" t="str">
-        <v>NSS/22-23/260</v>
+        <v>YNet2023/0039</v>
       </c>
       <c r="D4" t="str">
-        <v>4720</v>
+        <v>5900</v>
       </c>
       <c r="E4" t="str">
-        <v>ILOGNSS001</v>
+        <v>ILOGYNET001</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>DEC22</v>
+        <v>Period: 01.04.2023 to 30.04.2023</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2d1178f0-d787-11ed-8c3d-8127e1b69a51-Ilog Solutions.pdf</v>
       </c>
       <c r="I4" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Y Net Communication</v>
+        <v>Advaitha Technogies</v>
       </c>
       <c r="B5" t="str">
-        <v>2022-12-05</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C5" t="str">
-        <v xml:space="preserve"> YNet2022/0502</v>
+        <v>Adv/ 8</v>
       </c>
       <c r="D5" t="str">
-        <v>5900</v>
+        <v>6608</v>
       </c>
       <c r="E5" t="str">
-        <v>ILOGYNET001</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>DEC 22</v>
+        <v>rent march 23</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ba881270-d787-11ed-8c3d-8127e1b69a51-ILOG 8.pdf</v>
       </c>
       <c r="I5" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Shyam Spectra Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B6" t="str">
-        <v>2022-12-08</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C6" t="str">
-        <v>BHRI006073/22-23</v>
+        <v>BBL072404B000476</v>
       </c>
       <c r="D6" t="str">
-        <v>13138</v>
+        <v>19175</v>
       </c>
       <c r="E6" t="str">
-        <v>9082431</v>
+        <v>19682805</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>DEC22</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H6" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/eec37800-bf2b-11ed-80f1-cb8814d4a67d-pdfds361895759992030563.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/37f00b80-d799-11ed-8c3d-8127e1b69a51-21-19682805-12-BBL072404B000476-BW-07-Apr-2023.pdf</v>
       </c>
       <c r="I6" t="str">
         <v>Y</v>
@@ -578,579 +578,579 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B7" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C7" t="str">
-        <v xml:space="preserve">	 TI/3671/G/22-23</v>
+        <v>BBL292404B002268</v>
       </c>
       <c r="D7" t="str">
-        <v>5900</v>
+        <v>17700</v>
       </c>
       <c r="E7" t="str">
-        <v>ILOGGPS001</v>
+        <v>31-40011108</v>
       </c>
       <c r="F7" t="str">
-        <v>392,065</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>NOV22</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6c0fdb20-d799-11ed-8c3d-8127e1b69a51-21-100031981-BBL292404B002268-BW-07-Apr-2023.pdf</v>
       </c>
       <c r="I7" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B8" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C8" t="str">
-        <v xml:space="preserve">	 TI/3674/G/22-23</v>
+        <v>BBL362404B000888</v>
       </c>
       <c r="D8" t="str">
-        <v>5900</v>
+        <v>23600</v>
       </c>
       <c r="E8" t="str">
-        <v>ILOGGPS001</v>
+        <v>19682805</v>
       </c>
       <c r="F8" t="str">
-        <v xml:space="preserve">336,839	</v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>NOV22</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b5c1ab90-d799-11ed-8c3d-8127e1b69a51-21-100020330-BBL362404B000888-BW-07-Apr-2023.pdf</v>
       </c>
       <c r="I8" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Mukand Infotel Private Limited</v>
       </c>
       <c r="B9" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C9" t="str">
-        <v xml:space="preserve">	 TI/3669/G/22-23</v>
+        <v>AS/23-24/00290</v>
       </c>
       <c r="D9" t="str">
-        <v>5900</v>
+        <v>2360</v>
       </c>
       <c r="E9" t="str">
-        <v>ILOGGPS001</v>
+        <v>N7523</v>
       </c>
       <c r="F9" t="str">
-        <v>62,130</v>
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v>NOV22</v>
+        <v>01/04/2023 To 30/04/2023</v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/86f21800-d7a2-11ed-8c3d-8127e1b69a51-ILOG SOLUTIONS  PVT LTD_2_AS23-2400290.pdf</v>
       </c>
       <c r="I9" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B10" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C10" t="str">
-        <v xml:space="preserve">	 TI/3681/G/22-23</v>
+        <v>BBL062404B000023</v>
       </c>
       <c r="D10" t="str">
-        <v>4972</v>
+        <v>23600</v>
       </c>
       <c r="E10" t="str">
-        <v>ILOGGPS001</v>
+        <v>19682805</v>
       </c>
       <c r="F10" t="str">
-        <v>112,264</v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>NOV22</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H10" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/27b90e30-daad-11ed-8c3d-8127e1b69a51-_BBL062404B000023.pdf</v>
       </c>
       <c r="I10" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B11" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C11" t="str">
-        <v xml:space="preserve">	 TI/3922/G/22-23</v>
+        <v>BBL062404B000066</v>
       </c>
       <c r="D11" t="str">
-        <v>4130</v>
+        <v>23600</v>
       </c>
       <c r="E11" t="str">
-        <v>ILOGGPS001</v>
+        <v>19682805</v>
       </c>
       <c r="F11" t="str">
-        <v xml:space="preserve">20,700	</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>NOV22</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/71fd3390-daad-11ed-8c3d-8127e1b69a51-_BBL062404B000066.pdf</v>
       </c>
       <c r="I11" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B12" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C12" t="str">
-        <v xml:space="preserve">	 TI/3679/G/22-23</v>
+        <v>BBL062404B000236</v>
       </c>
       <c r="D12" t="str">
-        <v>5900</v>
+        <v>23600</v>
       </c>
       <c r="E12" t="str">
-        <v>ILOGGPS001</v>
+        <v>19682805</v>
       </c>
       <c r="F12" t="str">
-        <v>16,102</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>NOV22</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/aa6fbb80-daad-11ed-8c3d-8127e1b69a51-_BBL062404B000236.pdf</v>
       </c>
       <c r="I12" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B13" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C13" t="str">
-        <v xml:space="preserve">	 TI/3678/G/22-23</v>
+        <v>BBL242404B000237</v>
       </c>
       <c r="D13" t="str">
-        <v>5900</v>
+        <v>14750</v>
       </c>
       <c r="E13" t="str">
-        <v>ILOGGPS001</v>
+        <v>19682805</v>
       </c>
       <c r="F13" t="str">
-        <v xml:space="preserve">94,160	</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v>NOV22</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f1cd89d0-daad-11ed-8c3d-8127e1b69a51-_BBL242404B000237.pdf</v>
       </c>
       <c r="I13" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B14" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C14" t="str">
-        <v xml:space="preserve">	 TI/8289/A/22-23</v>
+        <v>BBL362404B000888</v>
       </c>
       <c r="D14" t="str">
-        <v>5900</v>
+        <v>23600</v>
       </c>
       <c r="E14" t="str">
-        <v>ILOGAONE001</v>
+        <v>19682805</v>
       </c>
       <c r="F14" t="str">
-        <v>211,670</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>NOV22</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d9da1be0-e58e-11ed-9ba7-457f519ee645-_BBL362404B000888.pdf</v>
       </c>
       <c r="I14" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Shyam Spectra Private Limited</v>
       </c>
       <c r="B15" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-10</v>
       </c>
       <c r="C15" t="str">
-        <v>TI/8288/A/22-23</v>
+        <v>BHRI000999/23-24</v>
       </c>
       <c r="D15" t="str">
-        <v>2950</v>
+        <v>13492.12</v>
       </c>
       <c r="E15" t="str">
-        <v>ILOGAONE001</v>
+        <v>9082431</v>
       </c>
       <c r="F15" t="str">
-        <v>156,486</v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v>NOV22</v>
+        <v>8 Apr 2023 to 7 May 2023</v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a6fb9f20-dde9-11ed-8c3d-8127e1b69a51-9082431_BHRI000999_23-24.pdf</v>
       </c>
       <c r="I15" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>JB Computers</v>
       </c>
       <c r="B16" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-06</v>
       </c>
       <c r="C16" t="str">
-        <v xml:space="preserve">	 TI/8286/A/22-23</v>
+        <v>6</v>
       </c>
       <c r="D16" t="str">
-        <v>2950</v>
+        <v>19824</v>
       </c>
       <c r="E16" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGJB001</v>
       </c>
       <c r="F16" t="str">
-        <v>132,632</v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v>NOV22</v>
+        <v>RENT April 23</v>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b6c85ab0-de7f-11ed-aa7d-5d02d5c6dc83-APR-2023.pdf</v>
       </c>
       <c r="I16" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B17" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-18</v>
       </c>
       <c r="C17" t="str">
-        <v xml:space="preserve">	 TI/8285/A/22-23</v>
+        <v xml:space="preserve"> DLPR-2300136</v>
       </c>
       <c r="D17" t="str">
-        <v>2950</v>
+        <v>15000</v>
       </c>
       <c r="E17" t="str">
-        <v>ILOGAONE001</v>
+        <v>ANYSPAZE-KNOWLARITY001</v>
       </c>
       <c r="F17" t="str">
-        <v>139,127</v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>NOV22</v>
+        <v>Other Telecommunications &amp; Internet Services n.e.c :-Plan: Advance Plan Validity: 23-04-2024</v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2bc48930-de6f-11ed-8c3d-8127e1b69a51-DLPR-2300136_119256DLPR-2300136_119256_envoice.pdf</v>
       </c>
       <c r="I17" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>AAA Rental LLP</v>
       </c>
       <c r="B18" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-24</v>
       </c>
       <c r="C18" t="str">
-        <v xml:space="preserve">	 TI/8744/A/22-23</v>
+        <v>MUM/23-24/203</v>
       </c>
       <c r="D18" t="str">
-        <v>5900</v>
+        <v>16638</v>
       </c>
       <c r="E18" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGAAA</v>
       </c>
       <c r="F18" t="str">
-        <v xml:space="preserve">	1,481,101</v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v>NOV22</v>
+        <v>22-Apr-23 21-May-23 RENTAL</v>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/40b5c8f0-e4cc-11ed-9ba7-457f519ee645-I-Log Solutions India Pvt. Ltd.-203.pdf</v>
       </c>
       <c r="I18" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Onsite Computer Solutions</v>
       </c>
       <c r="B19" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C19" t="str">
-        <v xml:space="preserve">	 TI/8745/A/22-23</v>
+        <v>ON/2324/006</v>
       </c>
       <c r="D19" t="str">
-        <v>5900</v>
+        <v>42008</v>
       </c>
       <c r="E19" t="str">
-        <v>ILOGAONE001</v>
+        <v>ONSITE001</v>
       </c>
       <c r="F19" t="str">
-        <v>440,101</v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>NOV22</v>
+        <v>rent apr23</v>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ad2d6330-e4e5-11ed-9ba7-457f519ee645-AWL-INV-006 Neww.pdf</v>
       </c>
       <c r="I19" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B20" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-27</v>
       </c>
       <c r="C20" t="str">
-        <v xml:space="preserve">	 TI/8747/A/22-23</v>
+        <v>CGPLGST134-2324</v>
       </c>
       <c r="D20" t="str">
-        <v>5900</v>
+        <v>340430</v>
       </c>
       <c r="E20" t="str">
-        <v>ILOGAONE001</v>
+        <v>CGPL002</v>
       </c>
       <c r="F20" t="str">
-        <v>1,007,277</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v>NOV22</v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/17cfbb40-e58e-11ed-9ba7-457f519ee645-ILog_134.pdf</v>
       </c>
       <c r="I20" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B21" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-24</v>
       </c>
       <c r="C21" t="str">
-        <v xml:space="preserve">	 TI/8750/A/22-23</v>
+        <v>HRI0504365045202</v>
       </c>
       <c r="D21" t="str">
-        <v>3433</v>
+        <v>1186.96</v>
       </c>
       <c r="E21" t="str">
-        <v>ILOGAONE001</v>
+        <v>13838424</v>
       </c>
       <c r="F21" t="str">
-        <v>47,651</v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v>NOV22</v>
+        <v>24.03.23 to 23.04.23</v>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/124e41c0-e5a0-11ed-9ba7-457f519ee645-138384824-20230424.pdf</v>
       </c>
       <c r="I21" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B22" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-24</v>
       </c>
       <c r="C22" t="str">
-        <v xml:space="preserve">	 TI/8752/A/22-23</v>
+        <v>: HRI0504365053664</v>
       </c>
       <c r="D22" t="str">
-        <v>2950</v>
+        <v>470.83</v>
       </c>
       <c r="E22" t="str">
-        <v>ILOGAONE001</v>
+        <v>167933548</v>
       </c>
       <c r="F22" t="str">
-        <v>42,984</v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v>NOV22</v>
+        <v>24.03.23 to 23.04.23</v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f600bea0-e5a2-11ed-9ba7-457f519ee645-167924255-20230424.pdf</v>
       </c>
       <c r="I22" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B23" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-28</v>
       </c>
       <c r="C23" t="str">
-        <v xml:space="preserve">	 TI/8898/A/22-23</v>
+        <v>HRI0504365089764</v>
       </c>
       <c r="D23" t="str">
-        <v>9794</v>
+        <v>588.89</v>
       </c>
       <c r="E23" t="str">
-        <v>ILOGAONE001</v>
+        <v>165169033</v>
       </c>
       <c r="F23" t="str">
-        <v>122,990</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>NOV22</v>
+        <v>28.03.23 to 27.04.23</v>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0358ea00-e8a5-11ed-9ba7-457f519ee645-165157230-20230428.pdf</v>
       </c>
       <c r="I23" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Scorpio Imaging System</v>
       </c>
       <c r="B24" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-29</v>
       </c>
       <c r="C24" t="str">
-        <v xml:space="preserve">	 TI/8749/A/22-23</v>
+        <v>26</v>
       </c>
       <c r="D24" t="str">
-        <v>5900</v>
+        <v>4130</v>
       </c>
       <c r="E24" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGSCO001</v>
       </c>
       <c r="F24" t="str">
-        <v xml:space="preserve">	1,037,011</v>
+        <v/>
       </c>
       <c r="G24" t="str">
-        <v>NOV22</v>
+        <v>rent apr</v>
       </c>
       <c r="H24" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a43f67a0-e8a5-11ed-9ba7-457f519ee645-26.pdf</v>
       </c>
       <c r="I24" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Shyam Spectra Private Limited</v>
+        <v>Scorpio Imaging System</v>
       </c>
       <c r="B25" t="str">
-        <v>2023-03-08</v>
+        <v>2023-04-29</v>
       </c>
       <c r="C25" t="str">
-        <v>BHRI008380/22-23</v>
+        <v>27</v>
       </c>
       <c r="D25" t="str">
-        <v>12784</v>
+        <v>2950</v>
       </c>
       <c r="E25" t="str">
-        <v>9082431</v>
+        <v>ILOGSCO001</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>rent apr 23</v>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/bdb88db0-e8a5-11ed-9ba7-457f519ee645-27.pdf</v>
       </c>
       <c r="I25" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Brill Infotech</v>
+        <v>Fretron Private Limited</v>
       </c>
       <c r="B26" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C26" t="str">
-        <v>54</v>
+        <v>FPL/2023-24/0123</v>
       </c>
       <c r="D26" t="str">
-        <v>30000</v>
+        <v>6242</v>
       </c>
       <c r="E26" t="str">
-        <v>ILOGBRILL001</v>
+        <v>ILOGFRETRON</v>
       </c>
       <c r="F26" t="str">
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>feb23 frontend</v>
+        <v>For the Month of April 23</v>
       </c>
       <c r="H26" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/cc030c80-c21f-11ed-b51d-c12cf526ba04-Invoice # 54.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7ede5ab0-e8a6-11ed-9ba7-457f519ee645-FPL2023-240123.pdf</v>
       </c>
       <c r="I26" t="str">
         <v>Y</v>
@@ -1158,28 +1158,28 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Brill Infotech</v>
+        <v>Giga Network Communications</v>
       </c>
       <c r="B27" t="str">
-        <v>2023-03-01</v>
+        <v>2023-05-01</v>
       </c>
       <c r="C27" t="str">
-        <v>55</v>
+        <v>3226</v>
       </c>
       <c r="D27" t="str">
-        <v>30000</v>
+        <v>11682</v>
       </c>
       <c r="E27" t="str">
-        <v>ILOGBRILL001</v>
+        <v>ILOGGIGA001</v>
       </c>
       <c r="F27" t="str">
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>march 23 frontend</v>
+        <v>may to oct 2023</v>
       </c>
       <c r="H27" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d6c14b00-c21f-11ed-b51d-c12cf526ba04-Invoice # 55.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0091ac80-e8cd-11ed-8ef1-3975925956e7-I LOG SOLU MAY 23   3226.pdf</v>
       </c>
       <c r="I27" t="str">
         <v>Y</v>
@@ -1187,28 +1187,28 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Trackfins India</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B28" t="str">
-        <v>2023-03-18</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C28" t="str">
-        <v>TFI/UP/850/22-23</v>
+        <v>4721146191</v>
       </c>
       <c r="D28" t="str">
-        <v>3770</v>
+        <v>16976.33</v>
       </c>
       <c r="E28" t="str">
-        <v>TRACKFINS001</v>
+        <v>01E9EF-56197C-C5A763</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>BARCODE LABEL</v>
+        <v>apr 23</v>
       </c>
       <c r="H28" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/be199070-c6da-11ed-88be-55eecdb96ac0-trackfins india0001.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/973a3f30-e8cd-11ed-8ef1-3975925956e7-4721146191.pdf</v>
       </c>
       <c r="I28" t="str">
         <v>Y</v>
@@ -1216,28 +1216,28 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B29" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C29" t="str">
-        <v>TI/5317/G/22-23</v>
+        <v>4711413377</v>
       </c>
       <c r="D29" t="str">
-        <v>5900</v>
+        <v>5236.84</v>
       </c>
       <c r="E29" t="str">
-        <v>ILOGGPS001</v>
+        <v>1226-7792-2898</v>
       </c>
       <c r="F29" t="str">
-        <v>71490</v>
+        <v/>
       </c>
       <c r="G29" t="str">
-        <v>march 23</v>
+        <v xml:space="preserve">apr 23 </v>
       </c>
       <c r="H29" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0dabc780-c86f-11ed-a9ad-1df920e10020-5317.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/da6ab780-e8cd-11ed-8ef1-3975925956e7-4711413377.pdf</v>
       </c>
       <c r="I29" t="str">
         <v>Y</v>
@@ -1245,28 +1245,28 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B30" t="str">
-        <v>2023-03-01</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C30" t="str">
-        <v>TI/5318/G/22-23</v>
+        <v>CGPLGST1204-2223</v>
       </c>
       <c r="D30" t="str">
-        <v>9151</v>
+        <v>295354</v>
       </c>
       <c r="E30" t="str">
-        <v>ILOGGPS001</v>
+        <v>CGPL001</v>
       </c>
       <c r="F30" t="str">
-        <v>452865</v>
+        <v/>
       </c>
       <c r="G30" t="str">
-        <v>march 23</v>
+        <v>mar 23</v>
       </c>
       <c r="H30" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2944c050-c86f-11ed-a9ad-1df920e10020-5318.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/1607aef0-e8cf-11ed-8ef1-3975925956e7-ILog_1204.pdf</v>
       </c>
       <c r="I30" t="str">
         <v>Y</v>
@@ -1274,28 +1274,28 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B31" t="str">
-        <v>2023-03-01</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C31" t="str">
-        <v>TI/5319/G/22-23</v>
+        <v>CGPLGST1205-2223</v>
       </c>
       <c r="D31" t="str">
-        <v>5900</v>
+        <v>202635</v>
       </c>
       <c r="E31" t="str">
-        <v>ILOGGPS001</v>
+        <v>CGPL001</v>
       </c>
       <c r="F31" t="str">
-        <v>373772</v>
+        <v/>
       </c>
       <c r="G31" t="str">
-        <v>march 23</v>
+        <v>mar 23</v>
       </c>
       <c r="H31" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/51bfc200-c86f-11ed-a9ad-1df920e10020-5319.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4a6dfd70-e8cf-11ed-8ef1-3975925956e7-ILog_1205_Revised.pdf</v>
       </c>
       <c r="I31" t="str">
         <v>Y</v>
@@ -1303,28 +1303,28 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B32" t="str">
-        <v>2023-03-01</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C32" t="str">
-        <v>TI/5320/G/22-23</v>
+        <v>CGPLGST1215-2223</v>
       </c>
       <c r="D32" t="str">
-        <v>5900</v>
+        <v>231923</v>
       </c>
       <c r="E32" t="str">
-        <v>ILOGGPS001</v>
+        <v>CGPL001</v>
       </c>
       <c r="F32" t="str">
-        <v>118905</v>
+        <v/>
       </c>
       <c r="G32" t="str">
-        <v>march 23</v>
+        <v>mar23</v>
       </c>
       <c r="H32" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6155a040-c86f-11ed-a9ad-1df920e10020-5320.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7992ede0-e8cf-11ed-8ef1-3975925956e7-ILog_1215.pdf</v>
       </c>
       <c r="I32" t="str">
         <v>Y</v>
@@ -1332,28 +1332,28 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B33" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-05</v>
       </c>
       <c r="C33" t="str">
-        <v>TI/5321/G/22-23</v>
+        <v>CGPLGST21-2324</v>
       </c>
       <c r="D33" t="str">
-        <v>5900</v>
+        <v>486550</v>
       </c>
       <c r="E33" t="str">
-        <v>ILOGGPS001</v>
+        <v>CGPL002</v>
       </c>
       <c r="F33" t="str">
-        <v>20689</v>
+        <v/>
       </c>
       <c r="G33" t="str">
-        <v>march 23</v>
+        <v xml:space="preserve"> M365 BUSINESS STANDARD</v>
       </c>
       <c r="H33" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/740c4680-c86f-11ed-a9ad-1df920e10020-5321.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b7d705f0-e8cf-11ed-8ef1-3975925956e7-ILog_21.pdf</v>
       </c>
       <c r="I33" t="str">
         <v>Y</v>
@@ -1361,28 +1361,28 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Onsite Computer Solutions</v>
       </c>
       <c r="B34" t="str">
-        <v>2023-03-01</v>
+        <v>2023-05-02</v>
       </c>
       <c r="C34" t="str">
-        <v>TI/5322/G/22-23</v>
+        <v>ON/2324/0177</v>
       </c>
       <c r="D34" t="str">
-        <v>3540</v>
+        <v>47908</v>
       </c>
       <c r="E34" t="str">
-        <v>ILOGGPS001</v>
+        <v>ONSITE001</v>
       </c>
       <c r="F34" t="str">
-        <v>127868</v>
+        <v/>
       </c>
       <c r="G34" t="str">
-        <v>march 23</v>
+        <v>rent apr 23</v>
       </c>
       <c r="H34" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/836a72f0-c86f-11ed-a9ad-1df920e10020-5322.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/36b5a930-e8d0-11ed-8ef1-3975925956e7-AWL Laptop Rent-INV-0177.pdf</v>
       </c>
       <c r="I34" t="str">
         <v>Y</v>
@@ -1390,28 +1390,28 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Onsite Computer Solutions</v>
       </c>
       <c r="B35" t="str">
-        <v>2023-03-01</v>
+        <v>2023-05-02</v>
       </c>
       <c r="C35" t="str">
-        <v>TI/5323/G/22-23</v>
+        <v>ON/2324/0178</v>
       </c>
       <c r="D35" t="str">
-        <v>4130</v>
+        <v>4808</v>
       </c>
       <c r="E35" t="str">
-        <v>ILOGGPS001</v>
+        <v>ONSITE001</v>
       </c>
       <c r="F35" t="str">
-        <v>25052</v>
+        <v/>
       </c>
       <c r="G35" t="str">
-        <v>march 23</v>
+        <v/>
       </c>
       <c r="H35" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/923a9030-c86f-11ed-a9ad-1df920e10020-5323.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f6833930-e8d0-11ed-8ef1-3975925956e7-AWL-INV-0178.pdf</v>
       </c>
       <c r="I35" t="str">
         <v>Y</v>
@@ -1419,28 +1419,28 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>AAA Rental LLP</v>
+        <v>Advaitha Technogies</v>
       </c>
       <c r="B36" t="str">
-        <v>2023-03-21</v>
+        <v>2023-05-01</v>
       </c>
       <c r="C36" t="str">
-        <v>MUM/22-23/3822</v>
+        <v>adv/62</v>
       </c>
       <c r="D36" t="str">
-        <v>16638</v>
+        <v>6608</v>
       </c>
       <c r="E36" t="str">
-        <v>ILOGAAA</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>rent23</v>
       </c>
       <c r="H36" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/5f62b5c0-c973-11ed-8938-5f228c0f7bf5-I-Log Solutions India Pvt. Ltd.-3822 (003).pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8313df80-e8d1-11ed-8ef1-3975925956e7-ILOG 62.pdf</v>
       </c>
       <c r="I36" t="str">
         <v>Y</v>
@@ -1448,28 +1448,28 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Hirezone Systems Private Limited</v>
       </c>
       <c r="B37" t="str">
-        <v>2023-03-01</v>
+        <v>2023-05-02</v>
       </c>
       <c r="C37" t="str">
-        <v>TI/12605/22-23</v>
+        <v>HSPL/RT060/23-24</v>
       </c>
       <c r="D37" t="str">
-        <v>5900</v>
+        <v>2124</v>
       </c>
       <c r="E37" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGHIREZONE-001</v>
       </c>
       <c r="F37" t="str">
-        <v>1056451</v>
+        <v/>
       </c>
       <c r="G37" t="str">
-        <v>march23</v>
+        <v>01.05.23 - 31.05.23</v>
       </c>
       <c r="H37" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0f581090-c872-11ed-858e-a1fdbe3cb3b2-12605.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/46098a80-e8d2-11ed-8ef1-3975925956e7-InvoiceHSPLRT06023-24_ILOG SOLUTIONS INDIA PVT LTDORIGINAL FOR RECIPIENT.pdf</v>
       </c>
       <c r="I37" t="str">
         <v>Y</v>
@@ -1477,28 +1477,28 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>NR Data Services Networking</v>
       </c>
       <c r="B38" t="str">
-        <v>2023-03-01</v>
+        <v>2023-05-02</v>
       </c>
       <c r="C38" t="str">
-        <v>TI/12606/22-23</v>
+        <v>INV-0000369</v>
       </c>
       <c r="D38" t="str">
-        <v>5900</v>
+        <v>26550</v>
       </c>
       <c r="E38" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGNR001</v>
       </c>
       <c r="F38" t="str">
-        <v>594512</v>
+        <v/>
       </c>
       <c r="G38" t="str">
-        <v>march23</v>
+        <v>1-5-023 to  31.07.23</v>
       </c>
       <c r="H38" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/197e2dc0-c872-11ed-858e-a1fdbe3cb3b2-606.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e6a78610-e8d5-11ed-8ef1-3975925956e7-INV-0000369.pdf</v>
       </c>
       <c r="I38" t="str">
         <v>Y</v>
@@ -1506,28 +1506,28 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Aspirant Tech Services</v>
       </c>
       <c r="B39" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-29</v>
       </c>
       <c r="C39" t="str">
-        <v>TI/12608/22-23</v>
+        <v>43/2023-24</v>
       </c>
       <c r="D39" t="str">
-        <v>2950</v>
+        <v>2596</v>
       </c>
       <c r="E39" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGASP001</v>
       </c>
       <c r="F39" t="str">
-        <v>59465</v>
+        <v/>
       </c>
       <c r="G39" t="str">
-        <v>march23</v>
+        <v/>
       </c>
       <c r="H39" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/24290b50-c872-11ed-858e-a1fdbe3cb3b2-608.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6d7f7ea0-e8da-11ed-8ef1-3975925956e7-ATS0001.pdf</v>
       </c>
       <c r="I39" t="str">
         <v>Y</v>
@@ -1535,28 +1535,28 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B40" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-28</v>
       </c>
       <c r="C40" t="str">
-        <v>TI/12609/22-23</v>
+        <v>BF2324/010</v>
       </c>
       <c r="D40" t="str">
-        <v>2950</v>
+        <v>5253</v>
       </c>
       <c r="E40" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F40" t="str">
-        <v>46521</v>
+        <v/>
       </c>
       <c r="G40" t="str">
-        <v>march23</v>
+        <v>apr23</v>
       </c>
       <c r="H40" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/311a0850-c872-11ed-858e-a1fdbe3cb3b2-609.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/129b6b80-e97e-11ed-8ef1-3975925956e7-010 broadbill.pdf</v>
       </c>
       <c r="I40" t="str">
         <v>Y</v>
@@ -1564,28 +1564,28 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B41" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-28</v>
       </c>
       <c r="C41" t="str">
-        <v xml:space="preserve">	 TI/12846/22-23</v>
+        <v>BR2324/APR14</v>
       </c>
       <c r="D41" t="str">
-        <v>9346</v>
+        <v>5310</v>
       </c>
       <c r="E41" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F41" t="str">
-        <v>140810</v>
+        <v/>
       </c>
       <c r="G41" t="str">
-        <v>march23</v>
+        <v>APR23</v>
       </c>
       <c r="H41" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3a0386d0-c872-11ed-858e-a1fdbe3cb3b2-846.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3d8c9d50-e97e-11ed-8ef1-3975925956e7-apr14broadbill.pdf</v>
       </c>
       <c r="I41" t="str">
         <v>Y</v>
@@ -1593,28 +1593,28 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B42" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C42" t="str">
-        <v xml:space="preserve">	 TI/12847/22-23</v>
+        <v xml:space="preserve"> INV-001660</v>
       </c>
       <c r="D42" t="str">
-        <v>4505</v>
+        <v>97943</v>
       </c>
       <c r="E42" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F42" t="str">
-        <v>166299</v>
+        <v/>
       </c>
       <c r="G42" t="str">
-        <v>march23</v>
+        <v>anyspaze apr 23</v>
       </c>
       <c r="H42" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/435f0100-c872-11ed-858e-a1fdbe3cb3b2-847.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/32fdcb10-e9b1-11ed-8ef1-3975925956e7-INV-001660.pdf</v>
       </c>
       <c r="I42" t="str">
         <v>Y</v>
@@ -1622,28 +1622,28 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B43" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C43" t="str">
-        <v>TI/12185/22-23</v>
+        <v xml:space="preserve"> INV-001659</v>
       </c>
       <c r="D43" t="str">
-        <v>2950</v>
+        <v>42241</v>
       </c>
       <c r="E43" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F43" t="str">
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>m23arch</v>
+        <v>digital marketing apr 23</v>
       </c>
       <c r="H43" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/56e0ad80-c874-11ed-858e-a1fdbe3cb3b2-12185.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/38763eb0-e9b1-11ed-8ef1-3975925956e7-INV-001659.pdf</v>
       </c>
       <c r="I43" t="str">
         <v>Y</v>
@@ -1651,28 +1651,28 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B44" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C44" t="str">
-        <v>TI/12186/22-23</v>
+        <v xml:space="preserve"> INV-001661</v>
       </c>
       <c r="D44" t="str">
-        <v>2950</v>
+        <v>120582</v>
       </c>
       <c r="E44" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F44" t="str">
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>m23arch</v>
+        <v>360 Package ( AWL India Website)  Search Engine Optimization/Online Reputation Management/Social  Media Management/Content Management</v>
       </c>
       <c r="H44" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/63c0ba90-c874-11ed-858e-a1fdbe3cb3b2-12186.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3e017700-e9b1-11ed-8ef1-3975925956e7-INV-001661.pdf</v>
       </c>
       <c r="I44" t="str">
         <v>Y</v>
@@ -1680,144 +1680,144 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Advaitha Technogies</v>
       </c>
       <c r="B45" t="str">
-        <v>2023-03-01</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C45" t="str">
-        <v>TI/12187/22-23</v>
+        <v>Adv/ 1838</v>
       </c>
       <c r="D45" t="str">
-        <v>2950</v>
+        <v>9676</v>
       </c>
       <c r="E45" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>m23arch</v>
+        <v>dec 22</v>
       </c>
       <c r="H45" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6dfa11a0-c874-11ed-858e-a1fdbe3cb3b2-12187.pdf</v>
+        <v/>
       </c>
       <c r="I45" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>AAA Rental LLP</v>
+        <v>Hirezone Systems Private Limited</v>
       </c>
       <c r="B46" t="str">
-        <v>2023-03-21</v>
+        <v>2022-12-02</v>
       </c>
       <c r="C46" t="str">
-        <v>DEL/22-23/3249</v>
+        <v>HSPL/RT396/22-23</v>
       </c>
       <c r="D46" t="str">
-        <v>2950</v>
+        <v>2124</v>
       </c>
       <c r="E46" t="str">
-        <v>ILOGAAA</v>
+        <v>ILOGHIREZONE-001</v>
       </c>
       <c r="F46" t="str">
         <v/>
       </c>
       <c r="G46" t="str">
-        <v/>
+        <v>dec 22</v>
       </c>
       <c r="H46" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2515bd80-cc5d-11ed-9d64-930d8f8cecf0-I-Log Solutions India Pvt. Ltd.-3249.pdf</v>
+        <v/>
       </c>
       <c r="I46" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Brill Infotech</v>
+        <v>NSS System Services</v>
       </c>
       <c r="B47" t="str">
-        <v>2023-03-28</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C47" t="str">
-        <v>56</v>
+        <v>NSS/22-23/260</v>
       </c>
       <c r="D47" t="str">
-        <v>6000</v>
+        <v>4720</v>
       </c>
       <c r="E47" t="str">
-        <v>ILOGBRILL001</v>
+        <v>ILOGNSS001</v>
       </c>
       <c r="F47" t="str">
         <v/>
       </c>
       <c r="G47" t="str">
-        <v/>
+        <v>DEC22</v>
       </c>
       <c r="H47" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/eca61d10-cd5f-11ed-99bc-5756c144ba05-Invoice # 56.pdf</v>
+        <v/>
       </c>
       <c r="I47" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Advaitha Technogies</v>
+        <v>Y Net Communication</v>
       </c>
       <c r="B48" t="str">
-        <v>2023-03-31</v>
+        <v>2022-12-05</v>
       </c>
       <c r="C48" t="str">
-        <v>123213</v>
+        <v xml:space="preserve"> YNet2022/0502</v>
       </c>
       <c r="D48" t="str">
-        <v>123123</v>
+        <v>5900</v>
       </c>
       <c r="E48" t="str">
-        <v>ILOGADV001</v>
+        <v>ILOGYNET001</v>
       </c>
       <c r="F48" t="str">
-        <v>321312</v>
+        <v/>
       </c>
       <c r="G48" t="str">
-        <v>sdwd</v>
+        <v>DEC 22</v>
       </c>
       <c r="H48" t="str">
-        <v>undefined</v>
+        <v/>
       </c>
       <c r="I48" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>AAA Rental LLP</v>
+        <v>Shyam Spectra Private Limited</v>
       </c>
       <c r="B49" t="str">
-        <v>2023-02-20</v>
+        <v>2022-12-08</v>
       </c>
       <c r="C49" t="str">
-        <v>DEL/22-23/3033</v>
+        <v>BHRI006073/22-23</v>
       </c>
       <c r="D49" t="str">
-        <v>2950</v>
+        <v>13138</v>
       </c>
       <c r="E49" t="str">
-        <v>ILOGAAA</v>
+        <v>9082431</v>
       </c>
       <c r="F49" t="str">
         <v/>
       </c>
       <c r="G49" t="str">
-        <v/>
+        <v>DEC22</v>
       </c>
       <c r="H49" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8fe15ed0-cc5d-11ed-9d64-930d8f8cecf0-I-Log Solutions India Pvt. Ltd.-3033.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/eec37800-bf2b-11ed-80f1-cb8814d4a67d-pdfds361895759992030563.pdf</v>
       </c>
       <c r="I49" t="str">
         <v>Y</v>
@@ -1825,529 +1825,2095 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B50" t="str">
-        <v>2023-03-24</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C50" t="str">
-        <v xml:space="preserve"> HRI0503363689775</v>
+        <v xml:space="preserve">	 TI/3671/G/22-23</v>
       </c>
       <c r="D50" t="str">
-        <v>411.82</v>
+        <v>5900</v>
       </c>
       <c r="E50" t="str">
-        <v>167933548</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F50" t="str">
-        <v/>
+        <v>392,065</v>
       </c>
       <c r="G50" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H50" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9628c4c0-cc69-11ed-be17-01867d1771d1-167924255-20230324.pdf</v>
+        <v/>
       </c>
       <c r="I50" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Aspirant Tech Services</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B51" t="str">
-        <v>2023-03-27</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C51" t="str">
-        <v>57/2022-23</v>
+        <v xml:space="preserve">	 TI/3674/G/22-23</v>
       </c>
       <c r="D51" t="str">
-        <v>2596</v>
+        <v>5900</v>
       </c>
       <c r="E51" t="str">
-        <v>ILOGASP001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F51" t="str">
-        <v/>
+        <v xml:space="preserve">336,839	</v>
       </c>
       <c r="G51" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H51" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0a1a9e90-cd5e-11ed-99bc-5756c144ba05-awl march.pdf</v>
+        <v/>
       </c>
       <c r="I51" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Brill Infotech</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B52" t="str">
-        <v>2023-03-28</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C52" t="str">
-        <v>57</v>
+        <v xml:space="preserve">	 TI/3669/G/22-23</v>
       </c>
       <c r="D52" t="str">
-        <v>30000</v>
+        <v>5900</v>
       </c>
       <c r="E52" t="str">
-        <v>ILOGBRILL001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F52" t="str">
-        <v/>
+        <v>62,130</v>
       </c>
       <c r="G52" t="str">
-        <v>Frontand developer apr 2023</v>
+        <v>NOV22</v>
       </c>
       <c r="H52" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/1cc88050-cd60-11ed-99bc-5756c144ba05-Invoice # 57 (1).pdf</v>
+        <v/>
       </c>
       <c r="I52" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Onsite Computer Solutions</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B53" t="str">
-        <v>2023-03-04</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C53" t="str">
-        <v>ON/2223/02039</v>
+        <v xml:space="preserve">	 TI/3681/G/22-23</v>
       </c>
       <c r="D53" t="str">
-        <v>12272</v>
+        <v>4972</v>
       </c>
       <c r="E53" t="str">
-        <v>ONSITE001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F53" t="str">
-        <v/>
+        <v>112,264</v>
       </c>
       <c r="G53" t="str">
-        <v>laptop rent march</v>
+        <v>NOV22</v>
       </c>
       <c r="H53" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/30417c00-cdeb-11ed-99bc-5756c144ba05-ILOG-INV-02039.pdf</v>
+        <v/>
       </c>
       <c r="I53" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B54" t="str">
-        <v>2023-03-28</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C54" t="str">
-        <v>HRI0503363750072</v>
+        <v xml:space="preserve">	 TI/3922/G/22-23</v>
       </c>
       <c r="D54" t="str">
-        <v>370.46</v>
+        <v>4130</v>
       </c>
       <c r="E54" t="str">
-        <v>165169033</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F54" t="str">
-        <v/>
+        <v xml:space="preserve">20,700	</v>
       </c>
       <c r="G54" t="str">
-        <v>: 28.02.23 to 27.03.23</v>
+        <v>NOV22</v>
       </c>
       <c r="H54" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f0673b00-cf94-11ed-b812-13a0ff500976-VIL_bill_9899053605_2023-03-28.pdf</v>
+        <v/>
       </c>
       <c r="I54" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>AIRTEL</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B55" t="str">
-        <v>2023-03-09</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C55" t="str">
-        <v>HT2306I004896486</v>
+        <v xml:space="preserve">	 TI/3679/G/22-23</v>
       </c>
       <c r="D55" t="str">
-        <v>588.82</v>
+        <v>5900</v>
       </c>
       <c r="E55" t="str">
-        <v>7010625278</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F55" t="str">
-        <v/>
+        <v>16,102</v>
       </c>
       <c r="G55" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H55" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8a35e9e0-cfb6-11ed-b812-13a0ff500976-Bill_HT2306I004896486.pdf</v>
+        <v/>
       </c>
       <c r="I55" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>AIRTEL</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B56" t="str">
-        <v>2023-03-18</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C56" t="str">
-        <v>HT2306I005042628</v>
+        <v xml:space="preserve">	 TI/3678/G/22-23</v>
       </c>
       <c r="D56" t="str">
-        <v>14160</v>
+        <v>5900</v>
       </c>
       <c r="E56" t="str">
-        <v>7038063008</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F56" t="str">
-        <v/>
+        <v xml:space="preserve">94,160	</v>
       </c>
       <c r="G56" t="str">
-        <v>17-Feb-2023 to 16-Mar-2023</v>
+        <v>NOV22</v>
       </c>
       <c r="H56" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4ba55e80-cfc1-11ed-b812-13a0ff500976-Bill_HT2306I005042628.pdf</v>
+        <v/>
       </c>
       <c r="I56" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>AIRTEL</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B57" t="str">
-        <v>2023-03-27</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C57" t="str">
-        <v>HT2306I005129030</v>
+        <v xml:space="preserve">	 TI/8289/A/22-23</v>
       </c>
       <c r="D57" t="str">
-        <v>295</v>
+        <v>5900</v>
       </c>
       <c r="E57" t="str">
-        <v>7015898062</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F57" t="str">
-        <v/>
+        <v>211,670</v>
       </c>
       <c r="G57" t="str">
-        <v>26-Feb-2023 to 25-Mar-2023</v>
+        <v>NOV22</v>
       </c>
       <c r="H57" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/446c4f20-cfc1-11ed-b812-13a0ff500976-Bill_HT2306I005129030.pdf</v>
+        <v/>
       </c>
       <c r="I57" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>AIRTEL</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B58" t="str">
-        <v>2023-03-27</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C58" t="str">
-        <v>HT2306I005129031</v>
+        <v>TI/8288/A/22-23</v>
       </c>
       <c r="D58" t="str">
-        <v>295</v>
+        <v>2950</v>
       </c>
       <c r="E58" t="str">
-        <v>7015898060</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F58" t="str">
-        <v/>
+        <v>156,486</v>
       </c>
       <c r="G58" t="str">
-        <v>26-Feb-2023 to 25-Mar-2023</v>
+        <v>NOV22</v>
       </c>
       <c r="H58" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3e7eab80-cfc1-11ed-b812-13a0ff500976-Bill_HT2306I005129031.pdf</v>
+        <v/>
       </c>
       <c r="I58" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Broadbill Information Systems Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B59" t="str">
-        <v>2023-03-31</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C59" t="str">
-        <v>R2223/MAR13</v>
+        <v xml:space="preserve">	 TI/8286/A/22-23</v>
       </c>
       <c r="D59" t="str">
-        <v>5310</v>
+        <v>2950</v>
       </c>
       <c r="E59" t="str">
-        <v>ILOGBROAD001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F59" t="str">
-        <v/>
+        <v>132,632</v>
       </c>
       <c r="G59" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H59" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7a584be0-cfc4-11ed-b812-13a0ff500976-83368416.pdf</v>
+        <v/>
       </c>
       <c r="I59" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Broadbill Information Systems Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B60" t="str">
-        <v>2023-03-31</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C60" t="str">
-        <v>R2223/MAR11</v>
+        <v xml:space="preserve">	 TI/8285/A/22-23</v>
       </c>
       <c r="D60" t="str">
-        <v>5269</v>
+        <v>2950</v>
       </c>
       <c r="E60" t="str">
-        <v>ILOGBROAD001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F60" t="str">
-        <v/>
+        <v>139,127</v>
       </c>
       <c r="G60" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H60" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/803a08a0-cfc4-11ed-b812-13a0ff500976-march11.pdf</v>
+        <v/>
       </c>
       <c r="I60" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B61" t="str">
-        <v>2023-03-31</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C61" t="str">
-        <v xml:space="preserve"> INV-001611</v>
+        <v xml:space="preserve">	 TI/8744/A/22-23</v>
       </c>
       <c r="D61" t="str">
-        <v>148592</v>
+        <v>5900</v>
       </c>
       <c r="E61" t="str">
-        <v>ILOGKIKAI001-OUTSOURCE</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F61" t="str">
-        <v/>
+        <v xml:space="preserve">	1,481,101</v>
       </c>
       <c r="G61" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H61" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/473df990-d06d-11ed-b092-a5aa6a787b89-INV-001611.pdf</v>
+        <v/>
       </c>
       <c r="I61" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B62" t="str">
-        <v>2023-03-31</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C62" t="str">
-        <v xml:space="preserve"> INV-001612</v>
+        <v xml:space="preserve">	 TI/8745/A/22-23</v>
       </c>
       <c r="D62" t="str">
-        <v>45838</v>
+        <v>5900</v>
       </c>
       <c r="E62" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F62" t="str">
-        <v/>
+        <v>440,101</v>
       </c>
       <c r="G62" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H62" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4d6ff930-d06d-11ed-b092-a5aa6a787b89-INV-001612.pdf</v>
+        <v/>
       </c>
       <c r="I62" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B63" t="str">
-        <v>2023-03-31</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C63" t="str">
-        <v xml:space="preserve"> INV-001613</v>
+        <v xml:space="preserve">	 TI/8747/A/22-23</v>
       </c>
       <c r="D63" t="str">
-        <v>60356</v>
+        <v>5900</v>
       </c>
       <c r="E63" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F63" t="str">
-        <v/>
+        <v>1,007,277</v>
       </c>
       <c r="G63" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H63" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/52b241a0-d06d-11ed-b092-a5aa6a787b89-INV-001613.pdf</v>
+        <v/>
       </c>
       <c r="I63" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B64" t="str">
-        <v>2023-03-31</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C64" t="str">
-        <v xml:space="preserve"> INV-001614</v>
+        <v xml:space="preserve">	 TI/8750/A/22-23</v>
       </c>
       <c r="D64" t="str">
-        <v>112791</v>
+        <v>3433</v>
       </c>
       <c r="E64" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F64" t="str">
-        <v/>
+        <v>47,651</v>
       </c>
       <c r="G64" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H64" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/58fa8860-d06d-11ed-b092-a5aa6a787b89-INV-001614.pdf</v>
+        <v/>
       </c>
       <c r="I64" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Scorpio Imaging System</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B65" t="str">
-        <v>2023-03-31</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C65" t="str">
-        <v>2001</v>
+        <v xml:space="preserve">	 TI/8752/A/22-23</v>
       </c>
       <c r="D65" t="str">
         <v>2950</v>
       </c>
       <c r="E65" t="str">
-        <v>ILOGSCO001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F65" t="str">
-        <v/>
+        <v>42,984</v>
       </c>
       <c r="G65" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H65" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/870c3410-d06d-11ed-b092-a5aa6a787b89-ILOG 2001.pdf</v>
+        <v/>
       </c>
       <c r="I65" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Scorpio Imaging System</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B66" t="str">
-        <v>2023-03-31</v>
+        <v>2022-12-01</v>
       </c>
       <c r="C66" t="str">
-        <v>2000</v>
+        <v xml:space="preserve">	 TI/8898/A/22-23</v>
       </c>
       <c r="D66" t="str">
-        <v>4130</v>
+        <v>9794</v>
       </c>
       <c r="E66" t="str">
-        <v>ILOGSCO001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F66" t="str">
-        <v/>
+        <v>122,990</v>
       </c>
       <c r="G66" t="str">
-        <v/>
+        <v>NOV22</v>
       </c>
       <c r="H66" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8c64eab0-d06d-11ed-b092-a5aa6a787b89-ILOG 2000 2001.pdf</v>
+        <v/>
       </c>
       <c r="I66" t="str">
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B67" t="str">
+        <v>2022-12-01</v>
+      </c>
+      <c r="C67" t="str">
+        <v xml:space="preserve">	 TI/8749/A/22-23</v>
+      </c>
+      <c r="D67" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E67" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F67" t="str">
+        <v xml:space="preserve">	1,037,011</v>
+      </c>
+      <c r="G67" t="str">
+        <v>NOV22</v>
+      </c>
+      <c r="H67" t="str">
+        <v/>
+      </c>
+      <c r="I67" t="str">
+        <v>N</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Shyam Spectra Private Limited</v>
+      </c>
+      <c r="B68" t="str">
+        <v>2023-03-08</v>
+      </c>
+      <c r="C68" t="str">
+        <v>BHRI008380/22-23</v>
+      </c>
+      <c r="D68" t="str">
+        <v>12784</v>
+      </c>
+      <c r="E68" t="str">
+        <v>9082431</v>
+      </c>
+      <c r="F68" t="str">
+        <v/>
+      </c>
+      <c r="G68" t="str">
+        <v/>
+      </c>
+      <c r="H68" t="str">
+        <v/>
+      </c>
+      <c r="I68" t="str">
+        <v>N</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B69" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C69" t="str">
+        <v>TI/5317/G/22-23</v>
+      </c>
+      <c r="D69" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E69" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F69" t="str">
+        <v>71490</v>
+      </c>
+      <c r="G69" t="str">
+        <v>march 23</v>
+      </c>
+      <c r="H69" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0dabc780-c86f-11ed-a9ad-1df920e10020-5317.pdf</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B70" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C70" t="str">
+        <v>TI/5318/G/22-23</v>
+      </c>
+      <c r="D70" t="str">
+        <v>9151</v>
+      </c>
+      <c r="E70" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F70" t="str">
+        <v>452865</v>
+      </c>
+      <c r="G70" t="str">
+        <v>march 23</v>
+      </c>
+      <c r="H70" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2944c050-c86f-11ed-a9ad-1df920e10020-5318.pdf</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B71" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C71" t="str">
+        <v>TI/5319/G/22-23</v>
+      </c>
+      <c r="D71" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E71" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F71" t="str">
+        <v>373772</v>
+      </c>
+      <c r="G71" t="str">
+        <v>march 23</v>
+      </c>
+      <c r="H71" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/51bfc200-c86f-11ed-a9ad-1df920e10020-5319.pdf</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B72" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C72" t="str">
+        <v>TI/5320/G/22-23</v>
+      </c>
+      <c r="D72" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E72" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F72" t="str">
+        <v>118905</v>
+      </c>
+      <c r="G72" t="str">
+        <v>march 23</v>
+      </c>
+      <c r="H72" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6155a040-c86f-11ed-a9ad-1df920e10020-5320.pdf</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B73" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C73" t="str">
+        <v>TI/5321/G/22-23</v>
+      </c>
+      <c r="D73" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E73" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F73" t="str">
+        <v>20689</v>
+      </c>
+      <c r="G73" t="str">
+        <v>march 23</v>
+      </c>
+      <c r="H73" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/740c4680-c86f-11ed-a9ad-1df920e10020-5321.pdf</v>
+      </c>
+      <c r="I73" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B74" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C74" t="str">
+        <v>TI/5322/G/22-23</v>
+      </c>
+      <c r="D74" t="str">
+        <v>3540</v>
+      </c>
+      <c r="E74" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F74" t="str">
+        <v>127868</v>
+      </c>
+      <c r="G74" t="str">
+        <v>march 23</v>
+      </c>
+      <c r="H74" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/836a72f0-c86f-11ed-a9ad-1df920e10020-5322.pdf</v>
+      </c>
+      <c r="I74" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B75" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C75" t="str">
+        <v>TI/5323/G/22-23</v>
+      </c>
+      <c r="D75" t="str">
+        <v>4130</v>
+      </c>
+      <c r="E75" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F75" t="str">
+        <v>25052</v>
+      </c>
+      <c r="G75" t="str">
+        <v>march 23</v>
+      </c>
+      <c r="H75" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/923a9030-c86f-11ed-a9ad-1df920e10020-5323.pdf</v>
+      </c>
+      <c r="I75" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B76" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C76" t="str">
+        <v>TI/12605/22-23</v>
+      </c>
+      <c r="D76" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E76" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F76" t="str">
+        <v>1056451</v>
+      </c>
+      <c r="G76" t="str">
+        <v>march23</v>
+      </c>
+      <c r="H76" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0f581090-c872-11ed-858e-a1fdbe3cb3b2-12605.pdf</v>
+      </c>
+      <c r="I76" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B77" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C77" t="str">
+        <v>TI/12606/22-23</v>
+      </c>
+      <c r="D77" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E77" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F77" t="str">
+        <v>594512</v>
+      </c>
+      <c r="G77" t="str">
+        <v>march23</v>
+      </c>
+      <c r="H77" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/197e2dc0-c872-11ed-858e-a1fdbe3cb3b2-606.pdf</v>
+      </c>
+      <c r="I77" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B78" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C78" t="str">
+        <v>TI/12608/22-23</v>
+      </c>
+      <c r="D78" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E78" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F78" t="str">
+        <v>59465</v>
+      </c>
+      <c r="G78" t="str">
+        <v>march23</v>
+      </c>
+      <c r="H78" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/24290b50-c872-11ed-858e-a1fdbe3cb3b2-608.pdf</v>
+      </c>
+      <c r="I78" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B79" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C79" t="str">
+        <v>TI/12609/22-23</v>
+      </c>
+      <c r="D79" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E79" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F79" t="str">
+        <v>46521</v>
+      </c>
+      <c r="G79" t="str">
+        <v>march23</v>
+      </c>
+      <c r="H79" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/311a0850-c872-11ed-858e-a1fdbe3cb3b2-609.pdf</v>
+      </c>
+      <c r="I79" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B80" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C80" t="str">
+        <v xml:space="preserve">	 TI/12846/22-23</v>
+      </c>
+      <c r="D80" t="str">
+        <v>9346</v>
+      </c>
+      <c r="E80" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F80" t="str">
+        <v>140810</v>
+      </c>
+      <c r="G80" t="str">
+        <v>march23</v>
+      </c>
+      <c r="H80" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3a0386d0-c872-11ed-858e-a1fdbe3cb3b2-846.pdf</v>
+      </c>
+      <c r="I80" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B81" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C81" t="str">
+        <v xml:space="preserve">	 TI/12847/22-23</v>
+      </c>
+      <c r="D81" t="str">
+        <v>4505</v>
+      </c>
+      <c r="E81" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F81" t="str">
+        <v>166299</v>
+      </c>
+      <c r="G81" t="str">
+        <v>march23</v>
+      </c>
+      <c r="H81" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/435f0100-c872-11ed-858e-a1fdbe3cb3b2-847.pdf</v>
+      </c>
+      <c r="I81" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B82" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C82" t="str">
+        <v>TI/12185/22-23</v>
+      </c>
+      <c r="D82" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E82" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F82" t="str">
+        <v/>
+      </c>
+      <c r="G82" t="str">
+        <v>m23arch</v>
+      </c>
+      <c r="H82" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/56e0ad80-c874-11ed-858e-a1fdbe3cb3b2-12185.pdf</v>
+      </c>
+      <c r="I82" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B83" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C83" t="str">
+        <v>TI/12186/22-23</v>
+      </c>
+      <c r="D83" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E83" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F83" t="str">
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <v>m23arch</v>
+      </c>
+      <c r="H83" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/63c0ba90-c874-11ed-858e-a1fdbe3cb3b2-12186.pdf</v>
+      </c>
+      <c r="I83" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B84" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C84" t="str">
+        <v>TI/12187/22-23</v>
+      </c>
+      <c r="D84" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E84" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F84" t="str">
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <v>m23arch</v>
+      </c>
+      <c r="H84" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6dfa11a0-c874-11ed-858e-a1fdbe3cb3b2-12187.pdf</v>
+      </c>
+      <c r="I84" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Brill Infotech</v>
+      </c>
+      <c r="B85" t="str">
+        <v>2023-03-28</v>
+      </c>
+      <c r="C85" t="str">
+        <v>56</v>
+      </c>
+      <c r="D85" t="str">
+        <v>6000</v>
+      </c>
+      <c r="E85" t="str">
+        <v>ILOGBRILL001</v>
+      </c>
+      <c r="F85" t="str">
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/eca61d10-cd5f-11ed-99bc-5756c144ba05-Invoice # 56.pdf</v>
+      </c>
+      <c r="I85" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Advaitha Technogies</v>
+      </c>
+      <c r="B86" t="str">
+        <v>2023-03-31</v>
+      </c>
+      <c r="C86" t="str">
+        <v>123213</v>
+      </c>
+      <c r="D86" t="str">
+        <v>123123</v>
+      </c>
+      <c r="E86" t="str">
+        <v>ILOGADV001</v>
+      </c>
+      <c r="F86" t="str">
+        <v>321312</v>
+      </c>
+      <c r="G86" t="str">
+        <v>sdwd</v>
+      </c>
+      <c r="H86" t="str">
+        <v>undefined</v>
+      </c>
+      <c r="I86" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Vodafone Idea Limited</v>
+      </c>
+      <c r="B87" t="str">
+        <v>2023-03-24</v>
+      </c>
+      <c r="C87" t="str">
+        <v xml:space="preserve"> HRI0503363689775</v>
+      </c>
+      <c r="D87" t="str">
+        <v>411.82</v>
+      </c>
+      <c r="E87" t="str">
+        <v>167933548</v>
+      </c>
+      <c r="F87" t="str">
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <v/>
+      </c>
+      <c r="H87" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9628c4c0-cc69-11ed-be17-01867d1771d1-167924255-20230324.pdf</v>
+      </c>
+      <c r="I87" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Aspirant Tech Services</v>
+      </c>
+      <c r="B88" t="str">
+        <v>2023-03-27</v>
+      </c>
+      <c r="C88" t="str">
+        <v>57/2022-23</v>
+      </c>
+      <c r="D88" t="str">
+        <v>2596</v>
+      </c>
+      <c r="E88" t="str">
+        <v>ILOGASP001</v>
+      </c>
+      <c r="F88" t="str">
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <v/>
+      </c>
+      <c r="H88" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0a1a9e90-cd5e-11ed-99bc-5756c144ba05-awl march.pdf</v>
+      </c>
+      <c r="I88" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Brill Infotech</v>
+      </c>
+      <c r="B89" t="str">
+        <v>2023-03-28</v>
+      </c>
+      <c r="C89" t="str">
+        <v>57</v>
+      </c>
+      <c r="D89" t="str">
+        <v>30000</v>
+      </c>
+      <c r="E89" t="str">
+        <v>ILOGBRILL001</v>
+      </c>
+      <c r="F89" t="str">
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <v>Frontand developer apr 2023</v>
+      </c>
+      <c r="H89" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/1cc88050-cd60-11ed-99bc-5756c144ba05-Invoice # 57 (1).pdf</v>
+      </c>
+      <c r="I89" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Broadbill Information Systems Private Limited</v>
+      </c>
+      <c r="B90" t="str">
+        <v>2023-03-31</v>
+      </c>
+      <c r="C90" t="str">
+        <v>R2223/MAR13</v>
+      </c>
+      <c r="D90" t="str">
+        <v>5310</v>
+      </c>
+      <c r="E90" t="str">
+        <v>ILOGBROAD001</v>
+      </c>
+      <c r="F90" t="str">
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <v/>
+      </c>
+      <c r="H90" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7a584be0-cfc4-11ed-b812-13a0ff500976-83368416.pdf</v>
+      </c>
+      <c r="I90" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Broadbill Information Systems Private Limited</v>
+      </c>
+      <c r="B91" t="str">
+        <v>2023-03-31</v>
+      </c>
+      <c r="C91" t="str">
+        <v>R2223/MAR11</v>
+      </c>
+      <c r="D91" t="str">
+        <v>5269</v>
+      </c>
+      <c r="E91" t="str">
+        <v>ILOGBROAD001</v>
+      </c>
+      <c r="F91" t="str">
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <v/>
+      </c>
+      <c r="H91" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/803a08a0-cfc4-11ed-b812-13a0ff500976-march11.pdf</v>
+      </c>
+      <c r="I91" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Kikai Technologies Private Limited</v>
+      </c>
+      <c r="B92" t="str">
+        <v>2023-03-31</v>
+      </c>
+      <c r="C92" t="str">
+        <v xml:space="preserve"> INV-001611</v>
+      </c>
+      <c r="D92" t="str">
+        <v>148592</v>
+      </c>
+      <c r="E92" t="str">
+        <v>ILOGKIKAI001-OUTSOURCE</v>
+      </c>
+      <c r="F92" t="str">
+        <v/>
+      </c>
+      <c r="G92" t="str">
+        <v/>
+      </c>
+      <c r="H92" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/473df990-d06d-11ed-b092-a5aa6a787b89-INV-001611.pdf</v>
+      </c>
+      <c r="I92" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Kikai Technologies Private Limited</v>
+      </c>
+      <c r="B93" t="str">
+        <v>2023-03-31</v>
+      </c>
+      <c r="C93" t="str">
+        <v xml:space="preserve"> INV-001612</v>
+      </c>
+      <c r="D93" t="str">
+        <v>45838</v>
+      </c>
+      <c r="E93" t="str">
+        <v>ILOGKIKAI001-SEO</v>
+      </c>
+      <c r="F93" t="str">
+        <v/>
+      </c>
+      <c r="G93" t="str">
+        <v/>
+      </c>
+      <c r="H93" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4d6ff930-d06d-11ed-b092-a5aa6a787b89-INV-001612.pdf</v>
+      </c>
+      <c r="I93" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Kikai Technologies Private Limited</v>
+      </c>
+      <c r="B94" t="str">
+        <v>2023-03-31</v>
+      </c>
+      <c r="C94" t="str">
+        <v xml:space="preserve"> INV-001613</v>
+      </c>
+      <c r="D94" t="str">
+        <v>60356</v>
+      </c>
+      <c r="E94" t="str">
+        <v>ILOGKIKAI001-SEO</v>
+      </c>
+      <c r="F94" t="str">
+        <v/>
+      </c>
+      <c r="G94" t="str">
+        <v/>
+      </c>
+      <c r="H94" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/52b241a0-d06d-11ed-b092-a5aa6a787b89-INV-001613.pdf</v>
+      </c>
+      <c r="I94" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Rediff.com India Limited</v>
+      </c>
+      <c r="B95" t="str">
+        <v>2023-04-03</v>
+      </c>
+      <c r="C95" t="str">
+        <v>RWPI30374614</v>
+      </c>
+      <c r="D95" t="str">
+        <v>5310</v>
+      </c>
+      <c r="E95" t="str">
+        <v>ILOGREDIFF001</v>
+      </c>
+      <c r="F95" t="str">
+        <v/>
+      </c>
+      <c r="G95" t="str">
+        <v>one year plan</v>
+      </c>
+      <c r="H95" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3eded700-d2ad-11ed-ac04-7b51279827d9-Rediff Domain orderprint.pdf</v>
+      </c>
+      <c r="I95" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B96" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C96" t="str">
+        <v>TI/354/1-23-24</v>
+      </c>
+      <c r="D96" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E96" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F96" t="str">
+        <v>190214</v>
+      </c>
+      <c r="G96" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H96" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d668c170-d76d-11ed-8c3d-8127e1b69a51-354.pdf</v>
+      </c>
+      <c r="I96" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Kikai Technologies Private Limited</v>
+      </c>
+      <c r="B97" t="str">
+        <v>2023-03-31</v>
+      </c>
+      <c r="C97" t="str">
+        <v xml:space="preserve"> INV-001614</v>
+      </c>
+      <c r="D97" t="str">
+        <v>112791</v>
+      </c>
+      <c r="E97" t="str">
+        <v>ILOGKIKAI001-SEO</v>
+      </c>
+      <c r="F97" t="str">
+        <v/>
+      </c>
+      <c r="G97" t="str">
+        <v/>
+      </c>
+      <c r="H97" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/58fa8860-d06d-11ed-b092-a5aa6a787b89-INV-001614.pdf</v>
+      </c>
+      <c r="I97" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B98" t="str">
+        <v>2023-04-03</v>
+      </c>
+      <c r="C98" t="str">
+        <v>HT2406I000007378</v>
+      </c>
+      <c r="D98" t="str">
+        <v>1371</v>
+      </c>
+      <c r="E98" t="str">
+        <v>7023500364</v>
+      </c>
+      <c r="F98" t="str">
+        <v/>
+      </c>
+      <c r="G98" t="str">
+        <v>02-Mar-2023 to 01-Apr-2023</v>
+      </c>
+      <c r="H98" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e8dc3ae0-d1e0-11ed-865d-39c972c28ff9-Epronto Invoice.pdf</v>
+      </c>
+      <c r="I98" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
         <v>Hirezone Systems Private Limited</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B99" t="str">
         <v>2023-04-01</v>
       </c>
-      <c r="C67" t="str">
-        <v>HSPL/RT537/22-23</v>
-      </c>
-      <c r="D67" t="str">
+      <c r="C99" t="str">
+        <v>HSPL/RT011/23-24</v>
+      </c>
+      <c r="D99" t="str">
         <v>2124</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E99" t="str">
         <v>ILOGHIREZONE-001</v>
       </c>
-      <c r="F67" t="str">
-        <v/>
-      </c>
-      <c r="G67" t="str">
-        <v/>
-      </c>
-      <c r="H67" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b96e8620-d076-11ed-b092-a5aa6a787b89-InvoiceHSPLRT53722-23_ILOG SOLUTIONS INDIA PVT LTDORIGINAL FOR RECIPIENT.pdf</v>
-      </c>
-      <c r="I67" t="str">
+      <c r="F99" t="str">
+        <v/>
+      </c>
+      <c r="G99" t="str">
+        <v>01/04/23 - 30/04/23</v>
+      </c>
+      <c r="H99" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/fa888e40-d2aa-11ed-ac04-7b51279827d9-InvoiceHSPLRT01123-24_ILOG SOLUTIONS INDIA PVT LTDORIGINAL FOR RECIPIENT.pdf</v>
+      </c>
+      <c r="I99" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>BS Services</v>
+      </c>
+      <c r="B100" t="str">
+        <v>2023-04-03</v>
+      </c>
+      <c r="C100" t="str">
+        <v>549</v>
+      </c>
+      <c r="D100" t="str">
+        <v>12250</v>
+      </c>
+      <c r="E100" t="str">
+        <v>ILOGBS001</v>
+      </c>
+      <c r="F100" t="str">
+        <v/>
+      </c>
+      <c r="G100" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H100" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9f48c3a0-d2ab-11ed-ac04-7b51279827d9-Awl Bill April 2023.pdf</v>
+      </c>
+      <c r="I100" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Alok Computers</v>
+      </c>
+      <c r="B101" t="str">
+        <v>2023-03-29</v>
+      </c>
+      <c r="C101" t="str">
+        <v>00394</v>
+      </c>
+      <c r="D101" t="str">
+        <v>1770</v>
+      </c>
+      <c r="E101" t="str">
+        <v>ILOGALOK001</v>
+      </c>
+      <c r="F101" t="str">
+        <v/>
+      </c>
+      <c r="G101" t="str">
+        <v>march23</v>
+      </c>
+      <c r="H101" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b4242930-d2ac-11ed-ac04-7b51279827d9-alok invoice0001.pdf</v>
+      </c>
+      <c r="I101" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Google India Pvt. Ltd</v>
+      </c>
+      <c r="B102" t="str">
+        <v>2023-03-31</v>
+      </c>
+      <c r="C102" t="str">
+        <v>4695716321</v>
+      </c>
+      <c r="D102" t="str">
+        <v>5011.96</v>
+      </c>
+      <c r="E102" t="str">
+        <v>1226-7792-2898</v>
+      </c>
+      <c r="F102" t="str">
+        <v/>
+      </c>
+      <c r="G102" t="str">
+        <v>march 23 mail invoice</v>
+      </c>
+      <c r="H102" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f05c80d0-d2ae-11ed-ac04-7b51279827d9-4695716321.pdf</v>
+      </c>
+      <c r="I102" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B103" t="str">
+        <v>2023-04-07</v>
+      </c>
+      <c r="C103" t="str">
+        <v>BBL292404B002268</v>
+      </c>
+      <c r="D103" t="str">
+        <v>17700</v>
+      </c>
+      <c r="E103" t="str">
+        <v>31-40011108</v>
+      </c>
+      <c r="F103" t="str">
+        <v/>
+      </c>
+      <c r="G103" t="str">
+        <v>01-Apr-2023 to 30-Jun-2023</v>
+      </c>
+      <c r="H103" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d89910f0-d757-11ed-8c3d-8127e1b69a51-21-100031981-BBL292404B002268-BW-07-Apr-2023.pdf</v>
+      </c>
+      <c r="I103" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>NSS System Services</v>
+      </c>
+      <c r="B104" t="str">
+        <v>2023-04-04</v>
+      </c>
+      <c r="C104" t="str">
+        <v>NSS/22-23/6</v>
+      </c>
+      <c r="D104" t="str">
+        <v>4720</v>
+      </c>
+      <c r="E104" t="str">
+        <v>ILOGNSS001</v>
+      </c>
+      <c r="F104" t="str">
+        <v/>
+      </c>
+      <c r="G104" t="str">
+        <v>apr 2023</v>
+      </c>
+      <c r="H104" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ffa89ef0-d75b-11ed-8c3d-8127e1b69a51-nss system0001.pdf</v>
+      </c>
+      <c r="I104" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B105" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C105" t="str">
+        <v>TI/352/1-23-24</v>
+      </c>
+      <c r="D105" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E105" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F105" t="str">
+        <v>140962</v>
+      </c>
+      <c r="G105" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H105" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c7c50b60-d76d-11ed-8c3d-8127e1b69a51-352.pdf</v>
+      </c>
+      <c r="I105" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B106" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C106" t="str">
+        <v>TI/642/A/23-24</v>
+      </c>
+      <c r="D106" t="str">
+        <v>10372</v>
+      </c>
+      <c r="E106" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F106" t="str">
+        <v>145900</v>
+      </c>
+      <c r="G106" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H106" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ab9eedc0-d76d-11ed-8c3d-8127e1b69a51-642.pdf</v>
+      </c>
+      <c r="I106" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B107" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C107" t="str">
+        <v>TI/643/A/23-24</v>
+      </c>
+      <c r="D107" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E107" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F107" t="str">
+        <v>166302</v>
+      </c>
+      <c r="G107" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H107" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a0eae870-d76d-11ed-8c3d-8127e1b69a51-643.pdf</v>
+      </c>
+      <c r="I107" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B108" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C108" t="str">
+        <v>TI/644/A/23-24</v>
+      </c>
+      <c r="D108" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E108" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F108" t="str">
+        <v>1057841</v>
+      </c>
+      <c r="G108" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H108" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/97c635b0-d76d-11ed-8c3d-8127e1b69a51-644.pdf</v>
+      </c>
+      <c r="I108" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B109" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C109" t="str">
+        <v>TI/351/1-23-24</v>
+      </c>
+      <c r="D109" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E109" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F109" t="str">
+        <v>154459</v>
+      </c>
+      <c r="G109" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H109" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b687beb0-d76d-11ed-8c3d-8127e1b69a51-351.pdf</v>
+      </c>
+      <c r="I109" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B110" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C110" t="str">
+        <v>TI/645/A/23-24</v>
+      </c>
+      <c r="D110" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E110" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F110" t="str">
+        <v>596451</v>
+      </c>
+      <c r="G110" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H110" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8bcd0630-d76d-11ed-8c3d-8127e1b69a51-645.pdf</v>
+      </c>
+      <c r="I110" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B111" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C111" t="str">
+        <v>TI/646/A/23-24</v>
+      </c>
+      <c r="D111" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E111" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F111" t="str">
+        <v>61241</v>
+      </c>
+      <c r="G111" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H111" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/82a482e0-d76d-11ed-8c3d-8127e1b69a51-646.pdf</v>
+      </c>
+      <c r="I111" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B112" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C112" t="str">
+        <v>TI/647/A/23-24</v>
+      </c>
+      <c r="D112" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E112" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F112" t="str">
+        <v>47854</v>
+      </c>
+      <c r="G112" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H112" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/798d3da0-d76d-11ed-8c3d-8127e1b69a51-647.pdf</v>
+      </c>
+      <c r="I112" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B113" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C113" t="str">
+        <v>TI/648/A/23-24</v>
+      </c>
+      <c r="D113" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E113" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F113" t="str">
+        <v>1845</v>
+      </c>
+      <c r="G113" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H113" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6e6010b0-d76d-11ed-8c3d-8127e1b69a51-648.pdf</v>
+      </c>
+      <c r="I113" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B114" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C114" t="str">
+        <v>TI/633/A/23-24</v>
+      </c>
+      <c r="D114" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E114" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F114" t="str">
+        <v>43888</v>
+      </c>
+      <c r="G114" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H114" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/62a43850-d76d-11ed-8c3d-8127e1b69a51-633.pdf</v>
+      </c>
+      <c r="I114" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B115" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C115" t="str">
+        <v>TI/57/G/23-24</v>
+      </c>
+      <c r="D115" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E115" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F115" t="str">
+        <v>75475</v>
+      </c>
+      <c r="G115" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H115" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8f454590-d784-11ed-8c3d-8127e1b69a51-57.pdf</v>
+      </c>
+      <c r="I115" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B116" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C116" t="str">
+        <v>TI/59/G/23-24</v>
+      </c>
+      <c r="D116" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E116" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F116" t="str">
+        <v>452865</v>
+      </c>
+      <c r="G116" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H116" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a2611640-d784-11ed-8c3d-8127e1b69a51-59.pdf</v>
+      </c>
+      <c r="I116" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B117" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C117" t="str">
+        <v>TI/60/G/23-24</v>
+      </c>
+      <c r="D117" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E117" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F117" t="str">
+        <v>383286</v>
+      </c>
+      <c r="G117" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H117" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/845fd000-d784-11ed-8c3d-8127e1b69a51-60.pdf</v>
+      </c>
+      <c r="I117" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B118" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C118" t="str">
+        <v>TI/61/G/23-24</v>
+      </c>
+      <c r="D118" t="str">
+        <v>7455</v>
+      </c>
+      <c r="E118" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F118" t="str">
+        <v>134199</v>
+      </c>
+      <c r="G118" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H118" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c3e28290-d784-11ed-8c3d-8127e1b69a51-61.pdf</v>
+      </c>
+      <c r="I118" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B119" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C119" t="str">
+        <v>TI/63/G/23-24</v>
+      </c>
+      <c r="D119" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E119" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F119" t="str">
+        <v>22065</v>
+      </c>
+      <c r="G119" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H119" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7088c5a0-d784-11ed-8c3d-8127e1b69a51-63.pdf</v>
+      </c>
+      <c r="I119" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B120" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C120" t="str">
+        <v>TI/65/G/23-24</v>
+      </c>
+      <c r="D120" t="str">
+        <v>3540</v>
+      </c>
+      <c r="E120" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F120" t="str">
+        <v>132412</v>
+      </c>
+      <c r="G120" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H120" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/67929cf0-d784-11ed-8c3d-8127e1b69a51-65.pdf</v>
+      </c>
+      <c r="I120" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B121" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C121" t="str">
+        <v>TI/67/G/23-24</v>
+      </c>
+      <c r="D121" t="str">
+        <v>4130</v>
+      </c>
+      <c r="E121" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F121" t="str">
+        <v>25432</v>
+      </c>
+      <c r="G121" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H121" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/5c7e0110-d784-11ed-8c3d-8127e1b69a51-67.pdf</v>
+      </c>
+      <c r="I121" t="str">
         <v>Y</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I67"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I121"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/outstanding.xlsx
+++ b/outstanding.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -578,28 +578,28 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>AIRTEL</v>
+        <v>BS Services</v>
       </c>
       <c r="B7" t="str">
-        <v>2023-04-07</v>
+        <v>2023-05-06</v>
       </c>
       <c r="C7" t="str">
-        <v>BBL292404B002268</v>
+        <v>561</v>
       </c>
       <c r="D7" t="str">
-        <v>17700</v>
+        <v>14455</v>
       </c>
       <c r="E7" t="str">
-        <v>31-40011108</v>
+        <v>ILOGBS001</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>01-Apr-2023 to 30-Jun-2023</v>
+        <v>rental laptop apr23</v>
       </c>
       <c r="H7" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6c0fdb20-d799-11ed-8c3d-8127e1b69a51-21-100031981-BBL292404B002268-BW-07-Apr-2023.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3d342470-ebec-11ed-bee0-5d42b1483a61-bs0001.pdf</v>
       </c>
       <c r="I7" t="str">
         <v>Y</v>
@@ -607,28 +607,28 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>AIRTEL</v>
+        <v>Mukand Infotel Private Limited</v>
       </c>
       <c r="B8" t="str">
-        <v>2023-04-07</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C8" t="str">
-        <v>BBL362404B000888</v>
+        <v>AS/23-24/00290</v>
       </c>
       <c r="D8" t="str">
-        <v>23600</v>
+        <v>2360</v>
       </c>
       <c r="E8" t="str">
-        <v>19682805</v>
+        <v>N7523</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>01-Apr-2023 to 30-Jun-2023</v>
+        <v>01/04/2023 To 30/04/2023</v>
       </c>
       <c r="H8" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b5c1ab90-d799-11ed-8c3d-8127e1b69a51-21-100020330-BBL362404B000888-BW-07-Apr-2023.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/86f21800-d7a2-11ed-8c3d-8127e1b69a51-ILOG SOLUTIONS  PVT LTD_2_AS23-2400290.pdf</v>
       </c>
       <c r="I8" t="str">
         <v>Y</v>
@@ -636,28 +636,28 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Mukand Infotel Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B9" t="str">
-        <v>2023-04-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C9" t="str">
-        <v>AS/23-24/00290</v>
+        <v>BBL062404B000023</v>
       </c>
       <c r="D9" t="str">
-        <v>2360</v>
+        <v>23600</v>
       </c>
       <c r="E9" t="str">
-        <v>N7523</v>
+        <v>19682805</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>01/04/2023 To 30/04/2023</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H9" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/86f21800-d7a2-11ed-8c3d-8127e1b69a51-ILOG SOLUTIONS  PVT LTD_2_AS23-2400290.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/27b90e30-daad-11ed-8c3d-8127e1b69a51-_BBL062404B000023.pdf</v>
       </c>
       <c r="I9" t="str">
         <v>Y</v>
@@ -671,7 +671,7 @@
         <v>2023-04-07</v>
       </c>
       <c r="C10" t="str">
-        <v>BBL062404B000023</v>
+        <v>BBL062404B000066</v>
       </c>
       <c r="D10" t="str">
         <v>23600</v>
@@ -686,7 +686,7 @@
         <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H10" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/27b90e30-daad-11ed-8c3d-8127e1b69a51-_BBL062404B000023.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/71fd3390-daad-11ed-8c3d-8127e1b69a51-_BBL062404B000066.pdf</v>
       </c>
       <c r="I10" t="str">
         <v>Y</v>
@@ -700,7 +700,7 @@
         <v>2023-04-07</v>
       </c>
       <c r="C11" t="str">
-        <v>BBL062404B000066</v>
+        <v>BBL062404B000236</v>
       </c>
       <c r="D11" t="str">
         <v>23600</v>
@@ -715,7 +715,7 @@
         <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H11" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/71fd3390-daad-11ed-8c3d-8127e1b69a51-_BBL062404B000066.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/aa6fbb80-daad-11ed-8c3d-8127e1b69a51-_BBL062404B000236.pdf</v>
       </c>
       <c r="I11" t="str">
         <v>Y</v>
@@ -729,10 +729,10 @@
         <v>2023-04-07</v>
       </c>
       <c r="C12" t="str">
-        <v>BBL062404B000236</v>
+        <v>BBL242404B000237</v>
       </c>
       <c r="D12" t="str">
-        <v>23600</v>
+        <v>14750</v>
       </c>
       <c r="E12" t="str">
         <v>19682805</v>
@@ -744,7 +744,7 @@
         <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H12" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/aa6fbb80-daad-11ed-8c3d-8127e1b69a51-_BBL062404B000236.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f1cd89d0-daad-11ed-8c3d-8127e1b69a51-_BBL242404B000237.pdf</v>
       </c>
       <c r="I12" t="str">
         <v>Y</v>
@@ -758,10 +758,10 @@
         <v>2023-04-07</v>
       </c>
       <c r="C13" t="str">
-        <v>BBL242404B000237</v>
+        <v>BBL362404B000888</v>
       </c>
       <c r="D13" t="str">
-        <v>14750</v>
+        <v>23600</v>
       </c>
       <c r="E13" t="str">
         <v>19682805</v>
@@ -773,7 +773,7 @@
         <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H13" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f1cd89d0-daad-11ed-8c3d-8127e1b69a51-_BBL242404B000237.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d9da1be0-e58e-11ed-9ba7-457f519ee645-_BBL362404B000888.pdf</v>
       </c>
       <c r="I13" t="str">
         <v>Y</v>
@@ -781,28 +781,28 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>AIRTEL</v>
+        <v>JB Computers</v>
       </c>
       <c r="B14" t="str">
-        <v>2023-04-07</v>
+        <v>2023-04-06</v>
       </c>
       <c r="C14" t="str">
-        <v>BBL362404B000888</v>
+        <v>6</v>
       </c>
       <c r="D14" t="str">
-        <v>23600</v>
+        <v>19824</v>
       </c>
       <c r="E14" t="str">
-        <v>19682805</v>
+        <v>ILOGJB001</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>01-Apr-2023 to 30-Jun-2023</v>
+        <v>RENT April 23</v>
       </c>
       <c r="H14" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d9da1be0-e58e-11ed-9ba7-457f519ee645-_BBL362404B000888.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b6c85ab0-de7f-11ed-aa7d-5d02d5c6dc83-APR-2023.pdf</v>
       </c>
       <c r="I14" t="str">
         <v>Y</v>
@@ -810,28 +810,28 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Shyam Spectra Private Limited</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B15" t="str">
-        <v>2023-04-10</v>
+        <v>2023-04-18</v>
       </c>
       <c r="C15" t="str">
-        <v>BHRI000999/23-24</v>
+        <v xml:space="preserve"> DLPR-2300136</v>
       </c>
       <c r="D15" t="str">
-        <v>13492.12</v>
+        <v>15000</v>
       </c>
       <c r="E15" t="str">
-        <v>9082431</v>
+        <v>ANYSPAZE-KNOWLARITY001</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>8 Apr 2023 to 7 May 2023</v>
+        <v>Other Telecommunications &amp; Internet Services n.e.c :-Plan: Advance Plan Validity: 23-04-2024</v>
       </c>
       <c r="H15" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a6fb9f20-dde9-11ed-8c3d-8127e1b69a51-9082431_BHRI000999_23-24.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2bc48930-de6f-11ed-8c3d-8127e1b69a51-DLPR-2300136_119256DLPR-2300136_119256_envoice.pdf</v>
       </c>
       <c r="I15" t="str">
         <v>Y</v>
@@ -839,28 +839,28 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>JB Computers</v>
+        <v>AAA Rental LLP</v>
       </c>
       <c r="B16" t="str">
-        <v>2023-04-06</v>
+        <v>2023-04-24</v>
       </c>
       <c r="C16" t="str">
-        <v>6</v>
+        <v>MUM/23-24/203</v>
       </c>
       <c r="D16" t="str">
-        <v>19824</v>
+        <v>16638</v>
       </c>
       <c r="E16" t="str">
-        <v>ILOGJB001</v>
+        <v>ILOGAAA</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>RENT April 23</v>
+        <v>22-Apr-23 21-May-23 RENTAL</v>
       </c>
       <c r="H16" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b6c85ab0-de7f-11ed-aa7d-5d02d5c6dc83-APR-2023.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/40b5c8f0-e4cc-11ed-9ba7-457f519ee645-I-Log Solutions India Pvt. Ltd.-203.pdf</v>
       </c>
       <c r="I16" t="str">
         <v>Y</v>
@@ -868,28 +868,28 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>Onsite Computer Solutions</v>
       </c>
       <c r="B17" t="str">
-        <v>2023-04-18</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C17" t="str">
-        <v xml:space="preserve"> DLPR-2300136</v>
+        <v>ON/2324/006</v>
       </c>
       <c r="D17" t="str">
-        <v>15000</v>
+        <v>42008</v>
       </c>
       <c r="E17" t="str">
-        <v>ANYSPAZE-KNOWLARITY001</v>
+        <v>ONSITE001</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>Other Telecommunications &amp; Internet Services n.e.c :-Plan: Advance Plan Validity: 23-04-2024</v>
+        <v>rent apr23</v>
       </c>
       <c r="H17" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2bc48930-de6f-11ed-8c3d-8127e1b69a51-DLPR-2300136_119256DLPR-2300136_119256_envoice.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ad2d6330-e4e5-11ed-9ba7-457f519ee645-AWL-INV-006 Neww.pdf</v>
       </c>
       <c r="I17" t="str">
         <v>Y</v>
@@ -897,28 +897,28 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>AAA Rental LLP</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B18" t="str">
-        <v>2023-04-24</v>
+        <v>2023-04-27</v>
       </c>
       <c r="C18" t="str">
-        <v>MUM/23-24/203</v>
+        <v>CGPLGST134-2324</v>
       </c>
       <c r="D18" t="str">
-        <v>16638</v>
+        <v>340430</v>
       </c>
       <c r="E18" t="str">
-        <v>ILOGAAA</v>
+        <v>CGPL002</v>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>22-Apr-23 21-May-23 RENTAL</v>
+        <v/>
       </c>
       <c r="H18" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/40b5c8f0-e4cc-11ed-9ba7-457f519ee645-I-Log Solutions India Pvt. Ltd.-203.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/17cfbb40-e58e-11ed-9ba7-457f519ee645-ILog_134.pdf</v>
       </c>
       <c r="I18" t="str">
         <v>Y</v>
@@ -926,28 +926,28 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Onsite Computer Solutions</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B19" t="str">
-        <v>2023-04-01</v>
+        <v>2023-04-24</v>
       </c>
       <c r="C19" t="str">
-        <v>ON/2324/006</v>
+        <v>: HRI0504365053664</v>
       </c>
       <c r="D19" t="str">
-        <v>42008</v>
+        <v>470.83</v>
       </c>
       <c r="E19" t="str">
-        <v>ONSITE001</v>
+        <v>167933548</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>rent apr23</v>
+        <v>24.03.23 to 23.04.23</v>
       </c>
       <c r="H19" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ad2d6330-e4e5-11ed-9ba7-457f519ee645-AWL-INV-006 Neww.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f600bea0-e5a2-11ed-9ba7-457f519ee645-167924255-20230424.pdf</v>
       </c>
       <c r="I19" t="str">
         <v>Y</v>
@@ -955,28 +955,28 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Cybernetic Genesis Private Limited</v>
+        <v>Scorpio Imaging System</v>
       </c>
       <c r="B20" t="str">
-        <v>2023-04-27</v>
+        <v>2023-04-29</v>
       </c>
       <c r="C20" t="str">
-        <v>CGPLGST134-2324</v>
+        <v>26</v>
       </c>
       <c r="D20" t="str">
-        <v>340430</v>
+        <v>4130</v>
       </c>
       <c r="E20" t="str">
-        <v>CGPL002</v>
+        <v>ILOGSCO001</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v>rent apr</v>
       </c>
       <c r="H20" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/17cfbb40-e58e-11ed-9ba7-457f519ee645-ILog_134.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a43f67a0-e8a5-11ed-9ba7-457f519ee645-26.pdf</v>
       </c>
       <c r="I20" t="str">
         <v>Y</v>
@@ -984,28 +984,28 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>Scorpio Imaging System</v>
       </c>
       <c r="B21" t="str">
-        <v>2023-04-24</v>
+        <v>2023-04-29</v>
       </c>
       <c r="C21" t="str">
-        <v>HRI0504365045202</v>
+        <v>27</v>
       </c>
       <c r="D21" t="str">
-        <v>1186.96</v>
+        <v>2950</v>
       </c>
       <c r="E21" t="str">
-        <v>13838424</v>
+        <v>ILOGSCO001</v>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>24.03.23 to 23.04.23</v>
+        <v>rent apr 23</v>
       </c>
       <c r="H21" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/124e41c0-e5a0-11ed-9ba7-457f519ee645-138384824-20230424.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/bdb88db0-e8a5-11ed-9ba7-457f519ee645-27.pdf</v>
       </c>
       <c r="I21" t="str">
         <v>Y</v>
@@ -1013,28 +1013,28 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>Fretron Private Limited</v>
       </c>
       <c r="B22" t="str">
-        <v>2023-04-24</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C22" t="str">
-        <v>: HRI0504365053664</v>
+        <v>FPL/2023-24/0123</v>
       </c>
       <c r="D22" t="str">
-        <v>470.83</v>
+        <v>6242</v>
       </c>
       <c r="E22" t="str">
-        <v>167933548</v>
+        <v>ILOGFRETRON</v>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>24.03.23 to 23.04.23</v>
+        <v>For the Month of April 23</v>
       </c>
       <c r="H22" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f600bea0-e5a2-11ed-9ba7-457f519ee645-167924255-20230424.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7ede5ab0-e8a6-11ed-9ba7-457f519ee645-FPL2023-240123.pdf</v>
       </c>
       <c r="I22" t="str">
         <v>Y</v>
@@ -1042,28 +1042,28 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>Giga Network Communications</v>
       </c>
       <c r="B23" t="str">
-        <v>2023-04-28</v>
+        <v>2023-05-01</v>
       </c>
       <c r="C23" t="str">
-        <v>HRI0504365089764</v>
+        <v>3226</v>
       </c>
       <c r="D23" t="str">
-        <v>588.89</v>
+        <v>11682</v>
       </c>
       <c r="E23" t="str">
-        <v>165169033</v>
+        <v>ILOGGIGA001</v>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>28.03.23 to 27.04.23</v>
+        <v>may to oct 2023</v>
       </c>
       <c r="H23" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0358ea00-e8a5-11ed-9ba7-457f519ee645-165157230-20230428.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0091ac80-e8cd-11ed-8ef1-3975925956e7-I LOG SOLU MAY 23   3226.pdf</v>
       </c>
       <c r="I23" t="str">
         <v>Y</v>
@@ -1071,28 +1071,28 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Scorpio Imaging System</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B24" t="str">
-        <v>2023-04-29</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C24" t="str">
-        <v>26</v>
+        <v>4721146191</v>
       </c>
       <c r="D24" t="str">
-        <v>4130</v>
+        <v>16976.33</v>
       </c>
       <c r="E24" t="str">
-        <v>ILOGSCO001</v>
+        <v>01E9EF-56197C-C5A763</v>
       </c>
       <c r="F24" t="str">
         <v/>
       </c>
       <c r="G24" t="str">
-        <v>rent apr</v>
+        <v>apr 23</v>
       </c>
       <c r="H24" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a43f67a0-e8a5-11ed-9ba7-457f519ee645-26.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/973a3f30-e8cd-11ed-8ef1-3975925956e7-4721146191.pdf</v>
       </c>
       <c r="I24" t="str">
         <v>Y</v>
@@ -1100,28 +1100,28 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Scorpio Imaging System</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B25" t="str">
-        <v>2023-04-29</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C25" t="str">
-        <v>27</v>
+        <v>4711413377</v>
       </c>
       <c r="D25" t="str">
-        <v>2950</v>
+        <v>5236.84</v>
       </c>
       <c r="E25" t="str">
-        <v>ILOGSCO001</v>
+        <v>1226-7792-2898</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>rent apr 23</v>
+        <v xml:space="preserve">apr 23 </v>
       </c>
       <c r="H25" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/bdb88db0-e8a5-11ed-9ba7-457f519ee645-27.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/da6ab780-e8cd-11ed-8ef1-3975925956e7-4711413377.pdf</v>
       </c>
       <c r="I25" t="str">
         <v>Y</v>
@@ -1129,28 +1129,28 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Fretron Private Limited</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B26" t="str">
-        <v>2023-04-30</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C26" t="str">
-        <v>FPL/2023-24/0123</v>
+        <v>CGPLGST1204-2223</v>
       </c>
       <c r="D26" t="str">
-        <v>6242</v>
+        <v>295354</v>
       </c>
       <c r="E26" t="str">
-        <v>ILOGFRETRON</v>
+        <v>CGPL001</v>
       </c>
       <c r="F26" t="str">
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>For the Month of April 23</v>
+        <v>mar 23</v>
       </c>
       <c r="H26" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7ede5ab0-e8a6-11ed-9ba7-457f519ee645-FPL2023-240123.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/1607aef0-e8cf-11ed-8ef1-3975925956e7-ILog_1204.pdf</v>
       </c>
       <c r="I26" t="str">
         <v>Y</v>
@@ -1158,28 +1158,28 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Giga Network Communications</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B27" t="str">
-        <v>2023-05-01</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C27" t="str">
-        <v>3226</v>
+        <v>CGPLGST1205-2223</v>
       </c>
       <c r="D27" t="str">
-        <v>11682</v>
+        <v>202635</v>
       </c>
       <c r="E27" t="str">
-        <v>ILOGGIGA001</v>
+        <v>CGPL001</v>
       </c>
       <c r="F27" t="str">
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>may to oct 2023</v>
+        <v>mar 23</v>
       </c>
       <c r="H27" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0091ac80-e8cd-11ed-8ef1-3975925956e7-I LOG SOLU MAY 23   3226.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4a6dfd70-e8cf-11ed-8ef1-3975925956e7-ILog_1205_Revised.pdf</v>
       </c>
       <c r="I27" t="str">
         <v>Y</v>
@@ -1187,28 +1187,28 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Google India Pvt. Ltd</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B28" t="str">
-        <v>2023-04-30</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C28" t="str">
-        <v>4721146191</v>
+        <v>CGPLGST1215-2223</v>
       </c>
       <c r="D28" t="str">
-        <v>16976.33</v>
+        <v>231923</v>
       </c>
       <c r="E28" t="str">
-        <v>01E9EF-56197C-C5A763</v>
+        <v>CGPL001</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>apr 23</v>
+        <v>mar23</v>
       </c>
       <c r="H28" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/973a3f30-e8cd-11ed-8ef1-3975925956e7-4721146191.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7992ede0-e8cf-11ed-8ef1-3975925956e7-ILog_1215.pdf</v>
       </c>
       <c r="I28" t="str">
         <v>Y</v>
@@ -1216,28 +1216,28 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Google India Pvt. Ltd</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B29" t="str">
-        <v>2023-04-30</v>
+        <v>2023-04-05</v>
       </c>
       <c r="C29" t="str">
-        <v>4711413377</v>
+        <v>CGPLGST21-2324</v>
       </c>
       <c r="D29" t="str">
-        <v>5236.84</v>
+        <v>486550</v>
       </c>
       <c r="E29" t="str">
-        <v>1226-7792-2898</v>
+        <v>CGPL002</v>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v xml:space="preserve">apr 23 </v>
+        <v xml:space="preserve"> M365 BUSINESS STANDARD</v>
       </c>
       <c r="H29" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/da6ab780-e8cd-11ed-8ef1-3975925956e7-4711413377.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b7d705f0-e8cf-11ed-8ef1-3975925956e7-ILog_21.pdf</v>
       </c>
       <c r="I29" t="str">
         <v>Y</v>
@@ -1245,28 +1245,28 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Cybernetic Genesis Private Limited</v>
+        <v>Onsite Computer Solutions</v>
       </c>
       <c r="B30" t="str">
-        <v>2023-03-28</v>
+        <v>2023-05-02</v>
       </c>
       <c r="C30" t="str">
-        <v>CGPLGST1204-2223</v>
+        <v>ON/2324/0177</v>
       </c>
       <c r="D30" t="str">
-        <v>295354</v>
+        <v>47908</v>
       </c>
       <c r="E30" t="str">
-        <v>CGPL001</v>
+        <v>ONSITE001</v>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str">
-        <v>mar 23</v>
+        <v>rent apr 23</v>
       </c>
       <c r="H30" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/1607aef0-e8cf-11ed-8ef1-3975925956e7-ILog_1204.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/36b5a930-e8d0-11ed-8ef1-3975925956e7-AWL Laptop Rent-INV-0177.pdf</v>
       </c>
       <c r="I30" t="str">
         <v>Y</v>
@@ -1274,28 +1274,28 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Cybernetic Genesis Private Limited</v>
+        <v>Onsite Computer Solutions</v>
       </c>
       <c r="B31" t="str">
-        <v>2023-03-28</v>
+        <v>2023-05-02</v>
       </c>
       <c r="C31" t="str">
-        <v>CGPLGST1205-2223</v>
+        <v>ON/2324/0178</v>
       </c>
       <c r="D31" t="str">
-        <v>202635</v>
+        <v>4808</v>
       </c>
       <c r="E31" t="str">
-        <v>CGPL001</v>
+        <v>ONSITE001</v>
       </c>
       <c r="F31" t="str">
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>mar 23</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4a6dfd70-e8cf-11ed-8ef1-3975925956e7-ILog_1205_Revised.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f6833930-e8d0-11ed-8ef1-3975925956e7-AWL-INV-0178.pdf</v>
       </c>
       <c r="I31" t="str">
         <v>Y</v>
@@ -1303,28 +1303,28 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Cybernetic Genesis Private Limited</v>
+        <v>Advaitha Technogies</v>
       </c>
       <c r="B32" t="str">
-        <v>2023-03-28</v>
+        <v>2023-05-01</v>
       </c>
       <c r="C32" t="str">
-        <v>CGPLGST1215-2223</v>
+        <v>adv/62</v>
       </c>
       <c r="D32" t="str">
-        <v>231923</v>
+        <v>6608</v>
       </c>
       <c r="E32" t="str">
-        <v>CGPL001</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>mar23</v>
+        <v>rent23</v>
       </c>
       <c r="H32" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7992ede0-e8cf-11ed-8ef1-3975925956e7-ILog_1215.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8313df80-e8d1-11ed-8ef1-3975925956e7-ILOG 62.pdf</v>
       </c>
       <c r="I32" t="str">
         <v>Y</v>
@@ -1332,28 +1332,28 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Cybernetic Genesis Private Limited</v>
+        <v>Hirezone Systems Private Limited</v>
       </c>
       <c r="B33" t="str">
-        <v>2023-04-05</v>
+        <v>2023-05-02</v>
       </c>
       <c r="C33" t="str">
-        <v>CGPLGST21-2324</v>
+        <v>HSPL/RT060/23-24</v>
       </c>
       <c r="D33" t="str">
-        <v>486550</v>
+        <v>2124</v>
       </c>
       <c r="E33" t="str">
-        <v>CGPL002</v>
+        <v>ILOGHIREZONE-001</v>
       </c>
       <c r="F33" t="str">
         <v/>
       </c>
       <c r="G33" t="str">
-        <v xml:space="preserve"> M365 BUSINESS STANDARD</v>
+        <v>01.05.23 - 31.05.23</v>
       </c>
       <c r="H33" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b7d705f0-e8cf-11ed-8ef1-3975925956e7-ILog_21.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/46098a80-e8d2-11ed-8ef1-3975925956e7-InvoiceHSPLRT06023-24_ILOG SOLUTIONS INDIA PVT LTDORIGINAL FOR RECIPIENT.pdf</v>
       </c>
       <c r="I33" t="str">
         <v>Y</v>
@@ -1361,28 +1361,28 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Onsite Computer Solutions</v>
+        <v>NR Data Services Networking</v>
       </c>
       <c r="B34" t="str">
         <v>2023-05-02</v>
       </c>
       <c r="C34" t="str">
-        <v>ON/2324/0177</v>
+        <v>INV-0000369</v>
       </c>
       <c r="D34" t="str">
-        <v>47908</v>
+        <v>26550</v>
       </c>
       <c r="E34" t="str">
-        <v>ONSITE001</v>
+        <v>ILOGNR001</v>
       </c>
       <c r="F34" t="str">
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>rent apr 23</v>
+        <v>1-5-023 to  31.07.23</v>
       </c>
       <c r="H34" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/36b5a930-e8d0-11ed-8ef1-3975925956e7-AWL Laptop Rent-INV-0177.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e6a78610-e8d5-11ed-8ef1-3975925956e7-INV-0000369.pdf</v>
       </c>
       <c r="I34" t="str">
         <v>Y</v>
@@ -1390,19 +1390,19 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Onsite Computer Solutions</v>
+        <v>Aspirant Tech Services</v>
       </c>
       <c r="B35" t="str">
-        <v>2023-05-02</v>
+        <v>2023-04-29</v>
       </c>
       <c r="C35" t="str">
-        <v>ON/2324/0178</v>
+        <v>43/2023-24</v>
       </c>
       <c r="D35" t="str">
-        <v>4808</v>
+        <v>2596</v>
       </c>
       <c r="E35" t="str">
-        <v>ONSITE001</v>
+        <v>ILOGASP001</v>
       </c>
       <c r="F35" t="str">
         <v/>
@@ -1411,7 +1411,7 @@
         <v/>
       </c>
       <c r="H35" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f6833930-e8d0-11ed-8ef1-3975925956e7-AWL-INV-0178.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6d7f7ea0-e8da-11ed-8ef1-3975925956e7-ATS0001.pdf</v>
       </c>
       <c r="I35" t="str">
         <v>Y</v>
@@ -1419,28 +1419,28 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Advaitha Technogies</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B36" t="str">
-        <v>2023-05-01</v>
+        <v>2023-04-28</v>
       </c>
       <c r="C36" t="str">
-        <v>adv/62</v>
+        <v>BF2324/010</v>
       </c>
       <c r="D36" t="str">
-        <v>6608</v>
+        <v>5253</v>
       </c>
       <c r="E36" t="str">
-        <v>ILOGADV001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v>rent23</v>
+        <v>apr23</v>
       </c>
       <c r="H36" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8313df80-e8d1-11ed-8ef1-3975925956e7-ILOG 62.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/129b6b80-e97e-11ed-8ef1-3975925956e7-010 broadbill.pdf</v>
       </c>
       <c r="I36" t="str">
         <v>Y</v>
@@ -1448,28 +1448,28 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Hirezone Systems Private Limited</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B37" t="str">
-        <v>2023-05-02</v>
+        <v>2023-04-28</v>
       </c>
       <c r="C37" t="str">
-        <v>HSPL/RT060/23-24</v>
+        <v>BR2324/APR14</v>
       </c>
       <c r="D37" t="str">
-        <v>2124</v>
+        <v>5310</v>
       </c>
       <c r="E37" t="str">
-        <v>ILOGHIREZONE-001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F37" t="str">
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>01.05.23 - 31.05.23</v>
+        <v>APR23</v>
       </c>
       <c r="H37" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/46098a80-e8d2-11ed-8ef1-3975925956e7-InvoiceHSPLRT06023-24_ILOG SOLUTIONS INDIA PVT LTDORIGINAL FOR RECIPIENT.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3d8c9d50-e97e-11ed-8ef1-3975925956e7-apr14broadbill.pdf</v>
       </c>
       <c r="I37" t="str">
         <v>Y</v>
@@ -1477,28 +1477,28 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>NR Data Services Networking</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B38" t="str">
-        <v>2023-05-02</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C38" t="str">
-        <v>INV-0000369</v>
+        <v xml:space="preserve"> INV-001660</v>
       </c>
       <c r="D38" t="str">
-        <v>26550</v>
+        <v>97943</v>
       </c>
       <c r="E38" t="str">
-        <v>ILOGNR001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F38" t="str">
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>1-5-023 to  31.07.23</v>
+        <v>anyspaze apr 23</v>
       </c>
       <c r="H38" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e6a78610-e8d5-11ed-8ef1-3975925956e7-INV-0000369.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/32fdcb10-e9b1-11ed-8ef1-3975925956e7-INV-001660.pdf</v>
       </c>
       <c r="I38" t="str">
         <v>Y</v>
@@ -1506,28 +1506,28 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Aspirant Tech Services</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B39" t="str">
-        <v>2023-04-29</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C39" t="str">
-        <v>43/2023-24</v>
+        <v xml:space="preserve"> INV-001659</v>
       </c>
       <c r="D39" t="str">
-        <v>2596</v>
+        <v>42241</v>
       </c>
       <c r="E39" t="str">
-        <v>ILOGASP001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F39" t="str">
         <v/>
       </c>
       <c r="G39" t="str">
-        <v/>
+        <v>digital marketing apr 23</v>
       </c>
       <c r="H39" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6d7f7ea0-e8da-11ed-8ef1-3975925956e7-ATS0001.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/38763eb0-e9b1-11ed-8ef1-3975925956e7-INV-001659.pdf</v>
       </c>
       <c r="I39" t="str">
         <v>Y</v>
@@ -1535,28 +1535,28 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Broadbill Information Systems Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B40" t="str">
-        <v>2023-04-28</v>
+        <v>2023-04-30</v>
       </c>
       <c r="C40" t="str">
-        <v>BF2324/010</v>
+        <v xml:space="preserve"> INV-001661</v>
       </c>
       <c r="D40" t="str">
-        <v>5253</v>
+        <v>120582</v>
       </c>
       <c r="E40" t="str">
-        <v>ILOGBROAD001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F40" t="str">
         <v/>
       </c>
       <c r="G40" t="str">
-        <v>apr23</v>
+        <v>360 Package ( AWL India Website)  Search Engine Optimization/Online Reputation Management/Social  Media Management/Content Management</v>
       </c>
       <c r="H40" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/129b6b80-e97e-11ed-8ef1-3975925956e7-010 broadbill.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3e017700-e9b1-11ed-8ef1-3975925956e7-INV-001661.pdf</v>
       </c>
       <c r="I40" t="str">
         <v>Y</v>
@@ -1564,28 +1564,28 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Broadbill Information Systems Private Limited</v>
+        <v>Ambient Technologies</v>
       </c>
       <c r="B41" t="str">
-        <v>2023-04-28</v>
+        <v>2023-05-01</v>
       </c>
       <c r="C41" t="str">
-        <v>BR2324/APR14</v>
+        <v>201</v>
       </c>
       <c r="D41" t="str">
-        <v>5310</v>
+        <v>8260</v>
       </c>
       <c r="E41" t="str">
-        <v>ILOGBROAD001</v>
+        <v>Ambient001</v>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>APR23</v>
+        <v>1 TB HDD</v>
       </c>
       <c r="H41" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3d8c9d50-e97e-11ed-8ef1-3975925956e7-apr14broadbill.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e3304600-eb0c-11ed-b35a-bd0f209c7a81-Invoice _AWL _201 (2).pdf</v>
       </c>
       <c r="I41" t="str">
         <v>Y</v>
@@ -1593,28 +1593,28 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B42" t="str">
-        <v>2023-04-30</v>
+        <v>2023-04-18</v>
       </c>
       <c r="C42" t="str">
-        <v xml:space="preserve"> INV-001660</v>
+        <v>HT2406I000279079</v>
       </c>
       <c r="D42" t="str">
-        <v>97943</v>
+        <v>14160</v>
       </c>
       <c r="E42" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>7038063008</v>
       </c>
       <c r="F42" t="str">
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>anyspaze apr 23</v>
+        <v>17-Mar-2023 to 16-Apr-2023</v>
       </c>
       <c r="H42" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/32fdcb10-e9b1-11ed-8ef1-3975925956e7-INV-001660.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2db35a00-ebda-11ed-bee0-5d42b1483a61-Bill_HT2406I000279079.pdf</v>
       </c>
       <c r="I42" t="str">
         <v>Y</v>
@@ -1622,28 +1622,28 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B43" t="str">
-        <v>2023-04-30</v>
+        <v>2023-04-27</v>
       </c>
       <c r="C43" t="str">
-        <v xml:space="preserve"> INV-001659</v>
+        <v>HT2406I000379971</v>
       </c>
       <c r="D43" t="str">
-        <v>42241</v>
+        <v>295</v>
       </c>
       <c r="E43" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>7015898062</v>
       </c>
       <c r="F43" t="str">
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>digital marketing apr 23</v>
+        <v>26-Mar-2023 to 25-Apr-2023</v>
       </c>
       <c r="H43" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/38763eb0-e9b1-11ed-8ef1-3975925956e7-INV-001659.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/34a8a9a0-ebda-11ed-bee0-5d42b1483a61-Bill_HT2406I000379971.pdf</v>
       </c>
       <c r="I43" t="str">
         <v>Y</v>
@@ -1651,28 +1651,28 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B44" t="str">
-        <v>2023-04-30</v>
+        <v>2023-04-27</v>
       </c>
       <c r="C44" t="str">
-        <v xml:space="preserve"> INV-001661</v>
+        <v>HT2406I000379972</v>
       </c>
       <c r="D44" t="str">
-        <v>120582</v>
+        <v>589.61</v>
       </c>
       <c r="E44" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>7015898060</v>
       </c>
       <c r="F44" t="str">
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>360 Package ( AWL India Website)  Search Engine Optimization/Online Reputation Management/Social  Media Management/Content Management</v>
+        <v>26-Mar-2023 to 25-Apr-2023</v>
       </c>
       <c r="H44" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3e017700-e9b1-11ed-8ef1-3975925956e7-INV-001661.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3a7557c0-ebda-11ed-bee0-5d42b1483a61-Bill_HT2406I000379972.pdf</v>
       </c>
       <c r="I44" t="str">
         <v>Y</v>
@@ -1680,144 +1680,144 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Advaitha Technogies</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B45" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C45" t="str">
-        <v>Adv/ 1838</v>
+        <v>HT2406I000142683</v>
       </c>
       <c r="D45" t="str">
-        <v>9676</v>
+        <v>1176.76</v>
       </c>
       <c r="E45" t="str">
-        <v>ILOGADV001</v>
+        <v>7010625278</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>dec 22</v>
+        <v>08-Mar-2023 to 07-Apr-2023</v>
       </c>
       <c r="H45" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3fe0ac00-ebda-11ed-bee0-5d42b1483a61-Bill_HT2406I000142683.pdf</v>
       </c>
       <c r="I45" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Hirezone Systems Private Limited</v>
+        <v>Brill Infotech</v>
       </c>
       <c r="B46" t="str">
-        <v>2022-12-02</v>
+        <v>2023-05-01</v>
       </c>
       <c r="C46" t="str">
-        <v>HSPL/RT396/22-23</v>
+        <v>58</v>
       </c>
       <c r="D46" t="str">
-        <v>2124</v>
+        <v>30000</v>
       </c>
       <c r="E46" t="str">
-        <v>ILOGHIREZONE-001</v>
+        <v>ILOGBRILL001</v>
       </c>
       <c r="F46" t="str">
         <v/>
       </c>
       <c r="G46" t="str">
-        <v>dec 22</v>
+        <v>frontend developer apr 23</v>
       </c>
       <c r="H46" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c4b1fbf0-ebda-11ed-bee0-5d42b1483a61-Invoice # 58.pdf</v>
       </c>
       <c r="I46" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>NSS System Services</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B47" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C47" t="str">
-        <v>NSS/22-23/260</v>
+        <v>TI/5317/G/22-23</v>
       </c>
       <c r="D47" t="str">
-        <v>4720</v>
+        <v>5900</v>
       </c>
       <c r="E47" t="str">
-        <v>ILOGNSS001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F47" t="str">
-        <v/>
+        <v>71490</v>
       </c>
       <c r="G47" t="str">
-        <v>DEC22</v>
+        <v>march 23</v>
       </c>
       <c r="H47" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0dabc780-c86f-11ed-a9ad-1df920e10020-5317.pdf</v>
       </c>
       <c r="I47" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Y Net Communication</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B48" t="str">
-        <v>2022-12-05</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C48" t="str">
-        <v xml:space="preserve"> YNet2022/0502</v>
+        <v>TI/5318/G/22-23</v>
       </c>
       <c r="D48" t="str">
-        <v>5900</v>
+        <v>9151</v>
       </c>
       <c r="E48" t="str">
-        <v>ILOGYNET001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F48" t="str">
-        <v/>
+        <v>452865</v>
       </c>
       <c r="G48" t="str">
-        <v>DEC 22</v>
+        <v>march 23</v>
       </c>
       <c r="H48" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2944c050-c86f-11ed-a9ad-1df920e10020-5318.pdf</v>
       </c>
       <c r="I48" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Shyam Spectra Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B49" t="str">
-        <v>2022-12-08</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C49" t="str">
-        <v>BHRI006073/22-23</v>
+        <v>TI/5319/G/22-23</v>
       </c>
       <c r="D49" t="str">
-        <v>13138</v>
+        <v>5900</v>
       </c>
       <c r="E49" t="str">
-        <v>9082431</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F49" t="str">
-        <v/>
+        <v>373772</v>
       </c>
       <c r="G49" t="str">
-        <v>DEC22</v>
+        <v>march 23</v>
       </c>
       <c r="H49" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/eec37800-bf2b-11ed-80f1-cb8814d4a67d-pdfds361895759992030563.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/51bfc200-c86f-11ed-a9ad-1df920e10020-5319.pdf</v>
       </c>
       <c r="I49" t="str">
         <v>Y</v>
@@ -1828,10 +1828,10 @@
         <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B50" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C50" t="str">
-        <v xml:space="preserve">	 TI/3671/G/22-23</v>
+        <v>TI/5320/G/22-23</v>
       </c>
       <c r="D50" t="str">
         <v>5900</v>
@@ -1840,16 +1840,16 @@
         <v>ILOGGPS001</v>
       </c>
       <c r="F50" t="str">
-        <v>392,065</v>
+        <v>118905</v>
       </c>
       <c r="G50" t="str">
-        <v>NOV22</v>
+        <v>march 23</v>
       </c>
       <c r="H50" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6155a040-c86f-11ed-a9ad-1df920e10020-5320.pdf</v>
       </c>
       <c r="I50" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="51">
@@ -1857,10 +1857,10 @@
         <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B51" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C51" t="str">
-        <v xml:space="preserve">	 TI/3674/G/22-23</v>
+        <v>TI/5321/G/22-23</v>
       </c>
       <c r="D51" t="str">
         <v>5900</v>
@@ -1869,16 +1869,16 @@
         <v>ILOGGPS001</v>
       </c>
       <c r="F51" t="str">
-        <v xml:space="preserve">336,839	</v>
+        <v>20689</v>
       </c>
       <c r="G51" t="str">
-        <v>NOV22</v>
+        <v>march 23</v>
       </c>
       <c r="H51" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/740c4680-c86f-11ed-a9ad-1df920e10020-5321.pdf</v>
       </c>
       <c r="I51" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="52">
@@ -1886,28 +1886,28 @@
         <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B52" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C52" t="str">
-        <v xml:space="preserve">	 TI/3669/G/22-23</v>
+        <v>TI/5322/G/22-23</v>
       </c>
       <c r="D52" t="str">
-        <v>5900</v>
+        <v>3540</v>
       </c>
       <c r="E52" t="str">
         <v>ILOGGPS001</v>
       </c>
       <c r="F52" t="str">
-        <v>62,130</v>
+        <v>127868</v>
       </c>
       <c r="G52" t="str">
-        <v>NOV22</v>
+        <v>march 23</v>
       </c>
       <c r="H52" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/836a72f0-c86f-11ed-a9ad-1df920e10020-5322.pdf</v>
       </c>
       <c r="I52" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="53">
@@ -1915,115 +1915,115 @@
         <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B53" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C53" t="str">
-        <v xml:space="preserve">	 TI/3681/G/22-23</v>
+        <v>TI/5323/G/22-23</v>
       </c>
       <c r="D53" t="str">
-        <v>4972</v>
+        <v>4130</v>
       </c>
       <c r="E53" t="str">
         <v>ILOGGPS001</v>
       </c>
       <c r="F53" t="str">
-        <v>112,264</v>
+        <v>25052</v>
       </c>
       <c r="G53" t="str">
-        <v>NOV22</v>
+        <v>march 23</v>
       </c>
       <c r="H53" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/923a9030-c86f-11ed-a9ad-1df920e10020-5323.pdf</v>
       </c>
       <c r="I53" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B54" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C54" t="str">
-        <v xml:space="preserve">	 TI/3922/G/22-23</v>
+        <v>TI/12605/22-23</v>
       </c>
       <c r="D54" t="str">
-        <v>4130</v>
+        <v>5900</v>
       </c>
       <c r="E54" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F54" t="str">
-        <v xml:space="preserve">20,700	</v>
+        <v>1056451</v>
       </c>
       <c r="G54" t="str">
-        <v>NOV22</v>
+        <v>march23</v>
       </c>
       <c r="H54" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0f581090-c872-11ed-858e-a1fdbe3cb3b2-12605.pdf</v>
       </c>
       <c r="I54" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B55" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C55" t="str">
-        <v xml:space="preserve">	 TI/3679/G/22-23</v>
+        <v>TI/12606/22-23</v>
       </c>
       <c r="D55" t="str">
         <v>5900</v>
       </c>
       <c r="E55" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F55" t="str">
-        <v>16,102</v>
+        <v>594512</v>
       </c>
       <c r="G55" t="str">
-        <v>NOV22</v>
+        <v>march23</v>
       </c>
       <c r="H55" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/197e2dc0-c872-11ed-858e-a1fdbe3cb3b2-606.pdf</v>
       </c>
       <c r="I55" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B56" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C56" t="str">
-        <v xml:space="preserve">	 TI/3678/G/22-23</v>
+        <v>TI/12608/22-23</v>
       </c>
       <c r="D56" t="str">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="E56" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F56" t="str">
-        <v xml:space="preserve">94,160	</v>
+        <v>59465</v>
       </c>
       <c r="G56" t="str">
-        <v>NOV22</v>
+        <v>march23</v>
       </c>
       <c r="H56" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/24290b50-c872-11ed-858e-a1fdbe3cb3b2-608.pdf</v>
       </c>
       <c r="I56" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="57">
@@ -2031,28 +2031,28 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B57" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C57" t="str">
-        <v xml:space="preserve">	 TI/8289/A/22-23</v>
+        <v>TI/12609/22-23</v>
       </c>
       <c r="D57" t="str">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="E57" t="str">
         <v>ILOGAONE001</v>
       </c>
       <c r="F57" t="str">
-        <v>211,670</v>
+        <v>46521</v>
       </c>
       <c r="G57" t="str">
-        <v>NOV22</v>
+        <v>march23</v>
       </c>
       <c r="H57" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/311a0850-c872-11ed-858e-a1fdbe3cb3b2-609.pdf</v>
       </c>
       <c r="I57" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="58">
@@ -2060,28 +2060,28 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B58" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C58" t="str">
-        <v>TI/8288/A/22-23</v>
+        <v xml:space="preserve">	 TI/12846/22-23</v>
       </c>
       <c r="D58" t="str">
-        <v>2950</v>
+        <v>9346</v>
       </c>
       <c r="E58" t="str">
         <v>ILOGAONE001</v>
       </c>
       <c r="F58" t="str">
-        <v>156,486</v>
+        <v>140810</v>
       </c>
       <c r="G58" t="str">
-        <v>NOV22</v>
+        <v>march23</v>
       </c>
       <c r="H58" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3a0386d0-c872-11ed-858e-a1fdbe3cb3b2-846.pdf</v>
       </c>
       <c r="I58" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="59">
@@ -2089,28 +2089,28 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B59" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C59" t="str">
-        <v xml:space="preserve">	 TI/8286/A/22-23</v>
+        <v xml:space="preserve">	 TI/12847/22-23</v>
       </c>
       <c r="D59" t="str">
-        <v>2950</v>
+        <v>4505</v>
       </c>
       <c r="E59" t="str">
         <v>ILOGAONE001</v>
       </c>
       <c r="F59" t="str">
-        <v>132,632</v>
+        <v>166299</v>
       </c>
       <c r="G59" t="str">
-        <v>NOV22</v>
+        <v>march23</v>
       </c>
       <c r="H59" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/435f0100-c872-11ed-858e-a1fdbe3cb3b2-847.pdf</v>
       </c>
       <c r="I59" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="60">
@@ -2118,10 +2118,10 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B60" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C60" t="str">
-        <v xml:space="preserve">	 TI/8285/A/22-23</v>
+        <v>TI/12185/22-23</v>
       </c>
       <c r="D60" t="str">
         <v>2950</v>
@@ -2130,16 +2130,16 @@
         <v>ILOGAONE001</v>
       </c>
       <c r="F60" t="str">
-        <v>139,127</v>
+        <v/>
       </c>
       <c r="G60" t="str">
-        <v>NOV22</v>
+        <v>m23arch</v>
       </c>
       <c r="H60" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/56e0ad80-c874-11ed-858e-a1fdbe3cb3b2-12185.pdf</v>
       </c>
       <c r="I60" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="61">
@@ -2147,28 +2147,28 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B61" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C61" t="str">
-        <v xml:space="preserve">	 TI/8744/A/22-23</v>
+        <v>TI/12186/22-23</v>
       </c>
       <c r="D61" t="str">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="E61" t="str">
         <v>ILOGAONE001</v>
       </c>
       <c r="F61" t="str">
-        <v xml:space="preserve">	1,481,101</v>
+        <v/>
       </c>
       <c r="G61" t="str">
-        <v>NOV22</v>
+        <v>m23arch</v>
       </c>
       <c r="H61" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/63c0ba90-c874-11ed-858e-a1fdbe3cb3b2-12186.pdf</v>
       </c>
       <c r="I61" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="62">
@@ -2176,190 +2176,190 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B62" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C62" t="str">
-        <v xml:space="preserve">	 TI/8745/A/22-23</v>
+        <v>TI/12187/22-23</v>
       </c>
       <c r="D62" t="str">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="E62" t="str">
         <v>ILOGAONE001</v>
       </c>
       <c r="F62" t="str">
-        <v>440,101</v>
+        <v/>
       </c>
       <c r="G62" t="str">
-        <v>NOV22</v>
+        <v>m23arch</v>
       </c>
       <c r="H62" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6dfa11a0-c874-11ed-858e-a1fdbe3cb3b2-12187.pdf</v>
       </c>
       <c r="I62" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Brill Infotech</v>
       </c>
       <c r="B63" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C63" t="str">
-        <v xml:space="preserve">	 TI/8747/A/22-23</v>
+        <v>56</v>
       </c>
       <c r="D63" t="str">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E63" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBRILL001</v>
       </c>
       <c r="F63" t="str">
-        <v>1,007,277</v>
+        <v/>
       </c>
       <c r="G63" t="str">
-        <v>NOV22</v>
+        <v/>
       </c>
       <c r="H63" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/eca61d10-cd5f-11ed-99bc-5756c144ba05-Invoice # 56.pdf</v>
       </c>
       <c r="I63" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Advaitha Technogies</v>
       </c>
       <c r="B64" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-31</v>
       </c>
       <c r="C64" t="str">
-        <v xml:space="preserve">	 TI/8750/A/22-23</v>
+        <v>123213</v>
       </c>
       <c r="D64" t="str">
-        <v>3433</v>
+        <v>123123</v>
       </c>
       <c r="E64" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="F64" t="str">
-        <v>47,651</v>
+        <v>321312</v>
       </c>
       <c r="G64" t="str">
-        <v>NOV22</v>
+        <v>sdwd</v>
       </c>
       <c r="H64" t="str">
-        <v/>
+        <v>undefined</v>
       </c>
       <c r="I64" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Aspirant Tech Services</v>
       </c>
       <c r="B65" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-27</v>
       </c>
       <c r="C65" t="str">
-        <v xml:space="preserve">	 TI/8752/A/22-23</v>
+        <v>57/2022-23</v>
       </c>
       <c r="D65" t="str">
-        <v>2950</v>
+        <v>2596</v>
       </c>
       <c r="E65" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGASP001</v>
       </c>
       <c r="F65" t="str">
-        <v>42,984</v>
+        <v/>
       </c>
       <c r="G65" t="str">
-        <v>NOV22</v>
+        <v/>
       </c>
       <c r="H65" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0a1a9e90-cd5e-11ed-99bc-5756c144ba05-awl march.pdf</v>
       </c>
       <c r="I65" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Brill Infotech</v>
       </c>
       <c r="B66" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C66" t="str">
-        <v xml:space="preserve">	 TI/8898/A/22-23</v>
+        <v>57</v>
       </c>
       <c r="D66" t="str">
-        <v>9794</v>
+        <v>30000</v>
       </c>
       <c r="E66" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBRILL001</v>
       </c>
       <c r="F66" t="str">
-        <v>122,990</v>
+        <v/>
       </c>
       <c r="G66" t="str">
-        <v>NOV22</v>
+        <v>Frontand developer apr 2023</v>
       </c>
       <c r="H66" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/1cc88050-cd60-11ed-99bc-5756c144ba05-Invoice # 57 (1).pdf</v>
       </c>
       <c r="I66" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B67" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-31</v>
       </c>
       <c r="C67" t="str">
-        <v xml:space="preserve">	 TI/8749/A/22-23</v>
+        <v>R2223/MAR13</v>
       </c>
       <c r="D67" t="str">
-        <v>5900</v>
+        <v>5310</v>
       </c>
       <c r="E67" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F67" t="str">
-        <v xml:space="preserve">	1,037,011</v>
+        <v/>
       </c>
       <c r="G67" t="str">
-        <v>NOV22</v>
+        <v/>
       </c>
       <c r="H67" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7a584be0-cfc4-11ed-b812-13a0ff500976-83368416.pdf</v>
       </c>
       <c r="I67" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Shyam Spectra Private Limited</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B68" t="str">
-        <v>2023-03-08</v>
+        <v>2023-03-31</v>
       </c>
       <c r="C68" t="str">
-        <v>BHRI008380/22-23</v>
+        <v>R2223/MAR11</v>
       </c>
       <c r="D68" t="str">
-        <v>12784</v>
+        <v>5269</v>
       </c>
       <c r="E68" t="str">
-        <v>9082431</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F68" t="str">
         <v/>
@@ -2368,36 +2368,36 @@
         <v/>
       </c>
       <c r="H68" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/803a08a0-cfc4-11ed-b812-13a0ff500976-march11.pdf</v>
       </c>
       <c r="I68" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B69" t="str">
-        <v>2023-03-01</v>
+        <v>2023-03-31</v>
       </c>
       <c r="C69" t="str">
-        <v>TI/5317/G/22-23</v>
+        <v xml:space="preserve"> INV-001611</v>
       </c>
       <c r="D69" t="str">
-        <v>5900</v>
+        <v>148592</v>
       </c>
       <c r="E69" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGKIKAI001-OUTSOURCE</v>
       </c>
       <c r="F69" t="str">
-        <v>71490</v>
+        <v/>
       </c>
       <c r="G69" t="str">
-        <v>march 23</v>
+        <v/>
       </c>
       <c r="H69" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0dabc780-c86f-11ed-a9ad-1df920e10020-5317.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/473df990-d06d-11ed-b092-a5aa6a787b89-INV-001611.pdf</v>
       </c>
       <c r="I69" t="str">
         <v>Y</v>
@@ -2405,28 +2405,28 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B70" t="str">
-        <v>2023-03-01</v>
+        <v>2023-03-31</v>
       </c>
       <c r="C70" t="str">
-        <v>TI/5318/G/22-23</v>
+        <v xml:space="preserve"> INV-001612</v>
       </c>
       <c r="D70" t="str">
-        <v>9151</v>
+        <v>45838</v>
       </c>
       <c r="E70" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F70" t="str">
-        <v>452865</v>
+        <v/>
       </c>
       <c r="G70" t="str">
-        <v>march 23</v>
+        <v/>
       </c>
       <c r="H70" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2944c050-c86f-11ed-a9ad-1df920e10020-5318.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4d6ff930-d06d-11ed-b092-a5aa6a787b89-INV-001612.pdf</v>
       </c>
       <c r="I70" t="str">
         <v>Y</v>
@@ -2434,28 +2434,28 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B71" t="str">
-        <v>2023-03-01</v>
+        <v>2023-03-31</v>
       </c>
       <c r="C71" t="str">
-        <v>TI/5319/G/22-23</v>
+        <v xml:space="preserve"> INV-001613</v>
       </c>
       <c r="D71" t="str">
-        <v>5900</v>
+        <v>60356</v>
       </c>
       <c r="E71" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F71" t="str">
-        <v>373772</v>
+        <v/>
       </c>
       <c r="G71" t="str">
-        <v>march 23</v>
+        <v/>
       </c>
       <c r="H71" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/51bfc200-c86f-11ed-a9ad-1df920e10020-5319.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/52b241a0-d06d-11ed-b092-a5aa6a787b89-INV-001613.pdf</v>
       </c>
       <c r="I71" t="str">
         <v>Y</v>
@@ -2463,28 +2463,28 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Rediff.com India Limited</v>
       </c>
       <c r="B72" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-03</v>
       </c>
       <c r="C72" t="str">
-        <v>TI/5320/G/22-23</v>
+        <v>RWPI30374614</v>
       </c>
       <c r="D72" t="str">
-        <v>5900</v>
+        <v>5310</v>
       </c>
       <c r="E72" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGREDIFF001</v>
       </c>
       <c r="F72" t="str">
-        <v>118905</v>
+        <v/>
       </c>
       <c r="G72" t="str">
-        <v>march 23</v>
+        <v>one year plan</v>
       </c>
       <c r="H72" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6155a040-c86f-11ed-a9ad-1df920e10020-5320.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3eded700-d2ad-11ed-ac04-7b51279827d9-Rediff Domain orderprint.pdf</v>
       </c>
       <c r="I72" t="str">
         <v>Y</v>
@@ -2492,28 +2492,28 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B73" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C73" t="str">
-        <v>TI/5321/G/22-23</v>
+        <v>TI/354/1-23-24</v>
       </c>
       <c r="D73" t="str">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="E73" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F73" t="str">
-        <v>20689</v>
+        <v>190214</v>
       </c>
       <c r="G73" t="str">
-        <v>march 23</v>
+        <v>march 2023</v>
       </c>
       <c r="H73" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/740c4680-c86f-11ed-a9ad-1df920e10020-5321.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d668c170-d76d-11ed-8c3d-8127e1b69a51-354.pdf</v>
       </c>
       <c r="I73" t="str">
         <v>Y</v>
@@ -2521,28 +2521,28 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B74" t="str">
-        <v>2023-03-01</v>
+        <v>2023-03-31</v>
       </c>
       <c r="C74" t="str">
-        <v>TI/5322/G/22-23</v>
+        <v xml:space="preserve"> INV-001614</v>
       </c>
       <c r="D74" t="str">
-        <v>3540</v>
+        <v>112791</v>
       </c>
       <c r="E74" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F74" t="str">
-        <v>127868</v>
+        <v/>
       </c>
       <c r="G74" t="str">
-        <v>march 23</v>
+        <v/>
       </c>
       <c r="H74" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/836a72f0-c86f-11ed-a9ad-1df920e10020-5322.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/58fa8860-d06d-11ed-b092-a5aa6a787b89-INV-001614.pdf</v>
       </c>
       <c r="I74" t="str">
         <v>Y</v>
@@ -2550,28 +2550,28 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B75" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-03</v>
       </c>
       <c r="C75" t="str">
-        <v>TI/5323/G/22-23</v>
+        <v>HT2406I000007378</v>
       </c>
       <c r="D75" t="str">
-        <v>4130</v>
+        <v>1371</v>
       </c>
       <c r="E75" t="str">
-        <v>ILOGGPS001</v>
+        <v>7023500364</v>
       </c>
       <c r="F75" t="str">
-        <v>25052</v>
+        <v/>
       </c>
       <c r="G75" t="str">
-        <v>march 23</v>
+        <v>02-Mar-2023 to 01-Apr-2023</v>
       </c>
       <c r="H75" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/923a9030-c86f-11ed-a9ad-1df920e10020-5323.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e8dc3ae0-d1e0-11ed-865d-39c972c28ff9-Epronto Invoice.pdf</v>
       </c>
       <c r="I75" t="str">
         <v>Y</v>
@@ -2579,28 +2579,28 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Hirezone Systems Private Limited</v>
       </c>
       <c r="B76" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C76" t="str">
-        <v>TI/12605/22-23</v>
+        <v>HSPL/RT011/23-24</v>
       </c>
       <c r="D76" t="str">
-        <v>5900</v>
+        <v>2124</v>
       </c>
       <c r="E76" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGHIREZONE-001</v>
       </c>
       <c r="F76" t="str">
-        <v>1056451</v>
+        <v/>
       </c>
       <c r="G76" t="str">
-        <v>march23</v>
+        <v>01/04/23 - 30/04/23</v>
       </c>
       <c r="H76" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0f581090-c872-11ed-858e-a1fdbe3cb3b2-12605.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/fa888e40-d2aa-11ed-ac04-7b51279827d9-InvoiceHSPLRT01123-24_ILOG SOLUTIONS INDIA PVT LTDORIGINAL FOR RECIPIENT.pdf</v>
       </c>
       <c r="I76" t="str">
         <v>Y</v>
@@ -2608,28 +2608,28 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>BS Services</v>
       </c>
       <c r="B77" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-03</v>
       </c>
       <c r="C77" t="str">
-        <v>TI/12606/22-23</v>
+        <v>549</v>
       </c>
       <c r="D77" t="str">
-        <v>5900</v>
+        <v>12250</v>
       </c>
       <c r="E77" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBS001</v>
       </c>
       <c r="F77" t="str">
-        <v>594512</v>
+        <v/>
       </c>
       <c r="G77" t="str">
-        <v>march23</v>
+        <v>march 2023</v>
       </c>
       <c r="H77" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/197e2dc0-c872-11ed-858e-a1fdbe3cb3b2-606.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9f48c3a0-d2ab-11ed-ac04-7b51279827d9-Awl Bill April 2023.pdf</v>
       </c>
       <c r="I77" t="str">
         <v>Y</v>
@@ -2637,28 +2637,28 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Alok Computers</v>
       </c>
       <c r="B78" t="str">
-        <v>2023-03-01</v>
+        <v>2023-03-29</v>
       </c>
       <c r="C78" t="str">
-        <v>TI/12608/22-23</v>
+        <v>00394</v>
       </c>
       <c r="D78" t="str">
-        <v>2950</v>
+        <v>1770</v>
       </c>
       <c r="E78" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGALOK001</v>
       </c>
       <c r="F78" t="str">
-        <v>59465</v>
+        <v/>
       </c>
       <c r="G78" t="str">
         <v>march23</v>
       </c>
       <c r="H78" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/24290b50-c872-11ed-858e-a1fdbe3cb3b2-608.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b4242930-d2ac-11ed-ac04-7b51279827d9-alok invoice0001.pdf</v>
       </c>
       <c r="I78" t="str">
         <v>Y</v>
@@ -2666,28 +2666,28 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B79" t="str">
-        <v>2023-03-01</v>
+        <v>2023-03-31</v>
       </c>
       <c r="C79" t="str">
-        <v>TI/12609/22-23</v>
+        <v>4695716321</v>
       </c>
       <c r="D79" t="str">
-        <v>2950</v>
+        <v>5011.96</v>
       </c>
       <c r="E79" t="str">
-        <v>ILOGAONE001</v>
+        <v>1226-7792-2898</v>
       </c>
       <c r="F79" t="str">
-        <v>46521</v>
+        <v/>
       </c>
       <c r="G79" t="str">
-        <v>march23</v>
+        <v>march 23 mail invoice</v>
       </c>
       <c r="H79" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/311a0850-c872-11ed-858e-a1fdbe3cb3b2-609.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f05c80d0-d2ae-11ed-ac04-7b51279827d9-4695716321.pdf</v>
       </c>
       <c r="I79" t="str">
         <v>Y</v>
@@ -2695,28 +2695,28 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B80" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C80" t="str">
-        <v xml:space="preserve">	 TI/12846/22-23</v>
+        <v>BBL292404B002268</v>
       </c>
       <c r="D80" t="str">
-        <v>9346</v>
+        <v>17700</v>
       </c>
       <c r="E80" t="str">
-        <v>ILOGAONE001</v>
+        <v>31-40011108</v>
       </c>
       <c r="F80" t="str">
-        <v>140810</v>
+        <v/>
       </c>
       <c r="G80" t="str">
-        <v>march23</v>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H80" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3a0386d0-c872-11ed-858e-a1fdbe3cb3b2-846.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d89910f0-d757-11ed-8c3d-8127e1b69a51-21-100031981-BBL292404B002268-BW-07-Apr-2023.pdf</v>
       </c>
       <c r="I80" t="str">
         <v>Y</v>
@@ -2724,28 +2724,28 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>NSS System Services</v>
       </c>
       <c r="B81" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-04</v>
       </c>
       <c r="C81" t="str">
-        <v xml:space="preserve">	 TI/12847/22-23</v>
+        <v>NSS/22-23/6</v>
       </c>
       <c r="D81" t="str">
-        <v>4505</v>
+        <v>4720</v>
       </c>
       <c r="E81" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGNSS001</v>
       </c>
       <c r="F81" t="str">
-        <v>166299</v>
+        <v/>
       </c>
       <c r="G81" t="str">
-        <v>march23</v>
+        <v>apr 2023</v>
       </c>
       <c r="H81" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/435f0100-c872-11ed-858e-a1fdbe3cb3b2-847.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ffa89ef0-d75b-11ed-8c3d-8127e1b69a51-nss system0001.pdf</v>
       </c>
       <c r="I81" t="str">
         <v>Y</v>
@@ -2756,10 +2756,10 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B82" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C82" t="str">
-        <v>TI/12185/22-23</v>
+        <v>TI/352/1-23-24</v>
       </c>
       <c r="D82" t="str">
         <v>2950</v>
@@ -2768,13 +2768,13 @@
         <v>ILOGAONE001</v>
       </c>
       <c r="F82" t="str">
-        <v/>
+        <v>140962</v>
       </c>
       <c r="G82" t="str">
-        <v>m23arch</v>
+        <v>march 2023</v>
       </c>
       <c r="H82" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/56e0ad80-c874-11ed-858e-a1fdbe3cb3b2-12185.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c7c50b60-d76d-11ed-8c3d-8127e1b69a51-352.pdf</v>
       </c>
       <c r="I82" t="str">
         <v>Y</v>
@@ -2785,25 +2785,25 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B83" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C83" t="str">
-        <v>TI/12186/22-23</v>
+        <v>TI/642/A/23-24</v>
       </c>
       <c r="D83" t="str">
-        <v>2950</v>
+        <v>10372</v>
       </c>
       <c r="E83" t="str">
         <v>ILOGAONE001</v>
       </c>
       <c r="F83" t="str">
-        <v/>
+        <v>145900</v>
       </c>
       <c r="G83" t="str">
-        <v>m23arch</v>
+        <v>march 2023</v>
       </c>
       <c r="H83" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/63c0ba90-c874-11ed-858e-a1fdbe3cb3b2-12186.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ab9eedc0-d76d-11ed-8c3d-8127e1b69a51-642.pdf</v>
       </c>
       <c r="I83" t="str">
         <v>Y</v>
@@ -2814,25 +2814,25 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B84" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C84" t="str">
-        <v>TI/12187/22-23</v>
+        <v>TI/643/A/23-24</v>
       </c>
       <c r="D84" t="str">
-        <v>2950</v>
+        <v>5900</v>
       </c>
       <c r="E84" t="str">
         <v>ILOGAONE001</v>
       </c>
       <c r="F84" t="str">
-        <v/>
+        <v>166302</v>
       </c>
       <c r="G84" t="str">
-        <v>m23arch</v>
+        <v>march 2023</v>
       </c>
       <c r="H84" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6dfa11a0-c874-11ed-858e-a1fdbe3cb3b2-12187.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a0eae870-d76d-11ed-8c3d-8127e1b69a51-643.pdf</v>
       </c>
       <c r="I84" t="str">
         <v>Y</v>
@@ -2840,28 +2840,28 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Brill Infotech</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B85" t="str">
-        <v>2023-03-28</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C85" t="str">
-        <v>56</v>
+        <v>TI/644/A/23-24</v>
       </c>
       <c r="D85" t="str">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="E85" t="str">
-        <v>ILOGBRILL001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F85" t="str">
-        <v/>
+        <v>1057841</v>
       </c>
       <c r="G85" t="str">
-        <v/>
+        <v>march 2023</v>
       </c>
       <c r="H85" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/eca61d10-cd5f-11ed-99bc-5756c144ba05-Invoice # 56.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/97c635b0-d76d-11ed-8c3d-8127e1b69a51-644.pdf</v>
       </c>
       <c r="I85" t="str">
         <v>Y</v>
@@ -2869,28 +2869,28 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Advaitha Technogies</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B86" t="str">
-        <v>2023-03-31</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C86" t="str">
-        <v>123213</v>
+        <v>TI/351/1-23-24</v>
       </c>
       <c r="D86" t="str">
-        <v>123123</v>
+        <v>2950</v>
       </c>
       <c r="E86" t="str">
-        <v>ILOGADV001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F86" t="str">
-        <v>321312</v>
+        <v>154459</v>
       </c>
       <c r="G86" t="str">
-        <v>sdwd</v>
+        <v>march 2023</v>
       </c>
       <c r="H86" t="str">
-        <v>undefined</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b687beb0-d76d-11ed-8c3d-8127e1b69a51-351.pdf</v>
       </c>
       <c r="I86" t="str">
         <v>Y</v>
@@ -2898,28 +2898,28 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B87" t="str">
-        <v>2023-03-24</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C87" t="str">
-        <v xml:space="preserve"> HRI0503363689775</v>
+        <v>TI/645/A/23-24</v>
       </c>
       <c r="D87" t="str">
-        <v>411.82</v>
+        <v>5900</v>
       </c>
       <c r="E87" t="str">
-        <v>167933548</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F87" t="str">
-        <v/>
+        <v>596451</v>
       </c>
       <c r="G87" t="str">
-        <v/>
+        <v>march 2023</v>
       </c>
       <c r="H87" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9628c4c0-cc69-11ed-be17-01867d1771d1-167924255-20230324.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8bcd0630-d76d-11ed-8c3d-8127e1b69a51-645.pdf</v>
       </c>
       <c r="I87" t="str">
         <v>Y</v>
@@ -2927,28 +2927,28 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Aspirant Tech Services</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B88" t="str">
-        <v>2023-03-27</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C88" t="str">
-        <v>57/2022-23</v>
+        <v>TI/646/A/23-24</v>
       </c>
       <c r="D88" t="str">
-        <v>2596</v>
+        <v>2950</v>
       </c>
       <c r="E88" t="str">
-        <v>ILOGASP001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F88" t="str">
-        <v/>
+        <v>61241</v>
       </c>
       <c r="G88" t="str">
-        <v/>
+        <v>march 2023</v>
       </c>
       <c r="H88" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0a1a9e90-cd5e-11ed-99bc-5756c144ba05-awl march.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/82a482e0-d76d-11ed-8c3d-8127e1b69a51-646.pdf</v>
       </c>
       <c r="I88" t="str">
         <v>Y</v>
@@ -2956,28 +2956,28 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Brill Infotech</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B89" t="str">
-        <v>2023-03-28</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C89" t="str">
-        <v>57</v>
+        <v>TI/647/A/23-24</v>
       </c>
       <c r="D89" t="str">
-        <v>30000</v>
+        <v>2950</v>
       </c>
       <c r="E89" t="str">
-        <v>ILOGBRILL001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F89" t="str">
-        <v/>
+        <v>47854</v>
       </c>
       <c r="G89" t="str">
-        <v>Frontand developer apr 2023</v>
+        <v>march 2023</v>
       </c>
       <c r="H89" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/1cc88050-cd60-11ed-99bc-5756c144ba05-Invoice # 57 (1).pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/798d3da0-d76d-11ed-8c3d-8127e1b69a51-647.pdf</v>
       </c>
       <c r="I89" t="str">
         <v>Y</v>
@@ -2985,28 +2985,28 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Broadbill Information Systems Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B90" t="str">
-        <v>2023-03-31</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C90" t="str">
-        <v>R2223/MAR13</v>
+        <v>TI/648/A/23-24</v>
       </c>
       <c r="D90" t="str">
-        <v>5310</v>
+        <v>2950</v>
       </c>
       <c r="E90" t="str">
-        <v>ILOGBROAD001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F90" t="str">
-        <v/>
+        <v>1845</v>
       </c>
       <c r="G90" t="str">
-        <v/>
+        <v>march 2023</v>
       </c>
       <c r="H90" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7a584be0-cfc4-11ed-b812-13a0ff500976-83368416.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6e6010b0-d76d-11ed-8c3d-8127e1b69a51-648.pdf</v>
       </c>
       <c r="I90" t="str">
         <v>Y</v>
@@ -3014,28 +3014,28 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Broadbill Information Systems Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B91" t="str">
-        <v>2023-03-31</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C91" t="str">
-        <v>R2223/MAR11</v>
+        <v>TI/633/A/23-24</v>
       </c>
       <c r="D91" t="str">
-        <v>5269</v>
+        <v>2950</v>
       </c>
       <c r="E91" t="str">
-        <v>ILOGBROAD001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F91" t="str">
-        <v/>
+        <v>43888</v>
       </c>
       <c r="G91" t="str">
-        <v/>
+        <v>march 2023</v>
       </c>
       <c r="H91" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/803a08a0-cfc4-11ed-b812-13a0ff500976-march11.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/62a43850-d76d-11ed-8c3d-8127e1b69a51-633.pdf</v>
       </c>
       <c r="I91" t="str">
         <v>Y</v>
@@ -3043,28 +3043,28 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B92" t="str">
-        <v>2023-03-31</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C92" t="str">
-        <v xml:space="preserve"> INV-001611</v>
+        <v>TI/57/G/23-24</v>
       </c>
       <c r="D92" t="str">
-        <v>148592</v>
+        <v>5900</v>
       </c>
       <c r="E92" t="str">
-        <v>ILOGKIKAI001-OUTSOURCE</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F92" t="str">
-        <v/>
+        <v>75475</v>
       </c>
       <c r="G92" t="str">
-        <v/>
+        <v>MARCH 2023</v>
       </c>
       <c r="H92" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/473df990-d06d-11ed-b092-a5aa6a787b89-INV-001611.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8f454590-d784-11ed-8c3d-8127e1b69a51-57.pdf</v>
       </c>
       <c r="I92" t="str">
         <v>Y</v>
@@ -3072,28 +3072,28 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B93" t="str">
-        <v>2023-03-31</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C93" t="str">
-        <v xml:space="preserve"> INV-001612</v>
+        <v>TI/59/G/23-24</v>
       </c>
       <c r="D93" t="str">
-        <v>45838</v>
+        <v>5900</v>
       </c>
       <c r="E93" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F93" t="str">
-        <v/>
+        <v>452865</v>
       </c>
       <c r="G93" t="str">
-        <v/>
+        <v>MARCH 2023</v>
       </c>
       <c r="H93" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4d6ff930-d06d-11ed-b092-a5aa6a787b89-INV-001612.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a2611640-d784-11ed-8c3d-8127e1b69a51-59.pdf</v>
       </c>
       <c r="I93" t="str">
         <v>Y</v>
@@ -3101,28 +3101,28 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B94" t="str">
-        <v>2023-03-31</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C94" t="str">
-        <v xml:space="preserve"> INV-001613</v>
+        <v>TI/60/G/23-24</v>
       </c>
       <c r="D94" t="str">
-        <v>60356</v>
+        <v>5900</v>
       </c>
       <c r="E94" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F94" t="str">
-        <v/>
+        <v>383286</v>
       </c>
       <c r="G94" t="str">
-        <v/>
+        <v>MARCH 2023</v>
       </c>
       <c r="H94" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/52b241a0-d06d-11ed-b092-a5aa6a787b89-INV-001613.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/845fd000-d784-11ed-8c3d-8127e1b69a51-60.pdf</v>
       </c>
       <c r="I94" t="str">
         <v>Y</v>
@@ -3130,28 +3130,28 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Rediff.com India Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B95" t="str">
-        <v>2023-04-03</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C95" t="str">
-        <v>RWPI30374614</v>
+        <v>TI/61/G/23-24</v>
       </c>
       <c r="D95" t="str">
-        <v>5310</v>
+        <v>7455</v>
       </c>
       <c r="E95" t="str">
-        <v>ILOGREDIFF001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F95" t="str">
-        <v/>
+        <v>134199</v>
       </c>
       <c r="G95" t="str">
-        <v>one year plan</v>
+        <v>MARCH 2023</v>
       </c>
       <c r="H95" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3eded700-d2ad-11ed-ac04-7b51279827d9-Rediff Domain orderprint.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c3e28290-d784-11ed-8c3d-8127e1b69a51-61.pdf</v>
       </c>
       <c r="I95" t="str">
         <v>Y</v>
@@ -3159,28 +3159,28 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B96" t="str">
         <v>2023-04-01</v>
       </c>
       <c r="C96" t="str">
-        <v>TI/354/1-23-24</v>
+        <v>TI/63/G/23-24</v>
       </c>
       <c r="D96" t="str">
-        <v>2950</v>
+        <v>5900</v>
       </c>
       <c r="E96" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F96" t="str">
-        <v>190214</v>
+        <v>22065</v>
       </c>
       <c r="G96" t="str">
-        <v>march 2023</v>
+        <v>MARCH 2023</v>
       </c>
       <c r="H96" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d668c170-d76d-11ed-8c3d-8127e1b69a51-354.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7088c5a0-d784-11ed-8c3d-8127e1b69a51-63.pdf</v>
       </c>
       <c r="I96" t="str">
         <v>Y</v>
@@ -3188,28 +3188,28 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B97" t="str">
-        <v>2023-03-31</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C97" t="str">
-        <v xml:space="preserve"> INV-001614</v>
+        <v>TI/65/G/23-24</v>
       </c>
       <c r="D97" t="str">
-        <v>112791</v>
+        <v>3540</v>
       </c>
       <c r="E97" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F97" t="str">
-        <v/>
+        <v>132412</v>
       </c>
       <c r="G97" t="str">
-        <v/>
+        <v>MARCH 2023</v>
       </c>
       <c r="H97" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/58fa8860-d06d-11ed-b092-a5aa6a787b89-INV-001614.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/67929cf0-d784-11ed-8c3d-8127e1b69a51-65.pdf</v>
       </c>
       <c r="I97" t="str">
         <v>Y</v>
@@ -3217,703 +3217,36 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>AIRTEL</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B98" t="str">
-        <v>2023-04-03</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C98" t="str">
-        <v>HT2406I000007378</v>
+        <v>TI/67/G/23-24</v>
       </c>
       <c r="D98" t="str">
-        <v>1371</v>
+        <v>4130</v>
       </c>
       <c r="E98" t="str">
-        <v>7023500364</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F98" t="str">
-        <v/>
+        <v>25432</v>
       </c>
       <c r="G98" t="str">
-        <v>02-Mar-2023 to 01-Apr-2023</v>
+        <v>MARCH 2023</v>
       </c>
       <c r="H98" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e8dc3ae0-d1e0-11ed-865d-39c972c28ff9-Epronto Invoice.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/5c7e0110-d784-11ed-8c3d-8127e1b69a51-67.pdf</v>
       </c>
       <c r="I98" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>Hirezone Systems Private Limited</v>
-      </c>
-      <c r="B99" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C99" t="str">
-        <v>HSPL/RT011/23-24</v>
-      </c>
-      <c r="D99" t="str">
-        <v>2124</v>
-      </c>
-      <c r="E99" t="str">
-        <v>ILOGHIREZONE-001</v>
-      </c>
-      <c r="F99" t="str">
-        <v/>
-      </c>
-      <c r="G99" t="str">
-        <v>01/04/23 - 30/04/23</v>
-      </c>
-      <c r="H99" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/fa888e40-d2aa-11ed-ac04-7b51279827d9-InvoiceHSPLRT01123-24_ILOG SOLUTIONS INDIA PVT LTDORIGINAL FOR RECIPIENT.pdf</v>
-      </c>
-      <c r="I99" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>BS Services</v>
-      </c>
-      <c r="B100" t="str">
-        <v>2023-04-03</v>
-      </c>
-      <c r="C100" t="str">
-        <v>549</v>
-      </c>
-      <c r="D100" t="str">
-        <v>12250</v>
-      </c>
-      <c r="E100" t="str">
-        <v>ILOGBS001</v>
-      </c>
-      <c r="F100" t="str">
-        <v/>
-      </c>
-      <c r="G100" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H100" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9f48c3a0-d2ab-11ed-ac04-7b51279827d9-Awl Bill April 2023.pdf</v>
-      </c>
-      <c r="I100" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>Alok Computers</v>
-      </c>
-      <c r="B101" t="str">
-        <v>2023-03-29</v>
-      </c>
-      <c r="C101" t="str">
-        <v>00394</v>
-      </c>
-      <c r="D101" t="str">
-        <v>1770</v>
-      </c>
-      <c r="E101" t="str">
-        <v>ILOGALOK001</v>
-      </c>
-      <c r="F101" t="str">
-        <v/>
-      </c>
-      <c r="G101" t="str">
-        <v>march23</v>
-      </c>
-      <c r="H101" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b4242930-d2ac-11ed-ac04-7b51279827d9-alok invoice0001.pdf</v>
-      </c>
-      <c r="I101" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>Google India Pvt. Ltd</v>
-      </c>
-      <c r="B102" t="str">
-        <v>2023-03-31</v>
-      </c>
-      <c r="C102" t="str">
-        <v>4695716321</v>
-      </c>
-      <c r="D102" t="str">
-        <v>5011.96</v>
-      </c>
-      <c r="E102" t="str">
-        <v>1226-7792-2898</v>
-      </c>
-      <c r="F102" t="str">
-        <v/>
-      </c>
-      <c r="G102" t="str">
-        <v>march 23 mail invoice</v>
-      </c>
-      <c r="H102" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f05c80d0-d2ae-11ed-ac04-7b51279827d9-4695716321.pdf</v>
-      </c>
-      <c r="I102" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>AIRTEL</v>
-      </c>
-      <c r="B103" t="str">
-        <v>2023-04-07</v>
-      </c>
-      <c r="C103" t="str">
-        <v>BBL292404B002268</v>
-      </c>
-      <c r="D103" t="str">
-        <v>17700</v>
-      </c>
-      <c r="E103" t="str">
-        <v>31-40011108</v>
-      </c>
-      <c r="F103" t="str">
-        <v/>
-      </c>
-      <c r="G103" t="str">
-        <v>01-Apr-2023 to 30-Jun-2023</v>
-      </c>
-      <c r="H103" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d89910f0-d757-11ed-8c3d-8127e1b69a51-21-100031981-BBL292404B002268-BW-07-Apr-2023.pdf</v>
-      </c>
-      <c r="I103" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>NSS System Services</v>
-      </c>
-      <c r="B104" t="str">
-        <v>2023-04-04</v>
-      </c>
-      <c r="C104" t="str">
-        <v>NSS/22-23/6</v>
-      </c>
-      <c r="D104" t="str">
-        <v>4720</v>
-      </c>
-      <c r="E104" t="str">
-        <v>ILOGNSS001</v>
-      </c>
-      <c r="F104" t="str">
-        <v/>
-      </c>
-      <c r="G104" t="str">
-        <v>apr 2023</v>
-      </c>
-      <c r="H104" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ffa89ef0-d75b-11ed-8c3d-8127e1b69a51-nss system0001.pdf</v>
-      </c>
-      <c r="I104" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B105" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C105" t="str">
-        <v>TI/352/1-23-24</v>
-      </c>
-      <c r="D105" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E105" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F105" t="str">
-        <v>140962</v>
-      </c>
-      <c r="G105" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H105" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c7c50b60-d76d-11ed-8c3d-8127e1b69a51-352.pdf</v>
-      </c>
-      <c r="I105" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B106" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C106" t="str">
-        <v>TI/642/A/23-24</v>
-      </c>
-      <c r="D106" t="str">
-        <v>10372</v>
-      </c>
-      <c r="E106" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F106" t="str">
-        <v>145900</v>
-      </c>
-      <c r="G106" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H106" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ab9eedc0-d76d-11ed-8c3d-8127e1b69a51-642.pdf</v>
-      </c>
-      <c r="I106" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B107" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C107" t="str">
-        <v>TI/643/A/23-24</v>
-      </c>
-      <c r="D107" t="str">
-        <v>5900</v>
-      </c>
-      <c r="E107" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F107" t="str">
-        <v>166302</v>
-      </c>
-      <c r="G107" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H107" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a0eae870-d76d-11ed-8c3d-8127e1b69a51-643.pdf</v>
-      </c>
-      <c r="I107" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B108" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C108" t="str">
-        <v>TI/644/A/23-24</v>
-      </c>
-      <c r="D108" t="str">
-        <v>5900</v>
-      </c>
-      <c r="E108" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F108" t="str">
-        <v>1057841</v>
-      </c>
-      <c r="G108" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H108" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/97c635b0-d76d-11ed-8c3d-8127e1b69a51-644.pdf</v>
-      </c>
-      <c r="I108" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B109" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C109" t="str">
-        <v>TI/351/1-23-24</v>
-      </c>
-      <c r="D109" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E109" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F109" t="str">
-        <v>154459</v>
-      </c>
-      <c r="G109" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H109" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b687beb0-d76d-11ed-8c3d-8127e1b69a51-351.pdf</v>
-      </c>
-      <c r="I109" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B110" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C110" t="str">
-        <v>TI/645/A/23-24</v>
-      </c>
-      <c r="D110" t="str">
-        <v>5900</v>
-      </c>
-      <c r="E110" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F110" t="str">
-        <v>596451</v>
-      </c>
-      <c r="G110" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H110" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8bcd0630-d76d-11ed-8c3d-8127e1b69a51-645.pdf</v>
-      </c>
-      <c r="I110" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B111" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C111" t="str">
-        <v>TI/646/A/23-24</v>
-      </c>
-      <c r="D111" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E111" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F111" t="str">
-        <v>61241</v>
-      </c>
-      <c r="G111" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H111" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/82a482e0-d76d-11ed-8c3d-8127e1b69a51-646.pdf</v>
-      </c>
-      <c r="I111" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B112" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C112" t="str">
-        <v>TI/647/A/23-24</v>
-      </c>
-      <c r="D112" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E112" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F112" t="str">
-        <v>47854</v>
-      </c>
-      <c r="G112" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H112" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/798d3da0-d76d-11ed-8c3d-8127e1b69a51-647.pdf</v>
-      </c>
-      <c r="I112" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B113" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C113" t="str">
-        <v>TI/648/A/23-24</v>
-      </c>
-      <c r="D113" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E113" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F113" t="str">
-        <v>1845</v>
-      </c>
-      <c r="G113" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H113" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6e6010b0-d76d-11ed-8c3d-8127e1b69a51-648.pdf</v>
-      </c>
-      <c r="I113" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B114" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C114" t="str">
-        <v>TI/633/A/23-24</v>
-      </c>
-      <c r="D114" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E114" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F114" t="str">
-        <v>43888</v>
-      </c>
-      <c r="G114" t="str">
-        <v>march 2023</v>
-      </c>
-      <c r="H114" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/62a43850-d76d-11ed-8c3d-8127e1b69a51-633.pdf</v>
-      </c>
-      <c r="I114" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>GPS Office Equipment Private Limited</v>
-      </c>
-      <c r="B115" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C115" t="str">
-        <v>TI/57/G/23-24</v>
-      </c>
-      <c r="D115" t="str">
-        <v>5900</v>
-      </c>
-      <c r="E115" t="str">
-        <v>ILOGGPS001</v>
-      </c>
-      <c r="F115" t="str">
-        <v>75475</v>
-      </c>
-      <c r="G115" t="str">
-        <v>MARCH 2023</v>
-      </c>
-      <c r="H115" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8f454590-d784-11ed-8c3d-8127e1b69a51-57.pdf</v>
-      </c>
-      <c r="I115" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>GPS Office Equipment Private Limited</v>
-      </c>
-      <c r="B116" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C116" t="str">
-        <v>TI/59/G/23-24</v>
-      </c>
-      <c r="D116" t="str">
-        <v>5900</v>
-      </c>
-      <c r="E116" t="str">
-        <v>ILOGGPS001</v>
-      </c>
-      <c r="F116" t="str">
-        <v>452865</v>
-      </c>
-      <c r="G116" t="str">
-        <v>MARCH 2023</v>
-      </c>
-      <c r="H116" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a2611640-d784-11ed-8c3d-8127e1b69a51-59.pdf</v>
-      </c>
-      <c r="I116" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>GPS Office Equipment Private Limited</v>
-      </c>
-      <c r="B117" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C117" t="str">
-        <v>TI/60/G/23-24</v>
-      </c>
-      <c r="D117" t="str">
-        <v>5900</v>
-      </c>
-      <c r="E117" t="str">
-        <v>ILOGGPS001</v>
-      </c>
-      <c r="F117" t="str">
-        <v>383286</v>
-      </c>
-      <c r="G117" t="str">
-        <v>MARCH 2023</v>
-      </c>
-      <c r="H117" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/845fd000-d784-11ed-8c3d-8127e1b69a51-60.pdf</v>
-      </c>
-      <c r="I117" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>GPS Office Equipment Private Limited</v>
-      </c>
-      <c r="B118" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C118" t="str">
-        <v>TI/61/G/23-24</v>
-      </c>
-      <c r="D118" t="str">
-        <v>7455</v>
-      </c>
-      <c r="E118" t="str">
-        <v>ILOGGPS001</v>
-      </c>
-      <c r="F118" t="str">
-        <v>134199</v>
-      </c>
-      <c r="G118" t="str">
-        <v>MARCH 2023</v>
-      </c>
-      <c r="H118" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c3e28290-d784-11ed-8c3d-8127e1b69a51-61.pdf</v>
-      </c>
-      <c r="I118" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>GPS Office Equipment Private Limited</v>
-      </c>
-      <c r="B119" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C119" t="str">
-        <v>TI/63/G/23-24</v>
-      </c>
-      <c r="D119" t="str">
-        <v>5900</v>
-      </c>
-      <c r="E119" t="str">
-        <v>ILOGGPS001</v>
-      </c>
-      <c r="F119" t="str">
-        <v>22065</v>
-      </c>
-      <c r="G119" t="str">
-        <v>MARCH 2023</v>
-      </c>
-      <c r="H119" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7088c5a0-d784-11ed-8c3d-8127e1b69a51-63.pdf</v>
-      </c>
-      <c r="I119" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>GPS Office Equipment Private Limited</v>
-      </c>
-      <c r="B120" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C120" t="str">
-        <v>TI/65/G/23-24</v>
-      </c>
-      <c r="D120" t="str">
-        <v>3540</v>
-      </c>
-      <c r="E120" t="str">
-        <v>ILOGGPS001</v>
-      </c>
-      <c r="F120" t="str">
-        <v>132412</v>
-      </c>
-      <c r="G120" t="str">
-        <v>MARCH 2023</v>
-      </c>
-      <c r="H120" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/67929cf0-d784-11ed-8c3d-8127e1b69a51-65.pdf</v>
-      </c>
-      <c r="I120" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>GPS Office Equipment Private Limited</v>
-      </c>
-      <c r="B121" t="str">
-        <v>2023-04-01</v>
-      </c>
-      <c r="C121" t="str">
-        <v>TI/67/G/23-24</v>
-      </c>
-      <c r="D121" t="str">
-        <v>4130</v>
-      </c>
-      <c r="E121" t="str">
-        <v>ILOGGPS001</v>
-      </c>
-      <c r="F121" t="str">
-        <v>25432</v>
-      </c>
-      <c r="G121" t="str">
-        <v>MARCH 2023</v>
-      </c>
-      <c r="H121" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/5c7e0110-d784-11ed-8c3d-8127e1b69a51-67.pdf</v>
-      </c>
-      <c r="I121" t="str">
         <v>Y</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I121"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I98"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/outstanding.xlsx
+++ b/outstanding.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,144 +433,144 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Advaitha Technogies</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B2" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-03</v>
       </c>
       <c r="C2" t="str">
-        <v>Adv/ 1838</v>
+        <v>BM2406I000074736</v>
       </c>
       <c r="D2" t="str">
-        <v>9676</v>
+        <v>10467</v>
       </c>
       <c r="E2" t="str">
-        <v>ILOGADV001</v>
+        <v>1307035590</v>
       </c>
       <c r="F2" t="str">
         <v/>
       </c>
       <c r="G2" t="str">
-        <v>dec 22</v>
+        <v>02-Mar-2023 to 01-Apr-2023</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6a2f7d00-d786-11ed-8c3d-8127e1b69a51-Bill_BM2406I000074736.pdf</v>
       </c>
       <c r="I2" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Hirezone Systems Private Limited</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B3" t="str">
-        <v>2022-12-02</v>
+        <v>2023-04-27</v>
       </c>
       <c r="C3" t="str">
-        <v>HSPL/RT396/22-23</v>
+        <v>CGPLGST134-2324</v>
       </c>
       <c r="D3" t="str">
-        <v>2124</v>
+        <v>340430</v>
       </c>
       <c r="E3" t="str">
-        <v>ILOGHIREZONE-001</v>
+        <v>CGPL002</v>
       </c>
       <c r="F3" t="str">
         <v/>
       </c>
       <c r="G3" t="str">
-        <v>dec 22</v>
+        <v/>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/17cfbb40-e58e-11ed-9ba7-457f519ee645-ILog_134.pdf</v>
       </c>
       <c r="I3" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>NSS System Services</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B4" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C4" t="str">
-        <v>NSS/22-23/260</v>
+        <v>CGPLGST1204-2223</v>
       </c>
       <c r="D4" t="str">
-        <v>4720</v>
+        <v>295354</v>
       </c>
       <c r="E4" t="str">
-        <v>ILOGNSS001</v>
+        <v>CGPL001</v>
       </c>
       <c r="F4" t="str">
         <v/>
       </c>
       <c r="G4" t="str">
-        <v>DEC22</v>
+        <v>mar 23</v>
       </c>
       <c r="H4" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/1607aef0-e8cf-11ed-8ef1-3975925956e7-ILog_1204.pdf</v>
       </c>
       <c r="I4" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Y Net Communication</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B5" t="str">
-        <v>2022-12-05</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C5" t="str">
-        <v xml:space="preserve"> YNet2022/0502</v>
+        <v>CGPLGST1205-2223</v>
       </c>
       <c r="D5" t="str">
-        <v>5900</v>
+        <v>202635</v>
       </c>
       <c r="E5" t="str">
-        <v>ILOGYNET001</v>
+        <v>CGPL001</v>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>DEC 22</v>
+        <v>mar 23</v>
       </c>
       <c r="H5" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4a6dfd70-e8cf-11ed-8ef1-3975925956e7-ILog_1205_Revised.pdf</v>
       </c>
       <c r="I5" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Shyam Spectra Private Limited</v>
+        <v>Cybernetic Genesis Private Limited</v>
       </c>
       <c r="B6" t="str">
-        <v>2022-12-08</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C6" t="str">
-        <v>BHRI006073/22-23</v>
+        <v>CGPLGST1215-2223</v>
       </c>
       <c r="D6" t="str">
-        <v>13138</v>
+        <v>231923</v>
       </c>
       <c r="E6" t="str">
-        <v>9082431</v>
+        <v>CGPL001</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>DEC22</v>
+        <v>mar23</v>
       </c>
       <c r="H6" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/eec37800-bf2b-11ed-80f1-cb8814d4a67d-pdfds361895759992030563.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7992ede0-e8cf-11ed-8ef1-3975925956e7-ILog_1215.pdf</v>
       </c>
       <c r="I6" t="str">
         <v>Y</v>
@@ -578,437 +578,437 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Onsite Computer Solutions</v>
       </c>
       <c r="B7" t="str">
-        <v>2022-12-01</v>
+        <v>2023-05-02</v>
       </c>
       <c r="C7" t="str">
-        <v xml:space="preserve">	 TI/3671/G/22-23</v>
+        <v>ON/2324/0177</v>
       </c>
       <c r="D7" t="str">
-        <v>5900</v>
+        <v>47908</v>
       </c>
       <c r="E7" t="str">
-        <v>ILOGGPS001</v>
+        <v>ONSITE001</v>
       </c>
       <c r="F7" t="str">
-        <v>392,065</v>
+        <v/>
       </c>
       <c r="G7" t="str">
-        <v>NOV22</v>
+        <v>rent apr 23</v>
       </c>
       <c r="H7" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/36b5a930-e8d0-11ed-8ef1-3975925956e7-AWL Laptop Rent-INV-0177.pdf</v>
       </c>
       <c r="I7" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Aspirant Tech Services</v>
       </c>
       <c r="B8" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-29</v>
       </c>
       <c r="C8" t="str">
-        <v xml:space="preserve">	 TI/3674/G/22-23</v>
+        <v>43/2023-24</v>
       </c>
       <c r="D8" t="str">
-        <v>5900</v>
+        <v>2596</v>
       </c>
       <c r="E8" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGASP001</v>
       </c>
       <c r="F8" t="str">
-        <v xml:space="preserve">336,839	</v>
+        <v/>
       </c>
       <c r="G8" t="str">
-        <v>NOV22</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6d7f7ea0-e8da-11ed-8ef1-3975925956e7-ATS0001.pdf</v>
       </c>
       <c r="I8" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B9" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-28</v>
       </c>
       <c r="C9" t="str">
-        <v xml:space="preserve">	 TI/3669/G/22-23</v>
+        <v>BF2324/010</v>
       </c>
       <c r="D9" t="str">
-        <v>5900</v>
+        <v>5253</v>
       </c>
       <c r="E9" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F9" t="str">
-        <v>62,130</v>
+        <v/>
       </c>
       <c r="G9" t="str">
-        <v>NOV22</v>
+        <v>apr23</v>
       </c>
       <c r="H9" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/129b6b80-e97e-11ed-8ef1-3975925956e7-010 broadbill.pdf</v>
       </c>
       <c r="I9" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B10" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-28</v>
       </c>
       <c r="C10" t="str">
-        <v xml:space="preserve">	 TI/3681/G/22-23</v>
+        <v>BR2324/APR14</v>
       </c>
       <c r="D10" t="str">
-        <v>4972</v>
+        <v>5310</v>
       </c>
       <c r="E10" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F10" t="str">
-        <v>112,264</v>
+        <v/>
       </c>
       <c r="G10" t="str">
-        <v>NOV22</v>
+        <v>APR23</v>
       </c>
       <c r="H10" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3d8c9d50-e97e-11ed-8ef1-3975925956e7-apr14broadbill.pdf</v>
       </c>
       <c r="I10" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Shyam Spectra Private Limited</v>
       </c>
       <c r="B11" t="str">
-        <v>2022-12-01</v>
+        <v>2023-05-08</v>
       </c>
       <c r="C11" t="str">
-        <v xml:space="preserve">	 TI/3922/G/22-23</v>
+        <v>BHRI001817/23-24</v>
       </c>
       <c r="D11" t="str">
-        <v>4130</v>
+        <v>13138.12</v>
       </c>
       <c r="E11" t="str">
-        <v>ILOGGPS001</v>
+        <v>9082431</v>
       </c>
       <c r="F11" t="str">
-        <v xml:space="preserve">20,700	</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>NOV22</v>
+        <v>may 23</v>
       </c>
       <c r="H11" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e5bb74d0-ed69-11ed-9441-6183f7476387-pdfds5665917374004294976.pdf</v>
       </c>
       <c r="I11" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Yotta Infrastructure Solutions LLP</v>
       </c>
       <c r="B12" t="str">
-        <v>2022-12-01</v>
+        <v>2023-05-16</v>
       </c>
       <c r="C12" t="str">
-        <v xml:space="preserve">	 TI/3679/G/22-23</v>
+        <v>IYP2710999</v>
       </c>
       <c r="D12" t="str">
-        <v>5900</v>
+        <v>12000</v>
       </c>
       <c r="E12" t="str">
-        <v>ILOGGPS001</v>
+        <v>13348</v>
       </c>
       <c r="F12" t="str">
-        <v>16,102</v>
+        <v/>
       </c>
       <c r="G12" t="str">
-        <v>NOV22</v>
+        <v>APR TO NOV 2023</v>
       </c>
       <c r="H12" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/17891e00-f534-11ed-88d9-876bfbcf3592-INV_IYP2710999.PDF</v>
       </c>
       <c r="I12" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Sify Technologies Limited</v>
       </c>
       <c r="B13" t="str">
-        <v>2022-12-01</v>
+        <v>2023-05-13</v>
       </c>
       <c r="C13" t="str">
-        <v xml:space="preserve">	 TI/3678/G/22-23</v>
+        <v>INMH232744</v>
       </c>
       <c r="D13" t="str">
-        <v>5900</v>
+        <v>27641</v>
       </c>
       <c r="E13" t="str">
-        <v>ILOGGPS001</v>
+        <v>413494</v>
       </c>
       <c r="F13" t="str">
-        <v xml:space="preserve">94,160	</v>
+        <v/>
       </c>
       <c r="G13" t="str">
-        <v>NOV22</v>
+        <v>May to AUG 2023</v>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c8b8e960-f54a-11ed-88d9-876bfbcf3592-INMH232744_.pdf</v>
       </c>
       <c r="I13" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Fretron Private Limited</v>
       </c>
       <c r="B14" t="str">
-        <v>2022-12-01</v>
+        <v>2023-02-01</v>
       </c>
       <c r="C14" t="str">
-        <v xml:space="preserve">	 TI/8289/A/22-23</v>
+        <v>FPL/2022-23/869</v>
       </c>
       <c r="D14" t="str">
-        <v>5900</v>
+        <v>9166</v>
       </c>
       <c r="E14" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGFRETRON</v>
       </c>
       <c r="F14" t="str">
-        <v>211,670</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>NOV22</v>
+        <v>Trip Tracking - May 2023</v>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c1a5c6a0-f54c-11ed-88d9-876bfbcf3592-FPL_2022-23_869_Signed.pdf</v>
       </c>
       <c r="I14" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Microsoft Corporation (India) Private Limited</v>
       </c>
       <c r="B15" t="str">
-        <v>2022-12-01</v>
+        <v>2023-05-17</v>
       </c>
       <c r="C15" t="str">
-        <v>TI/8288/A/22-23</v>
+        <v>E0600NFD8Q</v>
       </c>
       <c r="D15" t="str">
-        <v>2950</v>
+        <v>1341.57</v>
       </c>
       <c r="E15" t="str">
-        <v>ILOGAONE001</v>
+        <v>8004402038</v>
       </c>
       <c r="F15" t="str">
-        <v>156,486</v>
+        <v/>
       </c>
       <c r="G15" t="str">
-        <v>NOV22</v>
+        <v xml:space="preserve">17/04/2023 - 16/05/2023 </v>
       </c>
       <c r="H15" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8696bee0-f56d-11ed-88d9-876bfbcf3592-Invoice_202306.pdf</v>
       </c>
       <c r="I15" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Y Net Communication</v>
       </c>
       <c r="B16" t="str">
-        <v>2022-12-01</v>
+        <v>2023-05-12</v>
       </c>
       <c r="C16" t="str">
-        <v xml:space="preserve">	 TI/8286/A/22-23</v>
+        <v>YNet2023/0085</v>
       </c>
       <c r="D16" t="str">
-        <v>2950</v>
+        <v>5900</v>
       </c>
       <c r="E16" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGYNET001</v>
       </c>
       <c r="F16" t="str">
-        <v>132,632</v>
+        <v/>
       </c>
       <c r="G16" t="str">
-        <v>NOV22</v>
+        <v>Bill of may month 2023</v>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/789d5c10-f63d-11ed-9889-cfd5f1aefaed-Ilog Solution.pdf</v>
       </c>
       <c r="I16" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B17" t="str">
-        <v>2022-12-01</v>
+        <v>2023-05-24</v>
       </c>
       <c r="C17" t="str">
-        <v xml:space="preserve">	 TI/8285/A/22-23</v>
+        <v>HRI0505366386773</v>
       </c>
       <c r="D17" t="str">
-        <v>2950</v>
+        <v>470.82</v>
       </c>
       <c r="E17" t="str">
-        <v>ILOGAONE001</v>
+        <v>167933548</v>
       </c>
       <c r="F17" t="str">
-        <v>139,127</v>
+        <v/>
       </c>
       <c r="G17" t="str">
-        <v>NOV22</v>
+        <v xml:space="preserve">24.04.23 to 23.05.23 </v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f5fad070-fac5-11ed-9889-cfd5f1aefaed-167924255-20230524.pdf</v>
       </c>
       <c r="I17" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B18" t="str">
-        <v>2022-12-01</v>
+        <v>2023-05-24</v>
       </c>
       <c r="C18" t="str">
-        <v xml:space="preserve">	 TI/8744/A/22-23</v>
+        <v>HRI0505366376788</v>
       </c>
       <c r="D18" t="str">
-        <v>5900</v>
+        <v>1588.66</v>
       </c>
       <c r="E18" t="str">
-        <v>ILOGAONE001</v>
+        <v>13838424</v>
       </c>
       <c r="F18" t="str">
-        <v xml:space="preserve">	1,481,101</v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v>NOV22</v>
+        <v>24.04.23 to 23.05.23</v>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b0d04af0-fac7-11ed-9889-cfd5f1aefaed-138384824-20230524.pdf</v>
       </c>
       <c r="I18" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B19" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-01</v>
       </c>
       <c r="C19" t="str">
-        <v xml:space="preserve">	 TI/8745/A/22-23</v>
+        <v>TI/5323/G/22-23</v>
       </c>
       <c r="D19" t="str">
-        <v>5900</v>
+        <v>4130</v>
       </c>
       <c r="E19" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F19" t="str">
-        <v>440,101</v>
+        <v>25052</v>
       </c>
       <c r="G19" t="str">
-        <v>NOV22</v>
+        <v>march 23</v>
       </c>
       <c r="H19" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/923a9030-c86f-11ed-a9ad-1df920e10020-5323.pdf</v>
       </c>
       <c r="I19" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Brill Infotech</v>
       </c>
       <c r="B20" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-28</v>
       </c>
       <c r="C20" t="str">
-        <v xml:space="preserve">	 TI/8747/A/22-23</v>
+        <v>56</v>
       </c>
       <c r="D20" t="str">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="E20" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBRILL001</v>
       </c>
       <c r="F20" t="str">
-        <v>1,007,277</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v>NOV22</v>
+        <v/>
       </c>
       <c r="H20" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/fbee5760-ee57-11ed-9441-6183f7476387-Invoice56.pdf</v>
       </c>
       <c r="I20" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Aspirant Tech Services</v>
       </c>
       <c r="B21" t="str">
-        <v>2022-12-01</v>
+        <v>2023-03-27</v>
       </c>
       <c r="C21" t="str">
-        <v xml:space="preserve">	 TI/8750/A/22-23</v>
+        <v>57/2022-23</v>
       </c>
       <c r="D21" t="str">
-        <v>3433</v>
+        <v>2596</v>
       </c>
       <c r="E21" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGASP001</v>
       </c>
       <c r="F21" t="str">
-        <v>47,651</v>
+        <v/>
       </c>
       <c r="G21" t="str">
-        <v>NOV22</v>
+        <v/>
       </c>
       <c r="H21" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0a1a9e90-cd5e-11ed-99bc-5756c144ba05-awl march.pdf</v>
       </c>
       <c r="I21" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="22">
@@ -1016,10 +1016,10 @@
         <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B22" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C22" t="str">
-        <v xml:space="preserve">	 TI/8752/A/22-23</v>
+        <v>TI/354/1-23-24</v>
       </c>
       <c r="D22" t="str">
         <v>2950</v>
@@ -1028,129 +1028,129 @@
         <v>ILOGAONE001</v>
       </c>
       <c r="F22" t="str">
-        <v>42,984</v>
+        <v>190214</v>
       </c>
       <c r="G22" t="str">
-        <v>NOV22</v>
+        <v>march 2023</v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d668c170-d76d-11ed-8c3d-8127e1b69a51-354.pdf</v>
       </c>
       <c r="I22" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B23" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-03</v>
       </c>
       <c r="C23" t="str">
-        <v xml:space="preserve">	 TI/8898/A/22-23</v>
+        <v>HT2406I000007378</v>
       </c>
       <c r="D23" t="str">
-        <v>9794</v>
+        <v>1371</v>
       </c>
       <c r="E23" t="str">
-        <v>ILOGAONE001</v>
+        <v>7023500364</v>
       </c>
       <c r="F23" t="str">
-        <v>122,990</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>NOV22</v>
+        <v>02-Mar-2023 to 01-Apr-2023</v>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e8dc3ae0-d1e0-11ed-865d-39c972c28ff9-Epronto Invoice.pdf</v>
       </c>
       <c r="I23" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>BS Services</v>
       </c>
       <c r="B24" t="str">
-        <v>2022-12-01</v>
+        <v>2023-04-03</v>
       </c>
       <c r="C24" t="str">
-        <v xml:space="preserve">	 TI/8749/A/22-23</v>
+        <v>549</v>
       </c>
       <c r="D24" t="str">
-        <v>5900</v>
+        <v>12250</v>
       </c>
       <c r="E24" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBS001</v>
       </c>
       <c r="F24" t="str">
-        <v xml:space="preserve">	1,037,011</v>
+        <v/>
       </c>
       <c r="G24" t="str">
-        <v>NOV22</v>
+        <v>march 2023</v>
       </c>
       <c r="H24" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9f48c3a0-d2ab-11ed-ac04-7b51279827d9-Awl Bill April 2023.pdf</v>
       </c>
       <c r="I24" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Shyam Spectra Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B25" t="str">
-        <v>2023-03-08</v>
+        <v>2023-04-07</v>
       </c>
       <c r="C25" t="str">
-        <v>BHRI008380/22-23</v>
+        <v>BBL292404B002268</v>
       </c>
       <c r="D25" t="str">
-        <v>12784</v>
+        <v>17700</v>
       </c>
       <c r="E25" t="str">
-        <v>9082431</v>
+        <v>31-40011108</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v/>
+        <v>01-Apr-2023 to 30-Jun-2023</v>
       </c>
       <c r="H25" t="str">
-        <v/>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d89910f0-d757-11ed-8c3d-8127e1b69a51-21-100031981-BBL292404B002268-BW-07-Apr-2023.pdf</v>
       </c>
       <c r="I25" t="str">
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Brill Infotech</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B26" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C26" t="str">
-        <v>54</v>
+        <v>TI/352/1-23-24</v>
       </c>
       <c r="D26" t="str">
-        <v>30000</v>
+        <v>2950</v>
       </c>
       <c r="E26" t="str">
-        <v>ILOGBRILL001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F26" t="str">
-        <v/>
+        <v>140962</v>
       </c>
       <c r="G26" t="str">
-        <v>feb23 frontend</v>
+        <v>march 2023</v>
       </c>
       <c r="H26" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/cc030c80-c21f-11ed-b51d-c12cf526ba04-Invoice # 54.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c7c50b60-d76d-11ed-8c3d-8127e1b69a51-352.pdf</v>
       </c>
       <c r="I26" t="str">
         <v>Y</v>
@@ -1158,28 +1158,28 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Brill Infotech</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B27" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C27" t="str">
-        <v>55</v>
+        <v>TI/642/A/23-24</v>
       </c>
       <c r="D27" t="str">
-        <v>30000</v>
+        <v>10372</v>
       </c>
       <c r="E27" t="str">
-        <v>ILOGBRILL001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F27" t="str">
-        <v/>
+        <v>145900</v>
       </c>
       <c r="G27" t="str">
-        <v>march 23 frontend</v>
+        <v>march 2023</v>
       </c>
       <c r="H27" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d6c14b00-c21f-11ed-b51d-c12cf526ba04-Invoice # 55.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ab9eedc0-d76d-11ed-8c3d-8127e1b69a51-642.pdf</v>
       </c>
       <c r="I27" t="str">
         <v>Y</v>
@@ -1187,28 +1187,28 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Trackfins India</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B28" t="str">
-        <v>2023-03-18</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C28" t="str">
-        <v>TFI/UP/850/22-23</v>
+        <v>TI/643/A/23-24</v>
       </c>
       <c r="D28" t="str">
-        <v>3770</v>
+        <v>5900</v>
       </c>
       <c r="E28" t="str">
-        <v>TRACKFINS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F28" t="str">
-        <v/>
+        <v>166302</v>
       </c>
       <c r="G28" t="str">
-        <v>BARCODE LABEL</v>
+        <v>march 2023</v>
       </c>
       <c r="H28" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/be199070-c6da-11ed-88be-55eecdb96ac0-trackfins india0001.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a0eae870-d76d-11ed-8c3d-8127e1b69a51-643.pdf</v>
       </c>
       <c r="I28" t="str">
         <v>Y</v>
@@ -1216,28 +1216,28 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B29" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C29" t="str">
-        <v>TI/5317/G/22-23</v>
+        <v>TI/644/A/23-24</v>
       </c>
       <c r="D29" t="str">
         <v>5900</v>
       </c>
       <c r="E29" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F29" t="str">
-        <v>71490</v>
+        <v>1057841</v>
       </c>
       <c r="G29" t="str">
-        <v>march 23</v>
+        <v>march 2023</v>
       </c>
       <c r="H29" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0dabc780-c86f-11ed-a9ad-1df920e10020-5317.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/97c635b0-d76d-11ed-8c3d-8127e1b69a51-644.pdf</v>
       </c>
       <c r="I29" t="str">
         <v>Y</v>
@@ -1245,28 +1245,28 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B30" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C30" t="str">
-        <v>TI/5318/G/22-23</v>
+        <v>TI/351/1-23-24</v>
       </c>
       <c r="D30" t="str">
-        <v>9151</v>
+        <v>2950</v>
       </c>
       <c r="E30" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F30" t="str">
-        <v>452865</v>
+        <v>154459</v>
       </c>
       <c r="G30" t="str">
-        <v>march 23</v>
+        <v>march 2023</v>
       </c>
       <c r="H30" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2944c050-c86f-11ed-a9ad-1df920e10020-5318.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b687beb0-d76d-11ed-8c3d-8127e1b69a51-351.pdf</v>
       </c>
       <c r="I30" t="str">
         <v>Y</v>
@@ -1274,28 +1274,28 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B31" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C31" t="str">
-        <v>TI/5319/G/22-23</v>
+        <v>TI/645/A/23-24</v>
       </c>
       <c r="D31" t="str">
         <v>5900</v>
       </c>
       <c r="E31" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F31" t="str">
-        <v>373772</v>
+        <v>596451</v>
       </c>
       <c r="G31" t="str">
-        <v>march 23</v>
+        <v>march 2023</v>
       </c>
       <c r="H31" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/51bfc200-c86f-11ed-a9ad-1df920e10020-5319.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8bcd0630-d76d-11ed-8c3d-8127e1b69a51-645.pdf</v>
       </c>
       <c r="I31" t="str">
         <v>Y</v>
@@ -1303,28 +1303,28 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B32" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C32" t="str">
-        <v>TI/5320/G/22-23</v>
+        <v>TI/646/A/23-24</v>
       </c>
       <c r="D32" t="str">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="E32" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F32" t="str">
-        <v>118905</v>
+        <v>61241</v>
       </c>
       <c r="G32" t="str">
-        <v>march 23</v>
+        <v>march 2023</v>
       </c>
       <c r="H32" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6155a040-c86f-11ed-a9ad-1df920e10020-5320.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/82a482e0-d76d-11ed-8c3d-8127e1b69a51-646.pdf</v>
       </c>
       <c r="I32" t="str">
         <v>Y</v>
@@ -1332,28 +1332,28 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B33" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C33" t="str">
-        <v>TI/5321/G/22-23</v>
+        <v>TI/647/A/23-24</v>
       </c>
       <c r="D33" t="str">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="E33" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F33" t="str">
-        <v>20689</v>
+        <v>47854</v>
       </c>
       <c r="G33" t="str">
-        <v>march 23</v>
+        <v>march 2023</v>
       </c>
       <c r="H33" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/740c4680-c86f-11ed-a9ad-1df920e10020-5321.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/798d3da0-d76d-11ed-8c3d-8127e1b69a51-647.pdf</v>
       </c>
       <c r="I33" t="str">
         <v>Y</v>
@@ -1361,28 +1361,28 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B34" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C34" t="str">
-        <v>TI/5322/G/22-23</v>
+        <v>TI/648/A/23-24</v>
       </c>
       <c r="D34" t="str">
-        <v>3540</v>
+        <v>2950</v>
       </c>
       <c r="E34" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F34" t="str">
-        <v>127868</v>
+        <v>1845</v>
       </c>
       <c r="G34" t="str">
-        <v>march 23</v>
+        <v>march 2023</v>
       </c>
       <c r="H34" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/836a72f0-c86f-11ed-a9ad-1df920e10020-5322.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6e6010b0-d76d-11ed-8c3d-8127e1b69a51-648.pdf</v>
       </c>
       <c r="I34" t="str">
         <v>Y</v>
@@ -1390,28 +1390,28 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B35" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C35" t="str">
-        <v>TI/5323/G/22-23</v>
+        <v>TI/633/A/23-24</v>
       </c>
       <c r="D35" t="str">
-        <v>4130</v>
+        <v>2950</v>
       </c>
       <c r="E35" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="F35" t="str">
-        <v>25052</v>
+        <v>43888</v>
       </c>
       <c r="G35" t="str">
-        <v>march 23</v>
+        <v>march 2023</v>
       </c>
       <c r="H35" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/923a9030-c86f-11ed-a9ad-1df920e10020-5323.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/62a43850-d76d-11ed-8c3d-8127e1b69a51-633.pdf</v>
       </c>
       <c r="I35" t="str">
         <v>Y</v>
@@ -1419,28 +1419,28 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>AAA Rental LLP</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B36" t="str">
-        <v>2023-03-21</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C36" t="str">
-        <v>MUM/22-23/3822</v>
+        <v>TI/57/G/23-24</v>
       </c>
       <c r="D36" t="str">
-        <v>16638</v>
+        <v>5900</v>
       </c>
       <c r="E36" t="str">
-        <v>ILOGAAA</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F36" t="str">
-        <v/>
+        <v>75475</v>
       </c>
       <c r="G36" t="str">
-        <v/>
+        <v>MARCH 2023</v>
       </c>
       <c r="H36" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/5f62b5c0-c973-11ed-8938-5f228c0f7bf5-I-Log Solutions India Pvt. Ltd.-3822 (003).pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8f454590-d784-11ed-8c3d-8127e1b69a51-57.pdf</v>
       </c>
       <c r="I36" t="str">
         <v>Y</v>
@@ -1448,28 +1448,28 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B37" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C37" t="str">
-        <v>TI/12605/22-23</v>
+        <v>TI/59/G/23-24</v>
       </c>
       <c r="D37" t="str">
         <v>5900</v>
       </c>
       <c r="E37" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F37" t="str">
-        <v>1056451</v>
+        <v>452865</v>
       </c>
       <c r="G37" t="str">
-        <v>march23</v>
+        <v>MARCH 2023</v>
       </c>
       <c r="H37" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0f581090-c872-11ed-858e-a1fdbe3cb3b2-12605.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a2611640-d784-11ed-8c3d-8127e1b69a51-59.pdf</v>
       </c>
       <c r="I37" t="str">
         <v>Y</v>
@@ -1477,28 +1477,28 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B38" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C38" t="str">
-        <v>TI/12606/22-23</v>
+        <v>TI/60/G/23-24</v>
       </c>
       <c r="D38" t="str">
         <v>5900</v>
       </c>
       <c r="E38" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F38" t="str">
-        <v>594512</v>
+        <v>383286</v>
       </c>
       <c r="G38" t="str">
-        <v>march23</v>
+        <v>MARCH 2023</v>
       </c>
       <c r="H38" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/197e2dc0-c872-11ed-858e-a1fdbe3cb3b2-606.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/845fd000-d784-11ed-8c3d-8127e1b69a51-60.pdf</v>
       </c>
       <c r="I38" t="str">
         <v>Y</v>
@@ -1506,28 +1506,28 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B39" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C39" t="str">
-        <v>TI/12608/22-23</v>
+        <v>TI/61/G/23-24</v>
       </c>
       <c r="D39" t="str">
-        <v>2950</v>
+        <v>7455</v>
       </c>
       <c r="E39" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F39" t="str">
-        <v>59465</v>
+        <v>134199</v>
       </c>
       <c r="G39" t="str">
-        <v>march23</v>
+        <v>MARCH 2023</v>
       </c>
       <c r="H39" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/24290b50-c872-11ed-858e-a1fdbe3cb3b2-608.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c3e28290-d784-11ed-8c3d-8127e1b69a51-61.pdf</v>
       </c>
       <c r="I39" t="str">
         <v>Y</v>
@@ -1535,28 +1535,28 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B40" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C40" t="str">
-        <v>TI/12609/22-23</v>
+        <v>TI/63/G/23-24</v>
       </c>
       <c r="D40" t="str">
-        <v>2950</v>
+        <v>5900</v>
       </c>
       <c r="E40" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F40" t="str">
-        <v>46521</v>
+        <v>22065</v>
       </c>
       <c r="G40" t="str">
-        <v>march23</v>
+        <v>MARCH 2023</v>
       </c>
       <c r="H40" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/311a0850-c872-11ed-858e-a1fdbe3cb3b2-609.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7088c5a0-d784-11ed-8c3d-8127e1b69a51-63.pdf</v>
       </c>
       <c r="I40" t="str">
         <v>Y</v>
@@ -1564,28 +1564,28 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B41" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C41" t="str">
-        <v xml:space="preserve">	 TI/12846/22-23</v>
+        <v>TI/65/G/23-24</v>
       </c>
       <c r="D41" t="str">
-        <v>9346</v>
+        <v>3540</v>
       </c>
       <c r="E41" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F41" t="str">
-        <v>140810</v>
+        <v>132412</v>
       </c>
       <c r="G41" t="str">
-        <v>march23</v>
+        <v>MARCH 2023</v>
       </c>
       <c r="H41" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3a0386d0-c872-11ed-858e-a1fdbe3cb3b2-846.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/67929cf0-d784-11ed-8c3d-8127e1b69a51-65.pdf</v>
       </c>
       <c r="I41" t="str">
         <v>Y</v>
@@ -1593,558 +1593,36 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>GPS Office Equipment Private Limited</v>
       </c>
       <c r="B42" t="str">
-        <v>2023-03-01</v>
+        <v>2023-04-01</v>
       </c>
       <c r="C42" t="str">
-        <v xml:space="preserve">	 TI/12847/22-23</v>
+        <v>TI/67/G/23-24</v>
       </c>
       <c r="D42" t="str">
-        <v>4505</v>
+        <v>4130</v>
       </c>
       <c r="E42" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGGPS001</v>
       </c>
       <c r="F42" t="str">
-        <v>166299</v>
+        <v>25432</v>
       </c>
       <c r="G42" t="str">
-        <v>march23</v>
+        <v>MARCH 2023</v>
       </c>
       <c r="H42" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/435f0100-c872-11ed-858e-a1fdbe3cb3b2-847.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/5c7e0110-d784-11ed-8c3d-8127e1b69a51-67.pdf</v>
       </c>
       <c r="I42" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B43" t="str">
-        <v>2023-03-01</v>
-      </c>
-      <c r="C43" t="str">
-        <v>TI/12185/22-23</v>
-      </c>
-      <c r="D43" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E43" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F43" t="str">
-        <v/>
-      </c>
-      <c r="G43" t="str">
-        <v>m23arch</v>
-      </c>
-      <c r="H43" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/56e0ad80-c874-11ed-858e-a1fdbe3cb3b2-12185.pdf</v>
-      </c>
-      <c r="I43" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B44" t="str">
-        <v>2023-03-01</v>
-      </c>
-      <c r="C44" t="str">
-        <v>TI/12186/22-23</v>
-      </c>
-      <c r="D44" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E44" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F44" t="str">
-        <v/>
-      </c>
-      <c r="G44" t="str">
-        <v>m23arch</v>
-      </c>
-      <c r="H44" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/63c0ba90-c874-11ed-858e-a1fdbe3cb3b2-12186.pdf</v>
-      </c>
-      <c r="I44" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>AONE Copier Services Private Limited</v>
-      </c>
-      <c r="B45" t="str">
-        <v>2023-03-01</v>
-      </c>
-      <c r="C45" t="str">
-        <v>TI/12187/22-23</v>
-      </c>
-      <c r="D45" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E45" t="str">
-        <v>ILOGAONE001</v>
-      </c>
-      <c r="F45" t="str">
-        <v/>
-      </c>
-      <c r="G45" t="str">
-        <v>m23arch</v>
-      </c>
-      <c r="H45" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6dfa11a0-c874-11ed-858e-a1fdbe3cb3b2-12187.pdf</v>
-      </c>
-      <c r="I45" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>AAA Rental LLP</v>
-      </c>
-      <c r="B46" t="str">
-        <v>2023-03-21</v>
-      </c>
-      <c r="C46" t="str">
-        <v>DEL/22-23/3249</v>
-      </c>
-      <c r="D46" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E46" t="str">
-        <v>ILOGAAA</v>
-      </c>
-      <c r="F46" t="str">
-        <v/>
-      </c>
-      <c r="G46" t="str">
-        <v/>
-      </c>
-      <c r="H46" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/2515bd80-cc5d-11ed-9d64-930d8f8cecf0-I-Log Solutions India Pvt. Ltd.-3249.pdf</v>
-      </c>
-      <c r="I46" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>Brill Infotech</v>
-      </c>
-      <c r="B47" t="str">
-        <v>2023-03-28</v>
-      </c>
-      <c r="C47" t="str">
-        <v>56</v>
-      </c>
-      <c r="D47" t="str">
-        <v>6000</v>
-      </c>
-      <c r="E47" t="str">
-        <v>ILOGBRILL001</v>
-      </c>
-      <c r="F47" t="str">
-        <v/>
-      </c>
-      <c r="G47" t="str">
-        <v/>
-      </c>
-      <c r="H47" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/eca61d10-cd5f-11ed-99bc-5756c144ba05-Invoice # 56.pdf</v>
-      </c>
-      <c r="I47" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>Advaitha Technogies</v>
-      </c>
-      <c r="B48" t="str">
-        <v>2023-03-31</v>
-      </c>
-      <c r="C48" t="str">
-        <v>123213</v>
-      </c>
-      <c r="D48" t="str">
-        <v>123123</v>
-      </c>
-      <c r="E48" t="str">
-        <v>ILOGADV001</v>
-      </c>
-      <c r="F48" t="str">
-        <v>321312</v>
-      </c>
-      <c r="G48" t="str">
-        <v>sdwd</v>
-      </c>
-      <c r="H48" t="str">
-        <v>undefined</v>
-      </c>
-      <c r="I48" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>AAA Rental LLP</v>
-      </c>
-      <c r="B49" t="str">
-        <v>2023-02-20</v>
-      </c>
-      <c r="C49" t="str">
-        <v>DEL/22-23/3033</v>
-      </c>
-      <c r="D49" t="str">
-        <v>2950</v>
-      </c>
-      <c r="E49" t="str">
-        <v>ILOGAAA</v>
-      </c>
-      <c r="F49" t="str">
-        <v/>
-      </c>
-      <c r="G49" t="str">
-        <v/>
-      </c>
-      <c r="H49" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8fe15ed0-cc5d-11ed-9d64-930d8f8cecf0-I-Log Solutions India Pvt. Ltd.-3033.pdf</v>
-      </c>
-      <c r="I49" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>Vodafone Idea Limited</v>
-      </c>
-      <c r="B50" t="str">
-        <v>2023-03-24</v>
-      </c>
-      <c r="C50" t="str">
-        <v xml:space="preserve"> HRI0503363689775</v>
-      </c>
-      <c r="D50" t="str">
-        <v>411.82</v>
-      </c>
-      <c r="E50" t="str">
-        <v>167933548</v>
-      </c>
-      <c r="F50" t="str">
-        <v/>
-      </c>
-      <c r="G50" t="str">
-        <v/>
-      </c>
-      <c r="H50" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9628c4c0-cc69-11ed-be17-01867d1771d1-167924255-20230324.pdf</v>
-      </c>
-      <c r="I50" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>Aspirant Tech Services</v>
-      </c>
-      <c r="B51" t="str">
-        <v>2023-03-27</v>
-      </c>
-      <c r="C51" t="str">
-        <v>57/2022-23</v>
-      </c>
-      <c r="D51" t="str">
-        <v>2596</v>
-      </c>
-      <c r="E51" t="str">
-        <v>ILOGASP001</v>
-      </c>
-      <c r="F51" t="str">
-        <v/>
-      </c>
-      <c r="G51" t="str">
-        <v/>
-      </c>
-      <c r="H51" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0a1a9e90-cd5e-11ed-99bc-5756c144ba05-awl march.pdf</v>
-      </c>
-      <c r="I51" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>Brill Infotech</v>
-      </c>
-      <c r="B52" t="str">
-        <v>2023-03-28</v>
-      </c>
-      <c r="C52" t="str">
-        <v>57</v>
-      </c>
-      <c r="D52" t="str">
-        <v>30000</v>
-      </c>
-      <c r="E52" t="str">
-        <v>ILOGBRILL001</v>
-      </c>
-      <c r="F52" t="str">
-        <v/>
-      </c>
-      <c r="G52" t="str">
-        <v>Frontand developer apr 2023</v>
-      </c>
-      <c r="H52" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/1cc88050-cd60-11ed-99bc-5756c144ba05-Invoice # 57 (1).pdf</v>
-      </c>
-      <c r="I52" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>Onsite Computer Solutions</v>
-      </c>
-      <c r="B53" t="str">
-        <v>2023-03-04</v>
-      </c>
-      <c r="C53" t="str">
-        <v>ON/2223/02039</v>
-      </c>
-      <c r="D53" t="str">
-        <v>12272</v>
-      </c>
-      <c r="E53" t="str">
-        <v>ONSITE001</v>
-      </c>
-      <c r="F53" t="str">
-        <v/>
-      </c>
-      <c r="G53" t="str">
-        <v>laptop rent march</v>
-      </c>
-      <c r="H53" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/30417c00-cdeb-11ed-99bc-5756c144ba05-ILOG-INV-02039.pdf</v>
-      </c>
-      <c r="I53" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>Vodafone Idea Limited</v>
-      </c>
-      <c r="B54" t="str">
-        <v>2023-03-28</v>
-      </c>
-      <c r="C54" t="str">
-        <v>HRI0503363750072</v>
-      </c>
-      <c r="D54" t="str">
-        <v>370.46</v>
-      </c>
-      <c r="E54" t="str">
-        <v>165169033</v>
-      </c>
-      <c r="F54" t="str">
-        <v/>
-      </c>
-      <c r="G54" t="str">
-        <v>: 28.02.23 to 27.03.23</v>
-      </c>
-      <c r="H54" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f0673b00-cf94-11ed-b812-13a0ff500976-VIL_bill_9899053605_2023-03-28.pdf</v>
-      </c>
-      <c r="I54" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>AIRTEL</v>
-      </c>
-      <c r="B55" t="str">
-        <v>2023-03-09</v>
-      </c>
-      <c r="C55" t="str">
-        <v>HT2306I004896486</v>
-      </c>
-      <c r="D55" t="str">
-        <v>588.82</v>
-      </c>
-      <c r="E55" t="str">
-        <v>7010625278</v>
-      </c>
-      <c r="F55" t="str">
-        <v/>
-      </c>
-      <c r="G55" t="str">
-        <v/>
-      </c>
-      <c r="H55" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8a35e9e0-cfb6-11ed-b812-13a0ff500976-Bill_HT2306I004896486.pdf</v>
-      </c>
-      <c r="I55" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>AIRTEL</v>
-      </c>
-      <c r="B56" t="str">
-        <v>2023-03-18</v>
-      </c>
-      <c r="C56" t="str">
-        <v>HT2306I005042628</v>
-      </c>
-      <c r="D56" t="str">
-        <v>14160</v>
-      </c>
-      <c r="E56" t="str">
-        <v>7038063008</v>
-      </c>
-      <c r="F56" t="str">
-        <v/>
-      </c>
-      <c r="G56" t="str">
-        <v>17-Feb-2023 to 16-Mar-2023</v>
-      </c>
-      <c r="H56" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4ba55e80-cfc1-11ed-b812-13a0ff500976-Bill_HT2306I005042628.pdf</v>
-      </c>
-      <c r="I56" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>AIRTEL</v>
-      </c>
-      <c r="B57" t="str">
-        <v>2023-03-27</v>
-      </c>
-      <c r="C57" t="str">
-        <v>HT2306I005129030</v>
-      </c>
-      <c r="D57" t="str">
-        <v>295</v>
-      </c>
-      <c r="E57" t="str">
-        <v>7015898062</v>
-      </c>
-      <c r="F57" t="str">
-        <v/>
-      </c>
-      <c r="G57" t="str">
-        <v>26-Feb-2023 to 25-Mar-2023</v>
-      </c>
-      <c r="H57" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/446c4f20-cfc1-11ed-b812-13a0ff500976-Bill_HT2306I005129030.pdf</v>
-      </c>
-      <c r="I57" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>AIRTEL</v>
-      </c>
-      <c r="B58" t="str">
-        <v>2023-03-27</v>
-      </c>
-      <c r="C58" t="str">
-        <v>HT2306I005129031</v>
-      </c>
-      <c r="D58" t="str">
-        <v>295</v>
-      </c>
-      <c r="E58" t="str">
-        <v>7015898060</v>
-      </c>
-      <c r="F58" t="str">
-        <v/>
-      </c>
-      <c r="G58" t="str">
-        <v>26-Feb-2023 to 25-Mar-2023</v>
-      </c>
-      <c r="H58" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3e7eab80-cfc1-11ed-b812-13a0ff500976-Bill_HT2306I005129031.pdf</v>
-      </c>
-      <c r="I58" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>Broadbill Information Systems Private Limited</v>
-      </c>
-      <c r="B59" t="str">
-        <v>2023-03-31</v>
-      </c>
-      <c r="C59" t="str">
-        <v>R2223/MAR13</v>
-      </c>
-      <c r="D59" t="str">
-        <v>5310</v>
-      </c>
-      <c r="E59" t="str">
-        <v>ILOGBROAD001</v>
-      </c>
-      <c r="F59" t="str">
-        <v/>
-      </c>
-      <c r="G59" t="str">
-        <v/>
-      </c>
-      <c r="H59" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7a584be0-cfc4-11ed-b812-13a0ff500976-83368416.pdf</v>
-      </c>
-      <c r="I59" t="str">
-        <v>Y</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>Broadbill Information Systems Private Limited</v>
-      </c>
-      <c r="B60" t="str">
-        <v>2023-03-31</v>
-      </c>
-      <c r="C60" t="str">
-        <v>R2223/MAR11</v>
-      </c>
-      <c r="D60" t="str">
-        <v>5269</v>
-      </c>
-      <c r="E60" t="str">
-        <v>ILOGBROAD001</v>
-      </c>
-      <c r="F60" t="str">
-        <v/>
-      </c>
-      <c r="G60" t="str">
-        <v/>
-      </c>
-      <c r="H60" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/803a08a0-cfc4-11ed-b812-13a0ff500976-march11.pdf</v>
-      </c>
-      <c r="I60" t="str">
         <v>Y</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I60"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I42"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/outstanding.xlsx
+++ b/outstanding.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -694,28 +694,28 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Shyam Spectra Private Limited</v>
+        <v>Yotta Infrastructure Solutions LLP</v>
       </c>
       <c r="B11" t="str">
-        <v>2023-05-08</v>
+        <v>2023-05-16</v>
       </c>
       <c r="C11" t="str">
-        <v>BHRI001817/23-24</v>
+        <v>IYP2710999</v>
       </c>
       <c r="D11" t="str">
-        <v>13138.12</v>
+        <v>12000</v>
       </c>
       <c r="E11" t="str">
-        <v>9082431</v>
+        <v>13348</v>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>may 23</v>
+        <v>APR TO NOV 2023</v>
       </c>
       <c r="H11" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e5bb74d0-ed69-11ed-9441-6183f7476387-pdfds5665917374004294976.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/17891e00-f534-11ed-88d9-876bfbcf3592-INV_IYP2710999.PDF</v>
       </c>
       <c r="I11" t="str">
         <v>Y</v>
@@ -723,28 +723,28 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Yotta Infrastructure Solutions LLP</v>
+        <v>Sify Technologies Limited</v>
       </c>
       <c r="B12" t="str">
-        <v>2023-05-16</v>
+        <v>2023-05-13</v>
       </c>
       <c r="C12" t="str">
-        <v>IYP2710999</v>
+        <v>INMH232744</v>
       </c>
       <c r="D12" t="str">
-        <v>12000</v>
+        <v>27641</v>
       </c>
       <c r="E12" t="str">
-        <v>13348</v>
+        <v>413494</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>APR TO NOV 2023</v>
+        <v>May to AUG 2023</v>
       </c>
       <c r="H12" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/17891e00-f534-11ed-88d9-876bfbcf3592-INV_IYP2710999.PDF</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c8b8e960-f54a-11ed-88d9-876bfbcf3592-INMH232744_.pdf</v>
       </c>
       <c r="I12" t="str">
         <v>Y</v>
@@ -752,28 +752,28 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Sify Technologies Limited</v>
+        <v>Fretron Private Limited</v>
       </c>
       <c r="B13" t="str">
-        <v>2023-05-13</v>
+        <v>2023-02-01</v>
       </c>
       <c r="C13" t="str">
-        <v>INMH232744</v>
+        <v>FPL/2022-23/869</v>
       </c>
       <c r="D13" t="str">
-        <v>27641</v>
+        <v>9166</v>
       </c>
       <c r="E13" t="str">
-        <v>413494</v>
+        <v>ILOGFRETRON</v>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>May to AUG 2023</v>
+        <v>Trip Tracking - May 2023</v>
       </c>
       <c r="H13" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c8b8e960-f54a-11ed-88d9-876bfbcf3592-INMH232744_.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c1a5c6a0-f54c-11ed-88d9-876bfbcf3592-FPL_2022-23_869_Signed.pdf</v>
       </c>
       <c r="I13" t="str">
         <v>Y</v>
@@ -781,28 +781,28 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Fretron Private Limited</v>
+        <v>Microsoft Corporation (India) Private Limited</v>
       </c>
       <c r="B14" t="str">
-        <v>2023-02-01</v>
+        <v>2023-05-17</v>
       </c>
       <c r="C14" t="str">
-        <v>FPL/2022-23/869</v>
+        <v>E0600NFD8Q</v>
       </c>
       <c r="D14" t="str">
-        <v>9166</v>
+        <v>1341.57</v>
       </c>
       <c r="E14" t="str">
-        <v>ILOGFRETRON</v>
+        <v>8004402038</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>Trip Tracking - May 2023</v>
+        <v xml:space="preserve">17/04/2023 - 16/05/2023 </v>
       </c>
       <c r="H14" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c1a5c6a0-f54c-11ed-88d9-876bfbcf3592-FPL_2022-23_869_Signed.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8696bee0-f56d-11ed-88d9-876bfbcf3592-Invoice_202306.pdf</v>
       </c>
       <c r="I14" t="str">
         <v>Y</v>
@@ -810,28 +810,28 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Microsoft Corporation (India) Private Limited</v>
+        <v>Y Net Communication</v>
       </c>
       <c r="B15" t="str">
-        <v>2023-05-17</v>
+        <v>2023-05-12</v>
       </c>
       <c r="C15" t="str">
-        <v>E0600NFD8Q</v>
+        <v>YNet2023/0085</v>
       </c>
       <c r="D15" t="str">
-        <v>1341.57</v>
+        <v>5900</v>
       </c>
       <c r="E15" t="str">
-        <v>8004402038</v>
+        <v>ILOGYNET001</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v xml:space="preserve">17/04/2023 - 16/05/2023 </v>
+        <v>Bill of may month 2023</v>
       </c>
       <c r="H15" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8696bee0-f56d-11ed-88d9-876bfbcf3592-Invoice_202306.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/789d5c10-f63d-11ed-9889-cfd5f1aefaed-Ilog Solution.pdf</v>
       </c>
       <c r="I15" t="str">
         <v>Y</v>
@@ -839,28 +839,28 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Y Net Communication</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B16" t="str">
-        <v>2023-05-12</v>
+        <v>2023-05-24</v>
       </c>
       <c r="C16" t="str">
-        <v>YNet2023/0085</v>
+        <v>HRI0505366376788</v>
       </c>
       <c r="D16" t="str">
-        <v>5900</v>
+        <v>1588.66</v>
       </c>
       <c r="E16" t="str">
-        <v>ILOGYNET001</v>
+        <v>13838424</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>Bill of may month 2023</v>
+        <v>24.04.23 to 23.05.23</v>
       </c>
       <c r="H16" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/789d5c10-f63d-11ed-9889-cfd5f1aefaed-Ilog Solution.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b0d04af0-fac7-11ed-9889-cfd5f1aefaed-138384824-20230524.pdf</v>
       </c>
       <c r="I16" t="str">
         <v>Y</v>
@@ -868,28 +868,28 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>NSS System Services</v>
       </c>
       <c r="B17" t="str">
-        <v>2023-05-24</v>
+        <v>2023-05-01</v>
       </c>
       <c r="C17" t="str">
-        <v>HRI0505366386773</v>
+        <v>NSS/22-23/37</v>
       </c>
       <c r="D17" t="str">
-        <v>470.82</v>
+        <v>4720</v>
       </c>
       <c r="E17" t="str">
-        <v>167933548</v>
+        <v>ILOGNSS001</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v xml:space="preserve">24.04.23 to 23.05.23 </v>
+        <v>Month of april -2023</v>
       </c>
       <c r="H17" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/f5fad070-fac5-11ed-9889-cfd5f1aefaed-167924255-20230524.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0ba3c460-ff97-11ed-b4ce-7bc1e771efb2-nss system may invoice0001.pdf</v>
       </c>
       <c r="I17" t="str">
         <v>Y</v>
@@ -897,28 +897,28 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>AAA Rental LLP</v>
       </c>
       <c r="B18" t="str">
-        <v>2023-05-24</v>
+        <v>2023-05-20</v>
       </c>
       <c r="C18" t="str">
-        <v>HRI0505366376788</v>
+        <v>MUM/23-24/437</v>
       </c>
       <c r="D18" t="str">
-        <v>1588.66</v>
+        <v>16638</v>
       </c>
       <c r="E18" t="str">
-        <v>13838424</v>
+        <v>ILOGAAA</v>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>24.04.23 to 23.05.23</v>
+        <v xml:space="preserve">Rental invoice 22-May-23 to 21-Jun-23 </v>
       </c>
       <c r="H18" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b0d04af0-fac7-11ed-9889-cfd5f1aefaed-138384824-20230524.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/72916300-ffa9-11ed-8ddd-27db57b4d688-I-Log Solutions India Pvt. Ltd.-437.pdf</v>
       </c>
       <c r="I18" t="str">
         <v>Y</v>
@@ -926,28 +926,28 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AAA Rental LLP</v>
       </c>
       <c r="B19" t="str">
-        <v>2023-03-01</v>
+        <v>2023-05-13</v>
       </c>
       <c r="C19" t="str">
-        <v>TI/5323/G/22-23</v>
+        <v>MUM/23-24/392</v>
       </c>
       <c r="D19" t="str">
-        <v>4130</v>
+        <v>1916</v>
       </c>
       <c r="E19" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGAAA</v>
       </c>
       <c r="F19" t="str">
-        <v>25052</v>
+        <v/>
       </c>
       <c r="G19" t="str">
-        <v>march 23</v>
+        <v xml:space="preserve">Rental invoice 12-May-23 to 11-Jun-23 </v>
       </c>
       <c r="H19" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/923a9030-c86f-11ed-a9ad-1df920e10020-5323.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ac291490-ffaa-11ed-8ddd-27db57b4d688-I-Log Solutions India Pvt. Ltd.-392.pdf</v>
       </c>
       <c r="I19" t="str">
         <v>Y</v>
@@ -955,28 +955,28 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Brill Infotech</v>
+        <v>AAA Rental LLP</v>
       </c>
       <c r="B20" t="str">
-        <v>2023-03-28</v>
+        <v>2023-05-20</v>
       </c>
       <c r="C20" t="str">
-        <v>56</v>
+        <v>DEL/23-24/391</v>
       </c>
       <c r="D20" t="str">
-        <v>6000</v>
+        <v>2950</v>
       </c>
       <c r="E20" t="str">
-        <v>ILOGBRILL001</v>
+        <v>ILOGAAA</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v/>
+        <v xml:space="preserve">Rental invoice 22-May-23 to 21-Jun-23 </v>
       </c>
       <c r="H20" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/fbee5760-ee57-11ed-9441-6183f7476387-Invoice56.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/02116ba0-ffab-11ed-8ddd-27db57b4d688-I-Log Solutions India Pvt. Ltd.-391.pdf</v>
       </c>
       <c r="I20" t="str">
         <v>Y</v>
@@ -984,28 +984,28 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Aspirant Tech Services</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B21" t="str">
-        <v>2023-03-27</v>
+        <v>2023-05-31</v>
       </c>
       <c r="C21" t="str">
-        <v>57/2022-23</v>
+        <v>BR2324MAY15</v>
       </c>
       <c r="D21" t="str">
-        <v>2596</v>
+        <v>5654</v>
       </c>
       <c r="E21" t="str">
-        <v>ILOGASP001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v/>
+        <v>Rent of may 2023</v>
       </c>
       <c r="H21" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0a1a9e90-cd5e-11ed-99bc-5756c144ba05-awl march.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6c867690-ffad-11ed-8ddd-27db57b4d688-8416.pdf</v>
       </c>
       <c r="I21" t="str">
         <v>Y</v>
@@ -1013,28 +1013,28 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B22" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-28</v>
       </c>
       <c r="C22" t="str">
-        <v>TI/354/1-23-24</v>
+        <v>HRI0505366435467</v>
       </c>
       <c r="D22" t="str">
-        <v>2950</v>
+        <v>470.10</v>
       </c>
       <c r="E22" t="str">
-        <v>ILOGAONE001</v>
+        <v>165169033</v>
       </c>
       <c r="F22" t="str">
-        <v>190214</v>
+        <v/>
       </c>
       <c r="G22" t="str">
-        <v>march 2023</v>
+        <v xml:space="preserve">Ishan 28.04.23 to 27.05.23 </v>
       </c>
       <c r="H22" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d668c170-d76d-11ed-8c3d-8127e1b69a51-354.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0b2749f0-ffae-11ed-8ddd-27db57b4d688-165157230-20230528.pdf</v>
       </c>
       <c r="I22" t="str">
         <v>Y</v>
@@ -1045,25 +1045,25 @@
         <v>AIRTEL</v>
       </c>
       <c r="B23" t="str">
-        <v>2023-04-03</v>
+        <v>2023-05-27</v>
       </c>
       <c r="C23" t="str">
-        <v>HT2406I000007378</v>
+        <v>HT2406I000905581</v>
       </c>
       <c r="D23" t="str">
-        <v>1371</v>
+        <v>295</v>
       </c>
       <c r="E23" t="str">
-        <v>7023500364</v>
+        <v>7015898062</v>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>02-Mar-2023 to 01-Apr-2023</v>
+        <v>Invoice 26-Apr-2023 to 25-May-2023</v>
       </c>
       <c r="H23" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e8dc3ae0-d1e0-11ed-865d-39c972c28ff9-Epronto Invoice.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ca8c7b30-ffae-11ed-8ddd-27db57b4d688-70158XXXXX_956439289_5_2023.pdf</v>
       </c>
       <c r="I23" t="str">
         <v>Y</v>
@@ -1071,28 +1071,28 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>BS Services</v>
+        <v>Advaitha Technogies</v>
       </c>
       <c r="B24" t="str">
-        <v>2023-04-03</v>
+        <v>2023-06-01</v>
       </c>
       <c r="C24" t="str">
-        <v>549</v>
+        <v>Adv/ 98</v>
       </c>
       <c r="D24" t="str">
-        <v>12250</v>
+        <v>8142</v>
       </c>
       <c r="E24" t="str">
-        <v>ILOGBS001</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="F24" t="str">
         <v/>
       </c>
       <c r="G24" t="str">
-        <v>march 2023</v>
+        <v>LAPTOP DESKTOP RENT MAY 2023</v>
       </c>
       <c r="H24" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9f48c3a0-d2ab-11ed-ac04-7b51279827d9-Awl Bill April 2023.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e2e82510-0037-11ee-8ddd-27db57b4d688-ILOG 98.pdf</v>
       </c>
       <c r="I24" t="str">
         <v>Y</v>
@@ -1100,28 +1100,28 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>AIRTEL</v>
+        <v>Alok Computers</v>
       </c>
       <c r="B25" t="str">
-        <v>2023-04-07</v>
+        <v>2023-05-31</v>
       </c>
       <c r="C25" t="str">
-        <v>BBL292404B002268</v>
+        <v>00056</v>
       </c>
       <c r="D25" t="str">
-        <v>17700</v>
+        <v>1770</v>
       </c>
       <c r="E25" t="str">
-        <v>31-40011108</v>
+        <v>ILOGALOK001</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>01-Apr-2023 to 30-Jun-2023</v>
+        <v>Printer rent may 2023</v>
       </c>
       <c r="H25" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d89910f0-d757-11ed-8c3d-8127e1b69a51-21-100031981-BBL292404B002268-BW-07-Apr-2023.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/419b9d30-0038-11ee-8ddd-27db57b4d688-ilog.pdf</v>
       </c>
       <c r="I25" t="str">
         <v>Y</v>
@@ -1129,28 +1129,28 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B26" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-21</v>
       </c>
       <c r="C26" t="str">
-        <v>TI/352/1-23-24</v>
+        <v>BM2406I000951457</v>
       </c>
       <c r="D26" t="str">
-        <v>2950</v>
+        <v>884</v>
       </c>
       <c r="E26" t="str">
-        <v>ILOGAONE001</v>
+        <v>102-100038465</v>
       </c>
       <c r="F26" t="str">
-        <v>140962</v>
+        <v/>
       </c>
       <c r="G26" t="str">
-        <v>march 2023</v>
+        <v>20 Apr 2023-19 May 2023</v>
       </c>
       <c r="H26" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c7c50b60-d76d-11ed-8c3d-8127e1b69a51-352.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3bc74cf0-0043-11ee-8ddd-27db57b4d688-102-100038465_943582754_98102XXXXX_5_2023.pdf</v>
       </c>
       <c r="I26" t="str">
         <v>Y</v>
@@ -1158,28 +1158,28 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>JB Computers</v>
       </c>
       <c r="B27" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-06</v>
       </c>
       <c r="C27" t="str">
-        <v>TI/642/A/23-24</v>
+        <v>19</v>
       </c>
       <c r="D27" t="str">
-        <v>10372</v>
+        <v>20414</v>
       </c>
       <c r="E27" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGJB001</v>
       </c>
       <c r="F27" t="str">
-        <v>145900</v>
+        <v/>
       </c>
       <c r="G27" t="str">
-        <v>march 2023</v>
+        <v>Desktop rent may 2023</v>
       </c>
       <c r="H27" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ab9eedc0-d76d-11ed-8c3d-8127e1b69a51-642.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ea62c8f0-0045-11ee-8ddd-27db57b4d688-MAY-2023.pdf</v>
       </c>
       <c r="I27" t="str">
         <v>Y</v>
@@ -1187,28 +1187,28 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Hirezone Systems Private Limited</v>
       </c>
       <c r="B28" t="str">
-        <v>2023-04-01</v>
+        <v>2023-06-01</v>
       </c>
       <c r="C28" t="str">
-        <v>TI/643/A/23-24</v>
+        <v>HSPL/RT116/23-24</v>
       </c>
       <c r="D28" t="str">
-        <v>5900</v>
+        <v>2124</v>
       </c>
       <c r="E28" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGHIREZONE-001</v>
       </c>
       <c r="F28" t="str">
-        <v>166302</v>
+        <v/>
       </c>
       <c r="G28" t="str">
-        <v>march 2023</v>
+        <v>Desktop rent june 2023</v>
       </c>
       <c r="H28" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a0eae870-d76d-11ed-8c3d-8127e1b69a51-643.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/4e0c2e80-0057-11ee-8ddd-27db57b4d688-InvoiceHSPLRT11623-24_ILOG SOLUTIONS INDIA PVT LTDORIGINAL FOR RECIPIENT.pdf</v>
       </c>
       <c r="I28" t="str">
         <v>Y</v>
@@ -1216,28 +1216,28 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Fretron Private Limited</v>
       </c>
       <c r="B29" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-30</v>
       </c>
       <c r="C29" t="str">
-        <v>TI/644/A/23-24</v>
+        <v>FPL/2023-24/0216</v>
       </c>
       <c r="D29" t="str">
-        <v>5900</v>
+        <v>7074</v>
       </c>
       <c r="E29" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGFRETRON</v>
       </c>
       <c r="F29" t="str">
-        <v>1057841</v>
+        <v/>
       </c>
       <c r="G29" t="str">
-        <v>march 2023</v>
+        <v>Rental may 2023</v>
       </c>
       <c r="H29" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/97c635b0-d76d-11ed-8c3d-8127e1b69a51-644.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ebb9fad0-0111-11ee-8ddd-27db57b4d688-FPL2023-240216.pdf</v>
       </c>
       <c r="I29" t="str">
         <v>Y</v>
@@ -1245,28 +1245,28 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>BS Services</v>
       </c>
       <c r="B30" t="str">
-        <v>2023-04-01</v>
+        <v>2023-06-01</v>
       </c>
       <c r="C30" t="str">
-        <v>TI/351/1-23-24</v>
+        <v>576</v>
       </c>
       <c r="D30" t="str">
-        <v>2950</v>
+        <v>9322</v>
       </c>
       <c r="E30" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBS001</v>
       </c>
       <c r="F30" t="str">
-        <v>154459</v>
+        <v/>
       </c>
       <c r="G30" t="str">
-        <v>march 2023</v>
+        <v>Rental may 2023</v>
       </c>
       <c r="H30" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b687beb0-d76d-11ed-8c3d-8127e1b69a51-351.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/70b30b50-0144-11ee-97ed-b7f4ed4de0e7-bs service may 23 invoice0001.pdf</v>
       </c>
       <c r="I30" t="str">
         <v>Y</v>
@@ -1274,28 +1274,28 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B31" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-31</v>
       </c>
       <c r="C31" t="str">
-        <v>TI/645/A/23-24</v>
+        <v>BR2324MAY26</v>
       </c>
       <c r="D31" t="str">
-        <v>5900</v>
+        <v>5310</v>
       </c>
       <c r="E31" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="F31" t="str">
-        <v>596451</v>
+        <v/>
       </c>
       <c r="G31" t="str">
-        <v>march 2023</v>
+        <v>pRINTER RENT MAY 2023</v>
       </c>
       <c r="H31" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8bcd0630-d76d-11ed-8c3d-8127e1b69a51-645.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ad3b4d20-0145-11ee-97ed-b7f4ed4de0e7-8336.pdf</v>
       </c>
       <c r="I31" t="str">
         <v>Y</v>
@@ -1303,28 +1303,28 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B32" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-31</v>
       </c>
       <c r="C32" t="str">
-        <v>TI/646/A/23-24</v>
+        <v>INV-001703</v>
       </c>
       <c r="D32" t="str">
-        <v>2950</v>
+        <v>64503</v>
       </c>
       <c r="E32" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F32" t="str">
-        <v>61241</v>
+        <v/>
       </c>
       <c r="G32" t="str">
-        <v>march 2023</v>
+        <v>Anyspaze May 2023</v>
       </c>
       <c r="H32" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/82a482e0-d76d-11ed-8c3d-8127e1b69a51-646.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d5032700-01eb-11ee-97ed-b7f4ed4de0e7-INV-001703.pdf</v>
       </c>
       <c r="I32" t="str">
         <v>Y</v>
@@ -1332,28 +1332,28 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B33" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-31</v>
       </c>
       <c r="C33" t="str">
-        <v>TI/647/A/23-24</v>
+        <v>INV-001702</v>
       </c>
       <c r="D33" t="str">
-        <v>2950</v>
+        <v>40270</v>
       </c>
       <c r="E33" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F33" t="str">
-        <v>47854</v>
+        <v/>
       </c>
       <c r="G33" t="str">
-        <v>march 2023</v>
+        <v>AWL SEO USA May 2023</v>
       </c>
       <c r="H33" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/798d3da0-d76d-11ed-8c3d-8127e1b69a51-647.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/fd355fe0-01eb-11ee-97ed-b7f4ed4de0e7-INV-001702.pdf</v>
       </c>
       <c r="I33" t="str">
         <v>Y</v>
@@ -1361,28 +1361,28 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B34" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-31</v>
       </c>
       <c r="C34" t="str">
-        <v>TI/648/A/23-24</v>
+        <v xml:space="preserve"> INV-001704</v>
       </c>
       <c r="D34" t="str">
-        <v>2950</v>
+        <v>144230</v>
       </c>
       <c r="E34" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="F34" t="str">
-        <v>1845</v>
+        <v/>
       </c>
       <c r="G34" t="str">
-        <v>march 2023</v>
+        <v>AWL SEO May 2023</v>
       </c>
       <c r="H34" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6e6010b0-d76d-11ed-8c3d-8127e1b69a51-648.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3c21ecf0-01ec-11ee-97ed-b7f4ed4de0e7-INV-001704.pdf</v>
       </c>
       <c r="I34" t="str">
         <v>Y</v>
@@ -1390,28 +1390,28 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>MM Computer Communication</v>
       </c>
       <c r="B35" t="str">
-        <v>2023-04-01</v>
+        <v>2023-06-01</v>
       </c>
       <c r="C35" t="str">
-        <v>TI/633/A/23-24</v>
+        <v>MM/23-24/2927</v>
       </c>
       <c r="D35" t="str">
-        <v>2950</v>
+        <v>136290</v>
       </c>
       <c r="E35" t="str">
-        <v>ILOGAONE001</v>
+        <v>ILOGMM001</v>
       </c>
       <c r="F35" t="str">
-        <v>43888</v>
+        <v/>
       </c>
       <c r="G35" t="str">
-        <v>march 2023</v>
+        <v>Laptop rent mar 2023</v>
       </c>
       <c r="H35" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/62a43850-d76d-11ed-8c3d-8127e1b69a51-633.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/44aa1c20-01ed-11ee-97ed-b7f4ed4de0e7-2927  ILOG SOLUTIONS INDIA PRIVATE LIMITED (1).pdf</v>
       </c>
       <c r="I35" t="str">
         <v>Y</v>
@@ -1419,28 +1419,28 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>MM Computer Communication</v>
       </c>
       <c r="B36" t="str">
-        <v>2023-04-01</v>
+        <v>2023-06-01</v>
       </c>
       <c r="C36" t="str">
-        <v>TI/57/G/23-24</v>
+        <v>MM/23-24/2928</v>
       </c>
       <c r="D36" t="str">
-        <v>5900</v>
+        <v>136290</v>
       </c>
       <c r="E36" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGMM001</v>
       </c>
       <c r="F36" t="str">
-        <v>75475</v>
+        <v/>
       </c>
       <c r="G36" t="str">
-        <v>MARCH 2023</v>
+        <v>Laptop rent april 2023</v>
       </c>
       <c r="H36" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8f454590-d784-11ed-8c3d-8127e1b69a51-57.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6c2253d0-01ed-11ee-97ed-b7f4ed4de0e7-2928 ILOG SOLUTIONS INDIA PRIVATE LIMITED.pdf</v>
       </c>
       <c r="I36" t="str">
         <v>Y</v>
@@ -1448,28 +1448,28 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Scorpio Imaging System</v>
       </c>
       <c r="B37" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-31</v>
       </c>
       <c r="C37" t="str">
-        <v>TI/59/G/23-24</v>
+        <v>224</v>
       </c>
       <c r="D37" t="str">
-        <v>5900</v>
+        <v>2950</v>
       </c>
       <c r="E37" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGSCO001</v>
       </c>
       <c r="F37" t="str">
-        <v>452865</v>
+        <v/>
       </c>
       <c r="G37" t="str">
-        <v>MARCH 2023</v>
+        <v>Printer rent may 23</v>
       </c>
       <c r="H37" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a2611640-d784-11ed-8c3d-8127e1b69a51-59.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8aa16630-0359-11ee-97ed-b7f4ed4de0e7-224.pdf</v>
       </c>
       <c r="I37" t="str">
         <v>Y</v>
@@ -1477,28 +1477,28 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Scorpio Imaging System</v>
       </c>
       <c r="B38" t="str">
-        <v>2023-04-01</v>
+        <v>2023-05-31</v>
       </c>
       <c r="C38" t="str">
-        <v>TI/60/G/23-24</v>
+        <v>223</v>
       </c>
       <c r="D38" t="str">
-        <v>5900</v>
+        <v>4130</v>
       </c>
       <c r="E38" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGSCO001</v>
       </c>
       <c r="F38" t="str">
-        <v>383286</v>
+        <v/>
       </c>
       <c r="G38" t="str">
-        <v>MARCH 2023</v>
+        <v>Printer rent may 23</v>
       </c>
       <c r="H38" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/845fd000-d784-11ed-8c3d-8127e1b69a51-60.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/acebeee0-0359-11ee-97ed-b7f4ed4de0e7-223.pdf</v>
       </c>
       <c r="I38" t="str">
         <v>Y</v>
@@ -1506,28 +1506,28 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>NSS System Services</v>
       </c>
       <c r="B39" t="str">
-        <v>2023-04-01</v>
+        <v>2023-06-01</v>
       </c>
       <c r="C39" t="str">
-        <v>TI/61/G/23-24</v>
+        <v>NSS/22-23/82</v>
       </c>
       <c r="D39" t="str">
-        <v>7455</v>
+        <v>4720</v>
       </c>
       <c r="E39" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGNSS001</v>
       </c>
       <c r="F39" t="str">
-        <v>134199</v>
+        <v/>
       </c>
       <c r="G39" t="str">
-        <v>MARCH 2023</v>
+        <v>Printer Rent may 2023</v>
       </c>
       <c r="H39" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c3e28290-d784-11ed-8c3d-8127e1b69a51-61.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9f0d86d0-0368-11ee-97ed-b7f4ed4de0e7-AWL ILOG SERVICES.pdf</v>
       </c>
       <c r="I39" t="str">
         <v>Y</v>
@@ -1535,28 +1535,28 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>Y Net Communication</v>
       </c>
       <c r="B40" t="str">
-        <v>2023-04-01</v>
+        <v>2023-06-05</v>
       </c>
       <c r="C40" t="str">
-        <v>TI/63/G/23-24</v>
+        <v xml:space="preserve"> YNet2023/0127</v>
       </c>
       <c r="D40" t="str">
         <v>5900</v>
       </c>
       <c r="E40" t="str">
-        <v>ILOGGPS001</v>
+        <v>ILOGYNET001</v>
       </c>
       <c r="F40" t="str">
-        <v>22065</v>
+        <v/>
       </c>
       <c r="G40" t="str">
-        <v>MARCH 2023</v>
+        <v>5MBPS rent june 23</v>
       </c>
       <c r="H40" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7088c5a0-d784-11ed-8c3d-8127e1b69a51-63.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8c0fd000-0369-11ee-97ed-b7f4ed4de0e7-Ilog Solution.pdf</v>
       </c>
       <c r="I40" t="str">
         <v>Y</v>
@@ -1564,28 +1564,28 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>GPS Office Equipment Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B41" t="str">
-        <v>2023-04-01</v>
+        <v>2023-06-03</v>
       </c>
       <c r="C41" t="str">
-        <v>TI/65/G/23-24</v>
+        <v>BM2406I001170555</v>
       </c>
       <c r="D41" t="str">
-        <v>3540</v>
+        <v>24195</v>
       </c>
       <c r="E41" t="str">
-        <v>ILOGGPS001</v>
+        <v>1148795355</v>
       </c>
       <c r="F41" t="str">
-        <v>132412</v>
+        <v/>
       </c>
       <c r="G41" t="str">
-        <v>MARCH 2023</v>
+        <v>Data sim may to jun 23</v>
       </c>
       <c r="H41" t="str">
-        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/67929cf0-d784-11ed-8c3d-8127e1b69a51-65.pdf</v>
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8d7cbb90-036b-11ee-97ed-b7f4ed4de0e7-1148795355_Jun.pdf</v>
       </c>
       <c r="I41" t="str">
         <v>Y</v>
@@ -1593,36 +1593,935 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B42" t="str">
+        <v>2023-05-09</v>
+      </c>
+      <c r="C42" t="str">
+        <v>HT2406I000644375</v>
+      </c>
+      <c r="D42" t="str">
+        <v>588.92</v>
+      </c>
+      <c r="E42" t="str">
+        <v>7010625278</v>
+      </c>
+      <c r="F42" t="str">
+        <v/>
+      </c>
+      <c r="G42" t="str">
+        <v>08-Apr-2023 to 07-May-2023</v>
+      </c>
+      <c r="H42" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/decaf110-036b-11ee-97ed-b7f4ed4de0e7-7010625278_May.pdf</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B43" t="str">
+        <v>2023-05-27</v>
+      </c>
+      <c r="C43" t="str">
+        <v>HT2406I000905582</v>
+      </c>
+      <c r="D43" t="str">
+        <v>295</v>
+      </c>
+      <c r="E43" t="str">
+        <v>7015898060</v>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>26-Apr-2023 to 25-May-2023</v>
+      </c>
+      <c r="H43" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3fc9dfd0-036c-11ee-97ed-b7f4ed4de0e7-7015898060_May.pdf</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B44" t="str">
+        <v>2023-05-27</v>
+      </c>
+      <c r="C44" t="str">
+        <v>HT2406I000905581</v>
+      </c>
+      <c r="D44" t="str">
+        <v>295</v>
+      </c>
+      <c r="E44" t="str">
+        <v>7015898062</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>26-Apr-2023 to 25-May-2023</v>
+      </c>
+      <c r="H44" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/79820720-036c-11ee-97ed-b7f4ed4de0e7-7015898062_May.pdf</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B45" t="str">
+        <v>2023-06-03</v>
+      </c>
+      <c r="C45" t="str">
+        <v>HT2406I001019537</v>
+      </c>
+      <c r="D45" t="str">
+        <v>1162</v>
+      </c>
+      <c r="E45" t="str">
+        <v>7023500364</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>Epronto may to jun 23</v>
+      </c>
+      <c r="H45" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/17e6e2f0-036d-11ee-97ed-b7f4ed4de0e7-7023500364_Jun.pdf</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B46" t="str">
+        <v>2023-06-03</v>
+      </c>
+      <c r="C46" t="str">
+        <v>HT2406I000529961</v>
+      </c>
+      <c r="D46" t="str">
+        <v>1295</v>
+      </c>
+      <c r="E46" t="str">
+        <v>7023500364</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>Epronto apr to may 23</v>
+      </c>
+      <c r="H46" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/5c84a6e0-036d-11ee-97ed-b7f4ed4de0e7-7023500364_May.pdf</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B47" t="str">
+        <v>2023-05-18</v>
+      </c>
+      <c r="C47" t="str">
+        <v>HT2406I000745728</v>
+      </c>
+      <c r="D47" t="str">
+        <v>14160</v>
+      </c>
+      <c r="E47" t="str">
+        <v>7038063008</v>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>17-Apr-2023 to 16-May-2023</v>
+      </c>
+      <c r="H47" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/fdcaf7c0-036d-11ee-97ed-b7f4ed4de0e7-7038063008_may.pdf</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B48" t="str">
+        <v>2023-05-03</v>
+      </c>
+      <c r="C48" t="str">
+        <v>BM2406I000567109</v>
+      </c>
+      <c r="D48" t="str">
+        <v>10471</v>
+      </c>
+      <c r="E48" t="str">
+        <v>1307035590</v>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>Sim rent APR TO MAY 23</v>
+      </c>
+      <c r="H48" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/3e692410-037c-11ee-97ed-b7f4ed4de0e7-1307035590_May.pdf</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B49" t="str">
+        <v>2023-06-03</v>
+      </c>
+      <c r="C49" t="str">
+        <v>BM2406I001135689</v>
+      </c>
+      <c r="D49" t="str">
+        <v>10488</v>
+      </c>
+      <c r="E49" t="str">
+        <v>1307035590</v>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>Sim rent may to jun 23</v>
+      </c>
+      <c r="H49" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8f327220-037c-11ee-97ed-b7f4ed4de0e7-1307035590_Jun.pdf</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
         <v>GPS Office Equipment Private Limited</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B50" t="str">
+        <v>2023-03-01</v>
+      </c>
+      <c r="C50" t="str">
+        <v>TI/5323/G/22-23</v>
+      </c>
+      <c r="D50" t="str">
+        <v>4130</v>
+      </c>
+      <c r="E50" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F50" t="str">
+        <v>25052</v>
+      </c>
+      <c r="G50" t="str">
+        <v>march 23</v>
+      </c>
+      <c r="H50" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/923a9030-c86f-11ed-a9ad-1df920e10020-5323.pdf</v>
+      </c>
+      <c r="I50" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Brill Infotech</v>
+      </c>
+      <c r="B51" t="str">
+        <v>2023-03-28</v>
+      </c>
+      <c r="C51" t="str">
+        <v>56</v>
+      </c>
+      <c r="D51" t="str">
+        <v>6000</v>
+      </c>
+      <c r="E51" t="str">
+        <v>ILOGBRILL001</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/fbee5760-ee57-11ed-9441-6183f7476387-Invoice56.pdf</v>
+      </c>
+      <c r="I51" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Aspirant Tech Services</v>
+      </c>
+      <c r="B52" t="str">
+        <v>2023-03-27</v>
+      </c>
+      <c r="C52" t="str">
+        <v>57/2022-23</v>
+      </c>
+      <c r="D52" t="str">
+        <v>2596</v>
+      </c>
+      <c r="E52" t="str">
+        <v>ILOGASP001</v>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/0a1a9e90-cd5e-11ed-99bc-5756c144ba05-awl march.pdf</v>
+      </c>
+      <c r="I52" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B53" t="str">
         <v>2023-04-01</v>
       </c>
-      <c r="C42" t="str">
+      <c r="C53" t="str">
+        <v>TI/354/1-23-24</v>
+      </c>
+      <c r="D53" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E53" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F53" t="str">
+        <v>190214</v>
+      </c>
+      <c r="G53" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H53" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d668c170-d76d-11ed-8c3d-8127e1b69a51-354.pdf</v>
+      </c>
+      <c r="I53" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B54" t="str">
+        <v>2023-04-03</v>
+      </c>
+      <c r="C54" t="str">
+        <v>HT2406I000007378</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1371</v>
+      </c>
+      <c r="E54" t="str">
+        <v>7023500364</v>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v>02-Mar-2023 to 01-Apr-2023</v>
+      </c>
+      <c r="H54" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/e8dc3ae0-d1e0-11ed-865d-39c972c28ff9-Epronto Invoice.pdf</v>
+      </c>
+      <c r="I54" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>BS Services</v>
+      </c>
+      <c r="B55" t="str">
+        <v>2023-04-03</v>
+      </c>
+      <c r="C55" t="str">
+        <v>549</v>
+      </c>
+      <c r="D55" t="str">
+        <v>12250</v>
+      </c>
+      <c r="E55" t="str">
+        <v>ILOGBS001</v>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H55" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/9f48c3a0-d2ab-11ed-ac04-7b51279827d9-Awl Bill April 2023.pdf</v>
+      </c>
+      <c r="I55" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B56" t="str">
+        <v>2023-04-07</v>
+      </c>
+      <c r="C56" t="str">
+        <v>BBL292404B002268</v>
+      </c>
+      <c r="D56" t="str">
+        <v>17700</v>
+      </c>
+      <c r="E56" t="str">
+        <v>31-40011108</v>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v>01-Apr-2023 to 30-Jun-2023</v>
+      </c>
+      <c r="H56" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/d89910f0-d757-11ed-8c3d-8127e1b69a51-21-100031981-BBL292404B002268-BW-07-Apr-2023.pdf</v>
+      </c>
+      <c r="I56" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B57" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C57" t="str">
+        <v>TI/352/1-23-24</v>
+      </c>
+      <c r="D57" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E57" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F57" t="str">
+        <v>140962</v>
+      </c>
+      <c r="G57" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H57" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c7c50b60-d76d-11ed-8c3d-8127e1b69a51-352.pdf</v>
+      </c>
+      <c r="I57" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B58" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C58" t="str">
+        <v>TI/642/A/23-24</v>
+      </c>
+      <c r="D58" t="str">
+        <v>10372</v>
+      </c>
+      <c r="E58" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F58" t="str">
+        <v>145900</v>
+      </c>
+      <c r="G58" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H58" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/ab9eedc0-d76d-11ed-8c3d-8127e1b69a51-642.pdf</v>
+      </c>
+      <c r="I58" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B59" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C59" t="str">
+        <v>TI/643/A/23-24</v>
+      </c>
+      <c r="D59" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E59" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F59" t="str">
+        <v>166302</v>
+      </c>
+      <c r="G59" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H59" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a0eae870-d76d-11ed-8c3d-8127e1b69a51-643.pdf</v>
+      </c>
+      <c r="I59" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B60" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C60" t="str">
+        <v>TI/644/A/23-24</v>
+      </c>
+      <c r="D60" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E60" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F60" t="str">
+        <v>1057841</v>
+      </c>
+      <c r="G60" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H60" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/97c635b0-d76d-11ed-8c3d-8127e1b69a51-644.pdf</v>
+      </c>
+      <c r="I60" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B61" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C61" t="str">
+        <v>TI/351/1-23-24</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E61" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F61" t="str">
+        <v>154459</v>
+      </c>
+      <c r="G61" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H61" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/b687beb0-d76d-11ed-8c3d-8127e1b69a51-351.pdf</v>
+      </c>
+      <c r="I61" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B62" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C62" t="str">
+        <v>TI/645/A/23-24</v>
+      </c>
+      <c r="D62" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E62" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F62" t="str">
+        <v>596451</v>
+      </c>
+      <c r="G62" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H62" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8bcd0630-d76d-11ed-8c3d-8127e1b69a51-645.pdf</v>
+      </c>
+      <c r="I62" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B63" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C63" t="str">
+        <v>TI/646/A/23-24</v>
+      </c>
+      <c r="D63" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E63" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F63" t="str">
+        <v>61241</v>
+      </c>
+      <c r="G63" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H63" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/82a482e0-d76d-11ed-8c3d-8127e1b69a51-646.pdf</v>
+      </c>
+      <c r="I63" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B64" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C64" t="str">
+        <v>TI/647/A/23-24</v>
+      </c>
+      <c r="D64" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E64" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F64" t="str">
+        <v>47854</v>
+      </c>
+      <c r="G64" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H64" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/798d3da0-d76d-11ed-8c3d-8127e1b69a51-647.pdf</v>
+      </c>
+      <c r="I64" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B65" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C65" t="str">
+        <v>TI/648/A/23-24</v>
+      </c>
+      <c r="D65" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E65" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F65" t="str">
+        <v>1845</v>
+      </c>
+      <c r="G65" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H65" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/6e6010b0-d76d-11ed-8c3d-8127e1b69a51-648.pdf</v>
+      </c>
+      <c r="I65" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B66" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C66" t="str">
+        <v>TI/633/A/23-24</v>
+      </c>
+      <c r="D66" t="str">
+        <v>2950</v>
+      </c>
+      <c r="E66" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="F66" t="str">
+        <v>43888</v>
+      </c>
+      <c r="G66" t="str">
+        <v>march 2023</v>
+      </c>
+      <c r="H66" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/62a43850-d76d-11ed-8c3d-8127e1b69a51-633.pdf</v>
+      </c>
+      <c r="I66" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B67" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C67" t="str">
+        <v>TI/57/G/23-24</v>
+      </c>
+      <c r="D67" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E67" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F67" t="str">
+        <v>75475</v>
+      </c>
+      <c r="G67" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H67" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/8f454590-d784-11ed-8c3d-8127e1b69a51-57.pdf</v>
+      </c>
+      <c r="I67" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B68" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C68" t="str">
+        <v>TI/59/G/23-24</v>
+      </c>
+      <c r="D68" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E68" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F68" t="str">
+        <v>452865</v>
+      </c>
+      <c r="G68" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H68" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/a2611640-d784-11ed-8c3d-8127e1b69a51-59.pdf</v>
+      </c>
+      <c r="I68" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B69" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C69" t="str">
+        <v>TI/60/G/23-24</v>
+      </c>
+      <c r="D69" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E69" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F69" t="str">
+        <v>383286</v>
+      </c>
+      <c r="G69" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H69" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/845fd000-d784-11ed-8c3d-8127e1b69a51-60.pdf</v>
+      </c>
+      <c r="I69" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B70" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C70" t="str">
+        <v>TI/61/G/23-24</v>
+      </c>
+      <c r="D70" t="str">
+        <v>7455</v>
+      </c>
+      <c r="E70" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F70" t="str">
+        <v>134199</v>
+      </c>
+      <c r="G70" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H70" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/c3e28290-d784-11ed-8c3d-8127e1b69a51-61.pdf</v>
+      </c>
+      <c r="I70" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B71" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C71" t="str">
+        <v>TI/63/G/23-24</v>
+      </c>
+      <c r="D71" t="str">
+        <v>5900</v>
+      </c>
+      <c r="E71" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F71" t="str">
+        <v>22065</v>
+      </c>
+      <c r="G71" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H71" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/7088c5a0-d784-11ed-8c3d-8127e1b69a51-63.pdf</v>
+      </c>
+      <c r="I71" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B72" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C72" t="str">
+        <v>TI/65/G/23-24</v>
+      </c>
+      <c r="D72" t="str">
+        <v>3540</v>
+      </c>
+      <c r="E72" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="F72" t="str">
+        <v>132412</v>
+      </c>
+      <c r="G72" t="str">
+        <v>MARCH 2023</v>
+      </c>
+      <c r="H72" t="str">
+        <v>https://swimlocker.blob.core.windows.net/awlvendorportal/67929cf0-d784-11ed-8c3d-8127e1b69a51-65.pdf</v>
+      </c>
+      <c r="I72" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B73" t="str">
+        <v>2023-04-01</v>
+      </c>
+      <c r="C73" t="str">
         <v>TI/67/G/23-24</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D73" t="str">
         <v>4130</v>
       </c>
-      <c r="E42" t="str">
+      <c r="E73" t="str">
         <v>ILOGGPS001</v>
       </c>
-      <c r="F42" t="str">
+      <c r="F73" t="str">
         <v>25432</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G73" t="str">
         <v>MARCH 2023</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H73" t="str">
         <v>https://swimlocker.blob.core.windows.net/awlvendorportal/5c7e0110-d784-11ed-8c3d-8127e1b69a51-67.pdf</v>
       </c>
-      <c r="I42" t="str">
+      <c r="I73" t="str">
         <v>Y</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I73"/>
   </ignoredErrors>
 </worksheet>
 </file>